--- a/data_driver/Change_Request_List.xlsx
+++ b/data_driver/Change_Request_List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Change_List" sheetId="1" state="visible" r:id="rId1"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>29-Jul-20</t>
+          <t>10-Aug-20</t>
         </is>
       </c>
       <c r="C2" s="7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="K2" s="11" t="inlineStr">
         <is>
-          <t>CRQ000000248819</t>
+          <t>CRQ000000249241</t>
         </is>
       </c>
       <c r="L2" s="11" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>29-Jul-20</t>
+          <t>10-Aug-20</t>
         </is>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>Md. Masudur Rahman</t>
+          <t>KM Jiaul Islam Jibon</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Legacy</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>New Link instalation</t>
+          <t xml:space="preserve">TEST </t>
         </is>
       </c>
       <c r="F3" s="9" t="inlineStr">
         <is>
-          <t>NGSNG07,NGSNG57</t>
+          <t>MBKLR30,MBKLR27</t>
         </is>
       </c>
       <c r="G3" s="14" t="inlineStr">
@@ -708,17 +708,17 @@
       </c>
       <c r="J3" s="10" t="inlineStr">
         <is>
-          <t>e.co_Dhaka South</t>
+          <t>e.co_Dhaka Metro</t>
         </is>
       </c>
       <c r="K3" s="11" t="inlineStr">
         <is>
-          <t>CRQ000000248827</t>
+          <t>CRQ000000249243</t>
         </is>
       </c>
       <c r="L3" s="11" t="inlineStr">
         <is>
-          <t>Muhammad Shahed</t>
+          <t>Shahriar Mahbub</t>
         </is>
       </c>
     </row>
@@ -726,481 +726,129 @@
       <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>29-Jul-20</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>PAT activity</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>SYSDRB6,SYSDRA8</t>
-        </is>
-      </c>
-      <c r="G4" s="14" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>Sylhet</t>
-        </is>
-      </c>
-      <c r="J4" s="10" t="inlineStr">
-        <is>
-          <t>e.co_Sylhet</t>
-        </is>
-      </c>
-      <c r="K4" s="11" t="inlineStr">
-        <is>
-          <t>CRQ000000248831</t>
-        </is>
-      </c>
-      <c r="L4" s="11" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="14" t="n"/>
+      <c r="H4" s="9" t="n"/>
+      <c r="I4" s="9" t="n"/>
+      <c r="J4" s="10" t="n"/>
+      <c r="K4" s="11" t="n"/>
+      <c r="L4" s="11" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="1">
       <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>29-Jul-20</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>DHAKA_MODERNIZATION</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RAU Release Udate </t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>DHKHL05,DHKHL74</t>
-        </is>
-      </c>
-      <c r="G5" s="14" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H5" s="9" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I5" s="9" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka Metro</t>
-        </is>
-      </c>
-      <c r="K5" s="11" t="inlineStr">
-        <is>
-          <t>CRQ000000248835</t>
-        </is>
-      </c>
-      <c r="L5" s="11" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="9" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="11" t="n"/>
+      <c r="L5" s="11" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="1">
       <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>29-Jul-20</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>NCCD AbisoIP</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Dismantle activity</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>SYGWN10,SYGWN13,SYGWN05,SYGWN01,SYSDR34</t>
-        </is>
-      </c>
-      <c r="G6" s="14" t="inlineStr">
-        <is>
-          <t>Non-Service Effective</t>
-        </is>
-      </c>
-      <c r="H6" s="9" t="inlineStr">
-        <is>
-          <t>00:00 Minute</t>
-        </is>
-      </c>
-      <c r="I6" s="9" t="inlineStr">
-        <is>
-          <t>Sylhet</t>
-        </is>
-      </c>
-      <c r="J6" s="10" t="inlineStr">
-        <is>
-          <t>e.co_Sylhet</t>
-        </is>
-      </c>
-      <c r="K6" s="11" t="inlineStr">
-        <is>
-          <t>CRQ000000248840</t>
-        </is>
-      </c>
-      <c r="L6" s="11" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="14" t="n"/>
+      <c r="H6" s="9" t="n"/>
+      <c r="I6" s="9" t="n"/>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="11" t="n"/>
+      <c r="L6" s="11" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="1">
       <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>28-Jul-20</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Pinacle</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>MMU  changed</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>DHADB03,DHADB20</t>
-        </is>
-      </c>
-      <c r="G7" s="14" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H7" s="9" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I7" s="9" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J7" s="10" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka Metro</t>
-        </is>
-      </c>
-      <c r="K7" s="11" t="inlineStr">
-        <is>
-          <t>CRQ000000248532</t>
-        </is>
-      </c>
-      <c r="L7" s="11" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="9" t="n"/>
+      <c r="I7" s="9" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="11" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="1">
       <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>28-Jul-20</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>CEP</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>PAT activity</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>DHLLB15,DHKTL18</t>
-        </is>
-      </c>
-      <c r="G8" s="14" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J8" s="10" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka Metro</t>
-        </is>
-      </c>
-      <c r="K8" s="11" t="inlineStr">
-        <is>
-          <t>CRQ000000248535</t>
-        </is>
-      </c>
-      <c r="L8" s="11" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="9" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="10" t="n"/>
+      <c r="K8" s="11" t="n"/>
+      <c r="L8" s="11" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="1">
       <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>28-Jul-20</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>DHAKA_MODERNIZATION</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RAU Release Udate </t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>DHKHL05,DHKHL74</t>
-        </is>
-      </c>
-      <c r="G9" s="14" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J9" s="10" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka Metro</t>
-        </is>
-      </c>
-      <c r="K9" s="11" t="inlineStr">
-        <is>
-          <t>CRQ000000248538</t>
-        </is>
-      </c>
-      <c r="L9" s="11" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="14" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="10" t="n"/>
+      <c r="K9" s="11" t="n"/>
+      <c r="L9" s="11" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="1">
       <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>28-Jul-20</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>CEP</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>New Link instalation</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>DHTEJ07,DHTEJ15,DHKTL22</t>
-        </is>
-      </c>
-      <c r="G10" s="14" t="inlineStr">
-        <is>
-          <t>Non-Service Effective</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>00:00 Minute</t>
-        </is>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J10" s="10" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka Metro</t>
-        </is>
-      </c>
-      <c r="K10" s="11" t="inlineStr">
-        <is>
-          <t>CRQ000000248543</t>
-        </is>
-      </c>
-      <c r="L10" s="11" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="14" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="10" t="n"/>
+      <c r="K10" s="11" t="n"/>
+      <c r="L10" s="11" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="1">
       <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>28-Jul-20</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Padma_Colo</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Traffic Shifting 1/1</t>
-        </is>
-      </c>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>HGSDR24,HGSDR04,HGBNC04,HGNBG05</t>
-        </is>
-      </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Sylhet</t>
-        </is>
-      </c>
-      <c r="J11" s="10" t="inlineStr">
-        <is>
-          <t>e.co_Sylhet</t>
-        </is>
-      </c>
-      <c r="K11" s="11" t="inlineStr">
-        <is>
-          <t>CRQ000000248545</t>
-        </is>
-      </c>
-      <c r="L11" s="11" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="9" t="n"/>
+      <c r="J11" s="10" t="n"/>
+      <c r="K11" s="11" t="n"/>
+      <c r="L11" s="11" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="1">
       <c r="A12" s="7" t="n">

--- a/data_driver/Change_Request_List.xlsx
+++ b/data_driver/Change_Request_List.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>11-Aug-20</t>
+          <t>12-Aug-20</t>
         </is>
       </c>
       <c r="C2" s="28" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="K2" s="31" t="inlineStr">
         <is>
-          <t>CRQ000000250717</t>
+          <t>CRQ000000250863</t>
         </is>
       </c>
       <c r="L2" s="30" t="inlineStr">

--- a/data_driver/Change_Request_List.xlsx
+++ b/data_driver/Change_Request_List.xlsx
@@ -3,15 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Change_List" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Information" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Information" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Barisal">Information!$V$2</definedName>
     <definedName name="Chittagong">Information!$Z$2</definedName>
@@ -338,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -420,6 +418,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -996,63 +1006,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
-      <sheetName val="Change_List"/>
-      <sheetName val="Information"/>
-      <sheetName val="My_NCR"/>
-      <sheetName val="Master_Change_Requirement"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L21"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="No" dataDxfId="11">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[No]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="Date" dataDxfId="10">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Date]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="Project Coordinator" dataDxfId="9">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Project Coordinator]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Project Name" dataDxfId="8">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Project Name]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="Change Activity" dataDxfId="7">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Change Activity]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="Impact Site List" dataDxfId="6">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Impact Site List]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="Service Type" dataDxfId="5">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Service Type]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="Down Time" dataDxfId="4">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Down Time]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="Site Group" dataDxfId="3">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Site Group]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="Commercial Zone" dataDxfId="2">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Commercial Zone]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="No" dataDxfId="11"/>
+    <tableColumn id="11" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" name="Project Coordinator" dataDxfId="9"/>
+    <tableColumn id="3" name="Project Name" dataDxfId="8"/>
+    <tableColumn id="4" name="Change Activity" dataDxfId="7"/>
+    <tableColumn id="5" name="Impact Site List" dataDxfId="6"/>
+    <tableColumn id="6" name="Service Type" dataDxfId="5"/>
+    <tableColumn id="7" name="Down Time" dataDxfId="4"/>
+    <tableColumn id="8" name="Site Group" dataDxfId="3"/>
+    <tableColumn id="9" name="Commercial Zone" dataDxfId="2"/>
     <tableColumn id="10" name="NCR Number" dataDxfId="1"/>
-    <tableColumn id="12" name="Change Manager" dataDxfId="0">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Change Manager]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="12" name="Change Manager" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1328,7 +1297,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1344,8 +1313,8 @@
     <col width="23.140625" bestFit="1" customWidth="1" style="25" min="10" max="10"/>
     <col width="16.85546875" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
     <col width="17.42578125" bestFit="1" customWidth="1" style="25" min="12" max="12"/>
-    <col width="9.140625" customWidth="1" style="25" min="13" max="14"/>
-    <col width="9.140625" customWidth="1" style="25" min="15" max="16384"/>
+    <col width="9.140625" customWidth="1" style="25" min="13" max="20"/>
+    <col width="9.140625" customWidth="1" style="25" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" s="25">
@@ -1416,12 +1385,12 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>12-Aug-20</t>
+          <t>16-Aug-20</t>
         </is>
       </c>
       <c r="C2" s="28" t="inlineStr">
         <is>
-          <t>Md. Masudur Rahman</t>
+          <t>KM Jiaul Islam Jibon</t>
         </is>
       </c>
       <c r="D2" s="29" t="inlineStr">
@@ -1431,12 +1400,12 @@
       </c>
       <c r="E2" s="29" t="inlineStr">
         <is>
-          <t>Dismantle activity</t>
+          <t>E1 Deletion</t>
         </is>
       </c>
       <c r="F2" s="29" t="inlineStr">
         <is>
-          <t>SYSDRD4,SYDKS28,SYGLP01,SYSDR86,SYSDR43,SYSDRC2</t>
+          <t>SNSDR01,SNSDR03,SYBLG05,SYBNB20,SYBNB40,SYBSW07,SYKNG02,SYSDRA7,SNSDR22,SNSDR25</t>
         </is>
       </c>
       <c r="G2" s="29" t="inlineStr">
@@ -1461,7 +1430,7 @@
       </c>
       <c r="K2" s="31" t="inlineStr">
         <is>
-          <t>CRQ000000250863</t>
+          <t>CRQ000000252000</t>
         </is>
       </c>
       <c r="L2" s="30" t="inlineStr">
@@ -1476,27 +1445,27 @@
       </c>
       <c r="B3" s="27" t="inlineStr">
         <is>
-          <t>11-Aug-20</t>
+          <t>15-Aug-20</t>
         </is>
       </c>
       <c r="C3" s="28" t="inlineStr">
         <is>
-          <t>Md. Rashekul Islam Raju</t>
+          <t>Md. Masudur Rahman</t>
         </is>
       </c>
       <c r="D3" s="29" t="inlineStr">
         <is>
-          <t>Project 964</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="E3" s="29" t="inlineStr">
         <is>
-          <t>GSM Antenna Optimization</t>
+          <t>Rectification &amp; Traffic shifting</t>
         </is>
       </c>
       <c r="F3" s="29" t="inlineStr">
         <is>
-          <t>DHSBB16</t>
+          <t>HGSDR24,HGSDR04, HGBNC04,HGNBG05</t>
         </is>
       </c>
       <c r="G3" s="29" t="inlineStr">
@@ -1506,22 +1475,22 @@
       </c>
       <c r="H3" s="29" t="inlineStr">
         <is>
-          <t>00:45 Minute</t>
+          <t>00:30 Minute</t>
         </is>
       </c>
       <c r="I3" s="29" t="inlineStr">
         <is>
-          <t>Dhaka</t>
+          <t>Sylhet</t>
         </is>
       </c>
       <c r="J3" s="29" t="inlineStr">
         <is>
-          <t>e.co_Dhaka Metro</t>
+          <t>e.co_Sylhet</t>
         </is>
       </c>
       <c r="K3" s="31" t="inlineStr">
         <is>
-          <t>CRQ000000250593</t>
+          <t>CRQ000000251948</t>
         </is>
       </c>
       <c r="L3" s="30" t="inlineStr">
@@ -1536,27 +1505,27 @@
       </c>
       <c r="B4" s="27" t="inlineStr">
         <is>
-          <t>11-Aug-20</t>
+          <t>15-Aug-20</t>
         </is>
       </c>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>KM Jiaul Islam Jibon</t>
+          <t>Md. Masudur Rahman</t>
         </is>
       </c>
       <c r="D4" s="29" t="inlineStr">
         <is>
-          <t>Dhaka-Modernization</t>
+          <t>NCCD AbisoIP</t>
         </is>
       </c>
       <c r="E4" s="33" t="inlineStr">
         <is>
-          <t>FE Configuration</t>
+          <t>Dismantle activity</t>
         </is>
       </c>
       <c r="F4" s="29" t="inlineStr">
         <is>
-          <t>TNDDR05,TNDDR15,TNKLH15,TNKLH16,TNMDP29</t>
+          <t>SYBNB22,SYBNB30,SNCTK01,SNCTK02,SNCTK04,SNCTK02,SNSDR03,SNSDR02,SYBNB15,SYBNB12</t>
         </is>
       </c>
       <c r="G4" s="29" t="inlineStr">
@@ -1571,17 +1540,17 @@
       </c>
       <c r="I4" s="29" t="inlineStr">
         <is>
-          <t>Mymensingh</t>
+          <t>Sylhet</t>
         </is>
       </c>
       <c r="J4" s="29" t="inlineStr">
         <is>
-          <t>e.co_Mymensingh</t>
+          <t>e.co_Sylhet</t>
         </is>
       </c>
       <c r="K4" s="31" t="inlineStr">
         <is>
-          <t>CRQ000000250595</t>
+          <t>CRQ000000251950</t>
         </is>
       </c>
       <c r="L4" s="30" t="inlineStr">
@@ -1596,27 +1565,27 @@
       </c>
       <c r="B5" s="27" t="inlineStr">
         <is>
-          <t>11-Aug-20</t>
+          <t>15-Aug-20</t>
         </is>
       </c>
       <c r="C5" s="28" t="inlineStr">
         <is>
-          <t>KM Jiaul Islam Jibon</t>
+          <t>Md. Masudur Rahman</t>
         </is>
       </c>
       <c r="D5" s="29" t="inlineStr">
         <is>
-          <t>Dhaka-Modernization</t>
+          <t>DHAKA_MODERNIZATION</t>
         </is>
       </c>
       <c r="E5" s="29" t="inlineStr">
         <is>
-          <t>FE Configuration</t>
+          <t>New Link instalation</t>
         </is>
       </c>
       <c r="F5" s="29" t="inlineStr">
         <is>
-          <t>DHMDP42,DHMDP47,DHMJH47,DHPTN16,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHRMN36</t>
+          <t>TNNGP12,TNKLH04</t>
         </is>
       </c>
       <c r="G5" s="29" t="inlineStr">
@@ -1631,17 +1600,17 @@
       </c>
       <c r="I5" s="29" t="inlineStr">
         <is>
-          <t>Dhaka</t>
+          <t>Mymensingh</t>
         </is>
       </c>
       <c r="J5" s="29" t="inlineStr">
         <is>
-          <t>e.co_Dhaka Metro</t>
+          <t>e.co_Mymensingh</t>
         </is>
       </c>
       <c r="K5" s="31" t="inlineStr">
         <is>
-          <t>CRQ000000250598</t>
+          <t>CRQ000000251952</t>
         </is>
       </c>
       <c r="L5" s="30" t="inlineStr">
@@ -1656,7 +1625,7 @@
       </c>
       <c r="B6" s="27" t="inlineStr">
         <is>
-          <t>11-Aug-20</t>
+          <t>15-Aug-20</t>
         </is>
       </c>
       <c r="C6" s="28" t="inlineStr">
@@ -1676,7 +1645,7 @@
       </c>
       <c r="F6" s="29" t="inlineStr">
         <is>
-          <t>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46</t>
+          <t>DHMDP42,DHMDP47,DHMJH47,DHPTN16,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHRMN36</t>
         </is>
       </c>
       <c r="G6" s="29" t="inlineStr">
@@ -1696,12 +1665,12 @@
       </c>
       <c r="J6" s="29" t="inlineStr">
         <is>
-          <t>e.co_Dhaka North</t>
+          <t>e.co_Dhaka Metro</t>
         </is>
       </c>
       <c r="K6" s="30" t="inlineStr">
         <is>
-          <t>CRQ000000250602</t>
+          <t>CRQ000000251954</t>
         </is>
       </c>
       <c r="L6" s="30" t="inlineStr">
@@ -1716,7 +1685,7 @@
       </c>
       <c r="B7" s="27" t="inlineStr">
         <is>
-          <t>11-Aug-20</t>
+          <t>15-Aug-20</t>
         </is>
       </c>
       <c r="C7" s="28" t="inlineStr">
@@ -1726,17 +1695,17 @@
       </c>
       <c r="D7" s="29" t="inlineStr">
         <is>
-          <t xml:space="preserve">CEP_OEPX </t>
+          <t>Dhaka-Modernization</t>
         </is>
       </c>
       <c r="E7" s="29" t="inlineStr">
         <is>
-          <t>FE Configuration &amp; GE Shifting</t>
+          <t>FE Configuration</t>
         </is>
       </c>
       <c r="F7" s="29" t="inlineStr">
         <is>
-          <t>DHDHN07,DHRMN09</t>
+          <t>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46</t>
         </is>
       </c>
       <c r="G7" s="29" t="inlineStr">
@@ -1756,12 +1725,12 @@
       </c>
       <c r="J7" s="29" t="inlineStr">
         <is>
-          <t>e.co_Dhaka Metro</t>
+          <t>e.co_Dhaka North</t>
         </is>
       </c>
       <c r="K7" s="30" t="inlineStr">
         <is>
-          <t>CRQ000000250604</t>
+          <t>CRQ000000251956</t>
         </is>
       </c>
       <c r="L7" s="30" t="inlineStr">
@@ -1776,27 +1745,27 @@
       </c>
       <c r="B8" s="27" t="inlineStr">
         <is>
-          <t>11-Aug-20</t>
+          <t>15-Aug-20</t>
         </is>
       </c>
       <c r="C8" s="28" t="inlineStr">
         <is>
-          <t>Md. Masudur Rahman</t>
+          <t>KM Jiaul Islam Jibon</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr">
         <is>
-          <t>Padma_Colo</t>
+          <t>CEP-OPEX</t>
         </is>
       </c>
       <c r="E8" s="29" t="inlineStr">
         <is>
-          <t>Rectification</t>
+          <t>FE Configuration &amp; GE Shifting</t>
         </is>
       </c>
       <c r="F8" s="29" t="inlineStr">
         <is>
-          <t>HGBNC04,HGNBG05</t>
+          <t>DHTEJ72,DHGUL74</t>
         </is>
       </c>
       <c r="G8" s="29" t="inlineStr">
@@ -1811,17 +1780,17 @@
       </c>
       <c r="I8" s="29" t="inlineStr">
         <is>
-          <t>Sylhet</t>
+          <t>Dhaka</t>
         </is>
       </c>
       <c r="J8" s="29" t="inlineStr">
         <is>
-          <t>e.co_Sylhet</t>
+          <t>e.co_Dhaka Metro</t>
         </is>
       </c>
       <c r="K8" s="30" t="inlineStr">
         <is>
-          <t>CRQ000000250607</t>
+          <t>CRQ000000251959</t>
         </is>
       </c>
       <c r="L8" s="30" t="inlineStr">
@@ -1834,121 +1803,33 @@
       <c r="A9" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="inlineStr">
-        <is>
-          <t>11-Aug-20</t>
-        </is>
-      </c>
-      <c r="C9" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D9" s="29" t="inlineStr">
-        <is>
-          <t>DHAKA_MODERNIZATION</t>
-        </is>
-      </c>
-      <c r="E9" s="29" t="inlineStr">
-        <is>
-          <t>Rectification</t>
-        </is>
-      </c>
-      <c r="F9" s="29" t="inlineStr">
-        <is>
-          <t>TNGPL01,TNGTL27</t>
-        </is>
-      </c>
-      <c r="G9" s="29" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H9" s="29" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I9" s="29" t="inlineStr">
-        <is>
-          <t>Mymensingh</t>
-        </is>
-      </c>
-      <c r="J9" s="29" t="inlineStr">
-        <is>
-          <t>e.co_Mymensingh</t>
-        </is>
-      </c>
-      <c r="K9" s="30" t="inlineStr">
-        <is>
-          <t>CRQ000000250609</t>
-        </is>
-      </c>
-      <c r="L9" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B9" s="27" t="n"/>
+      <c r="C9" s="28" t="n"/>
+      <c r="D9" s="29" t="n"/>
+      <c r="E9" s="29" t="n"/>
+      <c r="F9" s="29" t="n"/>
+      <c r="G9" s="29" t="n"/>
+      <c r="H9" s="29" t="n"/>
+      <c r="I9" s="29" t="n"/>
+      <c r="J9" s="29" t="n"/>
+      <c r="K9" s="30" t="n"/>
+      <c r="L9" s="30" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="25">
       <c r="A10" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="inlineStr">
-        <is>
-          <t>11-Aug-20</t>
-        </is>
-      </c>
-      <c r="C10" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D10" s="29" t="inlineStr">
-        <is>
-          <t>NCCD AbisoIP</t>
-        </is>
-      </c>
-      <c r="E10" s="29" t="inlineStr">
-        <is>
-          <t>Dismantle activity</t>
-        </is>
-      </c>
-      <c r="F10" s="29" t="inlineStr">
-        <is>
-          <t>SYGWN10,SYGWN13,SYGWN01,SYBNB02,SYSDR34,SYSDR08,SYSDR07,SYSDR13,SYSDR86,SYSDR43</t>
-        </is>
-      </c>
-      <c r="G10" s="29" t="inlineStr">
-        <is>
-          <t>Non-Service Effective</t>
-        </is>
-      </c>
-      <c r="H10" s="29" t="inlineStr">
-        <is>
-          <t>00:00 Minute</t>
-        </is>
-      </c>
-      <c r="I10" s="29" t="inlineStr">
-        <is>
-          <t>Sylhet</t>
-        </is>
-      </c>
-      <c r="J10" s="29" t="inlineStr">
-        <is>
-          <t>e.co_Sylhet</t>
-        </is>
-      </c>
-      <c r="K10" s="30" t="inlineStr">
-        <is>
-          <t>CRQ000000250612</t>
-        </is>
-      </c>
-      <c r="L10" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
+      <c r="B10" s="27" t="n"/>
+      <c r="C10" s="28" t="n"/>
+      <c r="D10" s="29" t="n"/>
+      <c r="E10" s="29" t="n"/>
+      <c r="F10" s="29" t="n"/>
+      <c r="G10" s="29" t="n"/>
+      <c r="H10" s="29" t="n"/>
+      <c r="I10" s="29" t="n"/>
+      <c r="J10" s="29" t="n"/>
+      <c r="K10" s="30" t="n"/>
+      <c r="L10" s="30" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="25">
       <c r="A11" s="26" t="n">
@@ -1964,10 +1845,7 @@
       <c r="I11" s="29" t="n"/>
       <c r="J11" s="29" t="n"/>
       <c r="K11" s="31" t="n"/>
-      <c r="L11" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L11" s="30" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="25">
       <c r="A12" s="26" t="n">
@@ -1983,10 +1861,7 @@
       <c r="I12" s="29" t="n"/>
       <c r="J12" s="29" t="n"/>
       <c r="K12" s="31" t="n"/>
-      <c r="L12" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L12" s="30" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="25">
       <c r="A13" s="26" t="n">
@@ -2002,10 +1877,7 @@
       <c r="I13" s="29" t="n"/>
       <c r="J13" s="29" t="n"/>
       <c r="K13" s="31" t="n"/>
-      <c r="L13" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L13" s="30" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="25">
       <c r="A14" s="26" t="n">
@@ -2021,10 +1893,7 @@
       <c r="I14" s="29" t="n"/>
       <c r="J14" s="29" t="n"/>
       <c r="K14" s="31" t="n"/>
-      <c r="L14" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L14" s="30" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="25">
       <c r="A15" s="26" t="n">
@@ -2040,10 +1909,7 @@
       <c r="I15" s="29" t="n"/>
       <c r="J15" s="29" t="n"/>
       <c r="K15" s="31" t="n"/>
-      <c r="L15" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L15" s="30" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="25">
       <c r="A16" s="26" t="n">
@@ -2059,10 +1925,7 @@
       <c r="I16" s="29" t="n"/>
       <c r="J16" s="29" t="n"/>
       <c r="K16" s="31" t="n"/>
-      <c r="L16" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L16" s="30" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="25">
       <c r="A17" s="26" t="n">
@@ -2078,10 +1941,7 @@
       <c r="I17" s="29" t="n"/>
       <c r="J17" s="29" t="n"/>
       <c r="K17" s="31" t="n"/>
-      <c r="L17" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L17" s="30" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="25">
       <c r="A18" s="26" t="n">
@@ -2097,10 +1957,7 @@
       <c r="I18" s="29" t="n"/>
       <c r="J18" s="29" t="n"/>
       <c r="K18" s="31" t="n"/>
-      <c r="L18" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L18" s="30" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="25">
       <c r="A19" s="26" t="n">
@@ -2116,10 +1973,7 @@
       <c r="I19" s="29" t="n"/>
       <c r="J19" s="29" t="n"/>
       <c r="K19" s="31" t="n"/>
-      <c r="L19" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L19" s="30" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="25">
       <c r="A20" s="26" t="n">
@@ -2135,10 +1989,7 @@
       <c r="I20" s="29" t="n"/>
       <c r="J20" s="29" t="n"/>
       <c r="K20" s="31" t="n"/>
-      <c r="L20" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L20" s="30" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="25">
       <c r="A21" s="26" t="n">
@@ -2154,29 +2005,9 @@
       <c r="I21" s="29" t="n"/>
       <c r="J21" s="29" t="n"/>
       <c r="K21" s="32" t="n"/>
-      <c r="L21" s="30">
-        <f>[1]!Table1[[#This Row],[Change Manager]]</f>
-        <v/>
-      </c>
+      <c r="L21" s="30" t="n"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation sqref="J3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>INDIRECT($I$4)</formula1>
-    </dataValidation>
-    <dataValidation sqref="J5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>INDIRECT($I$6)</formula1>
-    </dataValidation>
-    <dataValidation sqref="J4" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>INDIRECT($I$5)</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>INDIRECT($I$2)</formula1>
-    </dataValidation>
-    <dataValidation sqref="J6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>INDIRECT($I$7)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
   <tableParts count="1">
@@ -2186,6 +2017,658 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="3.85546875" bestFit="1" customWidth="1" style="25" min="1" max="1"/>
+    <col width="7.7109375" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
+    <col width="17.5703125" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
+    <col width="74" bestFit="1" customWidth="1" style="25" min="5" max="5"/>
+    <col width="68.7109375" bestFit="1" customWidth="1" style="25" min="6" max="6"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="25" min="7" max="7"/>
+    <col width="10" bestFit="1" customWidth="1" style="25" min="8" max="8"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" style="25" min="9" max="9"/>
+    <col width="13.42578125" bestFit="1" customWidth="1" style="25" min="10" max="10"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="25" min="11" max="11"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" style="25" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1" s="25">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B1" s="35" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Project Coordinator</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Change Activity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Impact Site List</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Service Type</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Site Group</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Commercial Zone</t>
+        </is>
+      </c>
+      <c r="K1" s="36" t="inlineStr">
+        <is>
+          <t>NCR Number</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Change Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="inlineStr">
+        <is>
+          <t>13-Aug-20</t>
+        </is>
+      </c>
+      <c r="C2" s="28" t="inlineStr">
+        <is>
+          <t>Prodip Biswas</t>
+        </is>
+      </c>
+      <c r="D2" s="29" t="inlineStr">
+        <is>
+          <t>L18CellAdd, Y2020</t>
+        </is>
+      </c>
+      <c r="E2" s="29" t="inlineStr">
+        <is>
+          <t>GSM &amp; RRU Swap</t>
+        </is>
+      </c>
+      <c r="F2" s="29" t="inlineStr">
+        <is>
+          <t>HGCNR16,SYZKG01,BMSDR31</t>
+        </is>
+      </c>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H2" s="29" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I2" s="29" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J2" s="29" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K2" s="31" t="inlineStr">
+        <is>
+          <t>CRQ000000251299</t>
+        </is>
+      </c>
+      <c r="L2" s="37" t="inlineStr">
+        <is>
+          <t>Sumon Kumar Biswas</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="inlineStr">
+        <is>
+          <t>13-Aug-20</t>
+        </is>
+      </c>
+      <c r="C3" s="28" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon</t>
+        </is>
+      </c>
+      <c r="D3" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka-Modernization</t>
+        </is>
+      </c>
+      <c r="E3" s="29" t="inlineStr">
+        <is>
+          <t>FE Configuration</t>
+        </is>
+      </c>
+      <c r="F3" s="29" t="inlineStr">
+        <is>
+          <t>TNDDR05,TNDDR15,TNKLH15,TNKLH16,TNMDP29</t>
+        </is>
+      </c>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H3" s="29" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I3" s="29" t="inlineStr">
+        <is>
+          <t>Mymensingh</t>
+        </is>
+      </c>
+      <c r="J3" s="29" t="inlineStr">
+        <is>
+          <t>e.co_Mymensingh</t>
+        </is>
+      </c>
+      <c r="K3" s="31" t="inlineStr">
+        <is>
+          <t>CRQ000000251313</t>
+        </is>
+      </c>
+      <c r="L3" s="37" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="inlineStr">
+        <is>
+          <t>13-Aug-20</t>
+        </is>
+      </c>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka-Modernization</t>
+        </is>
+      </c>
+      <c r="E4" s="29" t="inlineStr">
+        <is>
+          <t>FE Configuration</t>
+        </is>
+      </c>
+      <c r="F4" s="29" t="inlineStr">
+        <is>
+          <t>DHMDP42,DHMDP47,DHMJH47,DHPTN16,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHRMN36</t>
+        </is>
+      </c>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H4" s="29" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I4" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J4" s="29" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka Metro</t>
+        </is>
+      </c>
+      <c r="K4" s="31" t="inlineStr">
+        <is>
+          <t>CRQ000000251318</t>
+        </is>
+      </c>
+      <c r="L4" s="37" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="inlineStr">
+        <is>
+          <t>13-Aug-20</t>
+        </is>
+      </c>
+      <c r="C5" s="28" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon</t>
+        </is>
+      </c>
+      <c r="D5" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka-Modernization</t>
+        </is>
+      </c>
+      <c r="E5" s="33" t="inlineStr">
+        <is>
+          <t>FE Configuration</t>
+        </is>
+      </c>
+      <c r="F5" s="29" t="inlineStr">
+        <is>
+          <t>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46</t>
+        </is>
+      </c>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H5" s="29" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I5" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J5" s="29" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka North</t>
+        </is>
+      </c>
+      <c r="K5" s="31" t="inlineStr">
+        <is>
+          <t>CRQ000000251321</t>
+        </is>
+      </c>
+      <c r="L5" s="37" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="inlineStr">
+        <is>
+          <t>13-Aug-20</t>
+        </is>
+      </c>
+      <c r="C6" s="28" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman</t>
+        </is>
+      </c>
+      <c r="D6" s="29" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>Traffic shifting</t>
+        </is>
+      </c>
+      <c r="F6" s="29" t="inlineStr">
+        <is>
+          <t>HGSDR24,HGSDR04</t>
+        </is>
+      </c>
+      <c r="G6" s="29" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H6" s="29" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I6" s="29" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J6" s="29" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K6" s="31" t="inlineStr">
+        <is>
+          <t>CRQ000000251326</t>
+        </is>
+      </c>
+      <c r="L6" s="37" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="inlineStr">
+        <is>
+          <t>13-Aug-20</t>
+        </is>
+      </c>
+      <c r="C7" s="28" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman</t>
+        </is>
+      </c>
+      <c r="D7" s="29" t="inlineStr">
+        <is>
+          <t>NCCD AbisoIP</t>
+        </is>
+      </c>
+      <c r="E7" s="29" t="inlineStr">
+        <is>
+          <t>Dismantle activity</t>
+        </is>
+      </c>
+      <c r="F7" s="29" t="inlineStr">
+        <is>
+          <t>HGCNR21,HGSDR02,HGNBG03,SYBLG04,HGNBG30,HGNBG04,HGSDR04</t>
+        </is>
+      </c>
+      <c r="G7" s="29" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H7" s="29" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I7" s="29" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J7" s="29" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K7" s="30" t="inlineStr">
+        <is>
+          <t>CRQ000000251328</t>
+        </is>
+      </c>
+      <c r="L7" s="37" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="inlineStr">
+        <is>
+          <t>12-Aug-20</t>
+        </is>
+      </c>
+      <c r="C8" s="28" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka-Modernization</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>FE Configuration</t>
+        </is>
+      </c>
+      <c r="F8" s="29" t="inlineStr">
+        <is>
+          <t>TNDDR05,TNDDR15,TNKLH15,TNKLH16,TNMDP29</t>
+        </is>
+      </c>
+      <c r="G8" s="29" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H8" s="29" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I8" s="29" t="inlineStr">
+        <is>
+          <t>Mymensingh</t>
+        </is>
+      </c>
+      <c r="J8" s="29" t="inlineStr">
+        <is>
+          <t>e.co_Mymensingh</t>
+        </is>
+      </c>
+      <c r="K8" s="31" t="inlineStr">
+        <is>
+          <t>CRQ000000251008</t>
+        </is>
+      </c>
+      <c r="L8" s="37" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="inlineStr">
+        <is>
+          <t>12-Aug-20</t>
+        </is>
+      </c>
+      <c r="C9" s="28" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon</t>
+        </is>
+      </c>
+      <c r="D9" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka-Modernization</t>
+        </is>
+      </c>
+      <c r="E9" s="29" t="inlineStr">
+        <is>
+          <t>FE Configuration</t>
+        </is>
+      </c>
+      <c r="F9" s="29" t="inlineStr">
+        <is>
+          <t>DHMDP42,DHMDP47,DHMJH47,DHPTN16,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHRMN36</t>
+        </is>
+      </c>
+      <c r="G9" s="29" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H9" s="29" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I9" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J9" s="29" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka Metro</t>
+        </is>
+      </c>
+      <c r="K9" s="31" t="inlineStr">
+        <is>
+          <t>CRQ000000251011</t>
+        </is>
+      </c>
+      <c r="L9" s="37" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="inlineStr">
+        <is>
+          <t>12-Aug-20</t>
+        </is>
+      </c>
+      <c r="C10" s="28" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon</t>
+        </is>
+      </c>
+      <c r="D10" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka-Modernization</t>
+        </is>
+      </c>
+      <c r="E10" s="33" t="inlineStr">
+        <is>
+          <t>FE Configuration</t>
+        </is>
+      </c>
+      <c r="F10" s="29" t="inlineStr">
+        <is>
+          <t>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46</t>
+        </is>
+      </c>
+      <c r="G10" s="29" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H10" s="29" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I10" s="29" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J10" s="29" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka North</t>
+        </is>
+      </c>
+      <c r="K10" s="31" t="inlineStr">
+        <is>
+          <t>CRQ000000251013</t>
+        </is>
+      </c>
+      <c r="L10" s="37" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation sqref="J7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>INDIRECT($I$7)</formula1>
+    </dataValidation>
+    <dataValidation sqref="J8 J2:J3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>INDIRECT($I$2)</formula1>
+    </dataValidation>
+    <dataValidation sqref="J10 J5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>INDIRECT($I$5)</formula1>
+    </dataValidation>
+    <dataValidation sqref="J6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>INDIRECT($I$6)</formula1>
+    </dataValidation>
+    <dataValidation sqref="J9 J4" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>INDIRECT($I$4)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2323,7 +2806,7 @@
         <f>""&amp;A2</f>
         <v/>
       </c>
-      <c r="C2" s="34" t="n">
+      <c r="C2" s="38" t="n">
         <v>44016</v>
       </c>
       <c r="D2" s="7" t="n">
@@ -2419,7 +2902,7 @@
         <f>B2&amp;","&amp;A3</f>
         <v/>
       </c>
-      <c r="C3" s="35" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="7" t="n">
         <v>0.4583333333333333</v>
       </c>
@@ -2477,7 +2960,7 @@
         <f>B3&amp;","&amp;A4</f>
         <v/>
       </c>
-      <c r="C4" s="35" t="n"/>
+      <c r="C4" s="39" t="n"/>
       <c r="D4" s="7" t="n">
         <v>0.4861111111111111</v>
       </c>
@@ -2531,7 +3014,7 @@
         <f>B4&amp;","&amp;A5</f>
         <v/>
       </c>
-      <c r="C5" s="35" t="n"/>
+      <c r="C5" s="39" t="n"/>
       <c r="D5" s="7" t="n">
         <v>0.7083333333333334</v>
       </c>
@@ -2566,7 +3049,7 @@
         <f>B5&amp;","&amp;A6</f>
         <v/>
       </c>
-      <c r="C6" s="36" t="n"/>
+      <c r="C6" s="40" t="n"/>
       <c r="D6" s="7" t="n">
         <v>0.75</v>
       </c>

--- a/data_driver/Change_Request_List.xlsx
+++ b/data_driver/Change_Request_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B384E5E-E291-43BF-9038-DC9B4C9A20D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F50720D-5A37-481F-B1E0-4D112367BB37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change_List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="158">
   <si>
     <t>No</t>
   </si>
@@ -74,25 +74,79 @@
     <t>Change Manager</t>
   </si>
   <si>
-    <t>30-Aug-20</t>
-  </si>
-  <si>
-    <t>Md. Shahadat Hossain</t>
-  </si>
-  <si>
-    <t>Padma Colocation Project</t>
-  </si>
-  <si>
-    <t>CPRI Cable &amp; RRU Swap 1/1</t>
-  </si>
-  <si>
-    <t>         SNDRI02,SNDRI05,SNDRI06,SNDRI07,SNDRI10</t>
+    <t>31-Aug-20</t>
+  </si>
+  <si>
+    <t>Md. Masudur Rahman</t>
+  </si>
+  <si>
+    <t>DHAKA_MODERNIZATION</t>
+  </si>
+  <si>
+    <t>New Link installation</t>
+  </si>
+  <si>
+    <t>MGSNG08,DHKGNT1</t>
+  </si>
+  <si>
+    <t>Non-Service Effective</t>
+  </si>
+  <si>
+    <t>00:00 Minute</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>e.co_Dhaka North</t>
+  </si>
+  <si>
+    <t>CRQ000000257523</t>
+  </si>
+  <si>
+    <t>Muhammad Shahed</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>DHBDDA7,DHTEJ15,DHTEJ07</t>
+  </si>
+  <si>
+    <t>e.co_Dhaka Metro</t>
+  </si>
+  <si>
+    <t>CRQ000000257526</t>
+  </si>
+  <si>
+    <t>Padma_Colo</t>
+  </si>
+  <si>
+    <t>BHCFN02,BHCFN26,BHLMN01,BHLMN15</t>
+  </si>
+  <si>
+    <t>Barisal</t>
+  </si>
+  <si>
+    <t>e.co_Barisal</t>
+  </si>
+  <si>
+    <t>CRQ000000257528</t>
+  </si>
+  <si>
+    <t>NCCD AbisoIP</t>
+  </si>
+  <si>
+    <t>Traffic Check for Traffic shiftng</t>
+  </si>
+  <si>
+    <t>HGNBG28,HGNBG08</t>
   </si>
   <si>
     <t>Service Effective</t>
   </si>
   <si>
-    <t>04:00 Hour</t>
+    <t>00:30 Minute</t>
   </si>
   <si>
     <t>Sylhet</t>
@@ -101,10 +155,13 @@
     <t>e.co_Sylhet</t>
   </si>
   <si>
-    <t>CRQ000000257325</t>
-  </si>
-  <si>
-    <t>Muhammad Shahed</t>
+    <t>CRQ000000257530</t>
+  </si>
+  <si>
+    <t>DHMDP30,DHMDP39</t>
+  </si>
+  <si>
+    <t>CRQ000000257532</t>
   </si>
   <si>
     <t>29-Aug-20</t>
@@ -122,66 +179,24 @@
     <t>SYGLP22,SYDKS25</t>
   </si>
   <si>
-    <t>00:30 Minute</t>
-  </si>
-  <si>
     <t>CRQ000000257020</t>
   </si>
   <si>
     <t>Sumon Kumar Biswas</t>
   </si>
   <si>
-    <t>Md. Masudur Rahman</t>
-  </si>
-  <si>
-    <t>DHAKA_MODERNIZATION</t>
-  </si>
-  <si>
-    <t>New Link installation</t>
-  </si>
-  <si>
-    <t>MGSNG08,DHKGNT1</t>
-  </si>
-  <si>
-    <t>Non-Service Effective</t>
-  </si>
-  <si>
-    <t>00:00 Minute</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>e.co_Dhaka North</t>
-  </si>
-  <si>
     <t>CRQ000000257022</t>
   </si>
   <si>
-    <t>CEP</t>
-  </si>
-  <si>
     <t>DHTEJ15,DHTEJ07,DHTIA32,DHTIA11</t>
   </si>
   <si>
-    <t>e.co_Dhaka Metro</t>
-  </si>
-  <si>
     <t>CRQ000000257024</t>
   </si>
   <si>
-    <t>Padma_Colo</t>
-  </si>
-  <si>
     <t>MDKLK01,BSMLD12,BHLMN01,BHLMN15</t>
   </si>
   <si>
-    <t>Barisal</t>
-  </si>
-  <si>
-    <t>e.co_Barisal</t>
-  </si>
-  <si>
     <t>CRQ000000257026</t>
   </si>
   <si>
@@ -194,9 +209,6 @@
     <t>CRQ000000257028</t>
   </si>
   <si>
-    <t>DHMDP30,DHMDP39</t>
-  </si>
-  <si>
     <t>CRQ000000257030</t>
   </si>
   <si>
@@ -234,9 +246,6 @@
   </si>
   <si>
     <t>CRQ000000257036</t>
-  </si>
-  <si>
-    <t>NCCD AbisoIP</t>
   </si>
   <si>
     <t>Garbage E1 Deletetion</t>
@@ -358,10 +367,19 @@
     <t>CRQ000000256041</t>
   </si>
   <si>
+    <t>Md. Shahadat Hossain</t>
+  </si>
+  <si>
+    <t>Padma Colocation Project</t>
+  </si>
+  <si>
     <t>CPRI Cable &amp; RRU Swap</t>
   </si>
   <si>
     <t>                 SNJGN20,SNDRI06,SNDRI07,SNDRI10</t>
+  </si>
+  <si>
+    <t>04:00 Hour</t>
   </si>
   <si>
     <t>New Link instalation</t>
@@ -1706,7 +1724,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,8 +1740,8 @@
     <col min="10" max="10" width="23.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="42" width="9.140625" style="25" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="25"/>
+    <col min="13" max="43" width="9.140625" style="25" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,65 +1824,153 @@
       <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="28"/>
+      <c r="B3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="28"/>
+      <c r="B4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="28"/>
+      <c r="B5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="B6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
@@ -2183,37 +2289,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2221,34 +2327,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L3" s="35" t="s">
         <v>22</v>
@@ -2259,34 +2365,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" s="31" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L4" s="35" t="s">
         <v>22</v>
@@ -2297,34 +2403,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>22</v>
@@ -2335,34 +2441,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>22</v>
@@ -2373,34 +2479,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="G7" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>22</v>
@@ -2411,34 +2517,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L8" s="40" t="s">
         <v>22</v>
@@ -2449,34 +2555,34 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>22</v>
@@ -2485,34 +2591,34 @@
     <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L10" s="40" t="s">
         <v>22</v>
@@ -2540,31 +2646,31 @@
         <v>44069</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L12" s="40" t="s">
         <v>22</v>
@@ -2603,34 +2709,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L15" s="35" t="s">
         <v>22</v>
@@ -2641,34 +2747,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>22</v>
@@ -2679,34 +2785,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L17" s="35" t="s">
         <v>22</v>
@@ -2717,34 +2823,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>22</v>
@@ -2755,34 +2861,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L19" s="35" t="s">
         <v>22</v>
@@ -2793,34 +2899,34 @@
         <v>1</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>22</v>
@@ -2831,34 +2937,34 @@
         <v>2</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>22</v>
@@ -2869,37 +2975,37 @@
         <v>3</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2907,37 +3013,37 @@
         <v>4</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2945,34 +3051,34 @@
         <v>5</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>22</v>
@@ -2983,34 +3089,34 @@
         <v>6</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>22</v>
@@ -3021,34 +3127,34 @@
         <v>7</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L28" s="40" t="s">
         <v>22</v>
@@ -3059,34 +3165,34 @@
         <v>8</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L29" s="40" t="s">
         <v>22</v>
@@ -3100,31 +3206,31 @@
         <v>44069</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L30" s="40" t="s">
         <v>22</v>
@@ -3138,31 +3244,31 @@
         <v>44069</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K31" s="39" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L31" s="40" t="s">
         <v>22</v>
@@ -3176,31 +3282,31 @@
         <v>44069</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K32" s="39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L32" s="40" t="s">
         <v>22</v>
@@ -3253,16 +3359,16 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3274,42 +3380,42 @@
         <v>7</v>
       </c>
       <c r="U1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="Z1" s="13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="str">
         <f>""&amp;A2</f>
@@ -3326,54 +3432,54 @@
         <v>07/04/2020 9:00 AM</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AD2" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B3" s="12" t="str">
         <f t="shared" ref="B3:B11" si="0">B2&amp;","&amp;A3</f>
@@ -3388,26 +3494,26 @@
         <v>07/04/2020 11:00 AM</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
@@ -3417,7 +3523,7 @@
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3432,24 +3538,24 @@
         <v>07/04/2020 11:40 AM</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
@@ -3459,7 +3565,7 @@
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3474,19 +3580,19 @@
         <v>07/04/2020 5:00 PM</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3501,14 +3607,14 @@
         <v>07/04/2020 6:00 PM</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -3518,11 +3624,11 @@
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19,</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -3534,7 +3640,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -3546,7 +3652,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -3556,11 +3662,11 @@
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19,,,,</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -3575,31 +3681,31 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O12" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O13" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O14" s="23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="U14" s="19"/>
       <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O15" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="20"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O16" s="23" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Request_List.xlsx
+++ b/data_driver/Change_Request_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\AutoBotBMCRemedy\data_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA34EDAA-36DF-4D8B-AAEB-F79CF88833D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30285F12-E00F-4265-90DE-5EBBFB7A88D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Information" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$19</definedName>
     <definedName name="Barisal">Information!$V$2</definedName>
     <definedName name="Chittagong">Information!$Z$2</definedName>
     <definedName name="Comilla">Information!$AA$2</definedName>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="149">
   <si>
     <t>No</t>
   </si>
@@ -74,366 +73,320 @@
     <t>Change Manager</t>
   </si>
   <si>
-    <t>05-Sep-20</t>
+    <t>19-Sep-20</t>
   </si>
   <si>
     <t>Md. Shahadat Hossain</t>
   </si>
   <si>
+    <t>CC 4G Colocation Project</t>
+  </si>
+  <si>
+    <t>GSM Antenna &amp; RRU Swap</t>
+  </si>
+  <si>
+    <t>LXRGN14,LXRGN11,LXRGN33,LXRPR19</t>
+  </si>
+  <si>
+    <t>Service Effective</t>
+  </si>
+  <si>
+    <t>04:00 Hour</t>
+  </si>
+  <si>
+    <t>Noakhali</t>
+  </si>
+  <si>
+    <t>e.co_Noakhali</t>
+  </si>
+  <si>
+    <t>CRQ000000264432</t>
+  </si>
+  <si>
+    <t>Faisal Mahmud Fuad</t>
+  </si>
+  <si>
+    <t>BMAKH14,BMNBG17,BMNBG19,BMNBG23</t>
+  </si>
+  <si>
+    <t>Comilla</t>
+  </si>
+  <si>
+    <t>e.co_Comilla</t>
+  </si>
+  <si>
+    <t>CRQ000000264434</t>
+  </si>
+  <si>
+    <t>Md. Rashekul Islam Raju</t>
+  </si>
+  <si>
+    <t>MW antenna optimization</t>
+  </si>
+  <si>
+    <t>DHKTL29, DHKTL62, DHPTN08, DHKHL74</t>
+  </si>
+  <si>
+    <t>Non-Service Effective</t>
+  </si>
+  <si>
+    <t>00:45 Minute</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>e.co_Dhaka Metro</t>
+  </si>
+  <si>
+    <t>CRQ000000264436</t>
+  </si>
+  <si>
+    <t>Muhammad Shahed</t>
+  </si>
+  <si>
+    <t>Prodip Biswas</t>
+  </si>
+  <si>
+    <t>L18CellAdd, Y2020</t>
+  </si>
+  <si>
+    <t>GSM &amp; RRU Swap</t>
+  </si>
+  <si>
+    <t>   SYBNC02,MBKLR26</t>
+  </si>
+  <si>
+    <t>00:30 Minute</t>
+  </si>
+  <si>
+    <t>Sylhet</t>
+  </si>
+  <si>
+    <t>e.co_Sylhet</t>
+  </si>
+  <si>
+    <t>CRQ000000264438</t>
+  </si>
+  <si>
+    <t>Sumon Kumar Biswas</t>
+  </si>
+  <si>
+    <t>KM Jiaul Islam Jibon</t>
+  </si>
+  <si>
+    <t>Dhaka-Modernization</t>
+  </si>
+  <si>
+    <t>FE Ping Test</t>
+  </si>
+  <si>
+    <t>GPSDR76,GPSDRN0,MGSDR31,MNLHG11,MNSDR19,MNSDR28,MNSRN16,MNSRN17,GPKLK27,GPSDR61</t>
+  </si>
+  <si>
+    <t>00:00 Minute</t>
+  </si>
+  <si>
+    <t>e.co_Dhaka North</t>
+  </si>
+  <si>
+    <t>CRQ000000264440</t>
+  </si>
+  <si>
+    <t>DHBDD05,DHDHN45,DHMJH47,DHPTN16,DHRMN36,DHBDD78,DHGULF5,DHMDP01,DHMDP05</t>
+  </si>
+  <si>
+    <t>CRQ000000264442</t>
+  </si>
+  <si>
+    <t>TNGPL06</t>
+  </si>
+  <si>
+    <t>Mymensingh</t>
+  </si>
+  <si>
+    <t>e.co_Mymensingh</t>
+  </si>
+  <si>
+    <t>CRQ000000264444</t>
+  </si>
+  <si>
+    <t>Md. Masudur Rahman</t>
+  </si>
+  <si>
+    <t>NCCD AbisoIP</t>
+  </si>
+  <si>
+    <t>Rectification</t>
+  </si>
+  <si>
+    <t>SYZKG15,SYZKG01</t>
+  </si>
+  <si>
+    <t>CRQ000000264446</t>
+  </si>
+  <si>
+    <t>DHAKA_MODERNIZATION</t>
+  </si>
+  <si>
+    <t>DCN Configure</t>
+  </si>
+  <si>
+    <t>NGARH26,NGARH09</t>
+  </si>
+  <si>
+    <t>e.co_Dhaka South</t>
+  </si>
+  <si>
+    <t>CRQ000000264448</t>
+  </si>
+  <si>
+    <t>Link ID:DH07E18275
+Link Name:MNLHG18-MNSRN18
+DCN Impact:MNLHG18-EMTN-02,MNLHG18-EMTN-01,MNLHG02-EMTN-01,MNLHG08-EMTN-01,MNLHG18-EMTN-03,MNSRN18-EMTN-02
+DCN Path:MNSRN18-MNLHG18-MNLHG02,MNLHG08
+Impact List:MNLHG18,MNSRN18</t>
+  </si>
+  <si>
+    <t>MNLHG18,MNSRN18</t>
+  </si>
+  <si>
+    <t>CRQ000000264450</t>
+  </si>
+  <si>
+    <t>New link installation</t>
+  </si>
+  <si>
+    <t>GPKLG05,GPSDR06,DHKHGT1,MGSNG08</t>
+  </si>
+  <si>
+    <t>CRQ000000264452</t>
+  </si>
+  <si>
     <t>Padma_Colo</t>
   </si>
   <si>
-    <t>CPRI Cable &amp; RRU Swap 1/1</t>
-  </si>
-  <si>
-    <t>SNCTK27</t>
-  </si>
-  <si>
-    <t>Service Effective</t>
-  </si>
-  <si>
-    <t>04:00 Hour</t>
-  </si>
-  <si>
-    <t>Sylhet</t>
-  </si>
-  <si>
-    <t>e.co_Sylhet</t>
-  </si>
-  <si>
-    <t>CRQ000000259415</t>
-  </si>
-  <si>
-    <t>K.M Khairul Bashar</t>
-  </si>
-  <si>
-    <t>Prodip Biswas</t>
-  </si>
-  <si>
-    <t>L18CellAdd, Y2020</t>
-  </si>
-  <si>
-    <t>GSM &amp; RRU Swap 1/1</t>
-  </si>
-  <si>
-    <t>SNCTK19,SNCTK20</t>
-  </si>
-  <si>
-    <t>00:30 Minute</t>
-  </si>
-  <si>
-    <t>CRQ000000259387</t>
-  </si>
-  <si>
-    <t>Sumon Kumar Biswas</t>
-  </si>
-  <si>
-    <t>GPKLG26</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>e.co_Dhaka North</t>
-  </si>
-  <si>
-    <t>CRQ000000259389</t>
-  </si>
-  <si>
-    <t>03-Sep-20</t>
-  </si>
-  <si>
-    <t>Md. Rashekul Islam Raju</t>
-  </si>
-  <si>
-    <t>Project 964</t>
-  </si>
-  <si>
-    <t>GSM Antenna Optimization</t>
-  </si>
-  <si>
-    <t>SYBNB05, SYZKG15</t>
-  </si>
-  <si>
-    <t>Non-Service Effective</t>
-  </si>
-  <si>
-    <t>00:00 Minute</t>
-  </si>
-  <si>
-    <t>CRQ000000258630</t>
-  </si>
-  <si>
-    <t>Muhammad Shahed</t>
-  </si>
-  <si>
-    <t>Padma Colocation Project</t>
-  </si>
-  <si>
-    <t>CPRI Cable &amp; RRU Swap</t>
-  </si>
-  <si>
-    <t>       SNDRI05,SNDRI10,SNCTK16,SNCTK27,SNSDR18</t>
-  </si>
-  <si>
-    <t>CRQ000000258633</t>
-  </si>
-  <si>
-    <t>GSM &amp; RRU Swap</t>
-  </si>
-  <si>
-    <t>SYSDR32,SNCTK23</t>
-  </si>
-  <si>
-    <t>CRQ000000258636</t>
-  </si>
-  <si>
-    <t>GPKLG30</t>
-  </si>
-  <si>
-    <t>CRQ000000258639</t>
-  </si>
-  <si>
-    <t>KM Jiaul Islam Jibon</t>
-  </si>
-  <si>
-    <t>Dhaka-Modernization</t>
-  </si>
-  <si>
-    <t>FE Configuration</t>
-  </si>
-  <si>
-    <t>DHDHN45,DHKHL47,DHKHLA0,DHPTN29,DHRMN04,DHRMN16,DHRMN26,DHBDD78,DHGULF5,DHMDP01</t>
-  </si>
-  <si>
-    <t>e.co_Dhaka Metro</t>
-  </si>
-  <si>
-    <t>CRQ000000258643</t>
-  </si>
-  <si>
-    <t>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46</t>
-  </si>
-  <si>
-    <t>CRQ000000258648</t>
-  </si>
-  <si>
-    <t>Md. Masudur Rahman</t>
-  </si>
-  <si>
-    <t>DHAKA_MODERNIZATION</t>
+    <t>MW Dismantle activity
+Link ID:SY07H30744
+Link Name:SNDKS01-SNDRI01
+DCN Impact:SNDKS01-HRTN-01,SNDKS01-HRTN-02,SNDKS01-HRTN-03,SNDRI01-HRTN01
+DCN Path:SNJML02-SNDKS01-SNDRI05
+Impact list:SNDKS01,SNDRI01,SNDRI10</t>
+  </si>
+  <si>
+    <t>SNDKS01,SNDRI01</t>
+  </si>
+  <si>
+    <t>CRQ000000264454</t>
+  </si>
+  <si>
+    <t>MW Dismantle activity
+Link ID:SY07H30739
+Link Name:SNDRI01-SNDRI10
+DCN Impact: SNDRI01-HRTN01,SNDRI01-HRTN02
+DCN Path:SNDRI01-SNDRI10</t>
+  </si>
+  <si>
+    <t>SNDRI01,SNDRI10</t>
+  </si>
+  <si>
+    <t>CRQ000000264456</t>
+  </si>
+  <si>
+    <t>15-Sep-20</t>
+  </si>
+  <si>
+    <t>DHPTN05, DHPTN08, DHKHL11, DHKHL07</t>
+  </si>
+  <si>
+    <t>CRQ000000263064</t>
+  </si>
+  <si>
+    <t>         SYGLP22, SYGLP25, HGLKH02</t>
+  </si>
+  <si>
+    <t>CRQ000000263066</t>
+  </si>
+  <si>
+    <t>            LXRGN14</t>
+  </si>
+  <si>
+    <t>CRQ000000263068</t>
+  </si>
+  <si>
+    <t>       BMAKH09,BMKSB02,BMKSB07</t>
+  </si>
+  <si>
+    <t>CRQ000000263074</t>
+  </si>
+  <si>
+    <t>Traffic Shifting</t>
+  </si>
+  <si>
+    <t>MGSNG08,DHKGNT1</t>
+  </si>
+  <si>
+    <t>CRQ000000263076</t>
+  </si>
+  <si>
+    <t>Traffic shifitng 1/1</t>
+  </si>
+  <si>
+    <t>CRQ000000263086</t>
+  </si>
+  <si>
+    <t>CRQ000000263090</t>
+  </si>
+  <si>
+    <t>PAT activity</t>
+  </si>
+  <si>
+    <t>BSMLD12,MDKLK01</t>
+  </si>
+  <si>
+    <t>Barisal</t>
+  </si>
+  <si>
+    <t>e.co_Barisal</t>
+  </si>
+  <si>
+    <t>CRQ000000263092</t>
   </si>
   <si>
     <t>New Link installation</t>
   </si>
   <si>
-    <t>MGSNG08,DHKGNT1</t>
-  </si>
-  <si>
-    <t>CRQ000000258651</t>
-  </si>
-  <si>
-    <t>NCCD AbisoIP</t>
-  </si>
-  <si>
-    <t>Garbage E1 Deletetion</t>
-  </si>
-  <si>
-    <t>SYGLP01,SYBLG09,SYBLG04</t>
-  </si>
-  <si>
-    <t>CRQ000000258654</t>
+    <t>NGSNG11,NGSNG20</t>
+  </si>
+  <si>
+    <t>CRQ000000263096</t>
+  </si>
+  <si>
+    <t>Dismantle materials Return</t>
+  </si>
+  <si>
+    <t>SYBLG04,SYBLG09,SYSDRA7,SYSDR79</t>
+  </si>
+  <si>
+    <t>CRQ000000263099</t>
   </si>
   <si>
     <t>CEP</t>
   </si>
   <si>
-    <t>DCN Configure</t>
-  </si>
-  <si>
     <t>DHTEJ15,DHTEJ07</t>
   </si>
   <si>
-    <t>CRQ000000258658</t>
-  </si>
-  <si>
-    <t>BHCFN02,BHCFN26,BHLMN01,BHLMN15</t>
-  </si>
-  <si>
-    <t>Barisal</t>
-  </si>
-  <si>
-    <t>e.co_Barisal</t>
-  </si>
-  <si>
-    <t>CRQ000000258661</t>
-  </si>
-  <si>
-    <t>MNLHG18,MNSRN18</t>
-  </si>
-  <si>
-    <t>e.co_Dhaka South</t>
-  </si>
-  <si>
-    <t>CRQ000000258665</t>
-  </si>
-  <si>
-    <t>Traffic Check for Traffic shiftng</t>
-  </si>
-  <si>
-    <t>HGNBG28,HGNBG08</t>
-  </si>
-  <si>
-    <t>CRQ000000258668</t>
-  </si>
-  <si>
-    <t>HW upgradation</t>
-  </si>
-  <si>
-    <t>GPSRP66,GPSDRO4,GPSDR86,GPSDR42</t>
-  </si>
-  <si>
-    <t>CRQ000000258672</t>
-  </si>
-  <si>
-    <t>18-Aug-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW Link Dismantle 
-Link ID: SY13E10200
-Link Name: SYBNB22-SYBNB30
-DCN Impact: SYBNB22-EMTN-01
-</t>
-  </si>
-  <si>
-    <t>SYBNB22,SYBNB30</t>
-  </si>
-  <si>
-    <t>CRQ000000252871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW Link Dismantle 
-Link ID: SY13H17220
-Link Name: SYBNB15-SYBNB12
-DCN Impact: SYBNB12-HRTN-01,SYBNB15-HRTN-01
-</t>
-  </si>
-  <si>
-    <t>SYBNB15,SYBNB12</t>
-  </si>
-  <si>
-    <t>CRQ000000252874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW Link Dismantle 
-Link ID: SY11H17368
-Link Name: HGNBG30-HGNBG03
-DCN Impact: HGNBG03-HRTN-05,HGNBG30-HRTN-05
-</t>
-  </si>
-  <si>
-    <t>HGNBG30,HGNBG03</t>
-  </si>
-  <si>
-    <t>CRQ000000252876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW Link Dismantle 
-Link ID: SY13H17174
-Link Name:HGNBG04-HGNBG03
-DCN Impact: HGNBG04-HRTN-01,HGNBG03-HRTN-06
-</t>
-  </si>
-  <si>
-    <t>HGNBG04,HGNBG03</t>
-  </si>
-  <si>
-    <t>CRQ000000252879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW Link Dismantle 
-Link ID: SY07S00421
-Link Name:HGNBG03-SYBLG04
-DCN Impact: No Data Found
-</t>
-  </si>
-  <si>
-    <t>HGNBG03,SYBLG04</t>
-  </si>
-  <si>
-    <t>CRQ000000252884</t>
-  </si>
-  <si>
-    <t>02-Sep-20</t>
-  </si>
-  <si>
-    <t>SYBNB05,SYGWN03, SYZKG15</t>
-  </si>
-  <si>
-    <t>00:45 Minute</t>
-  </si>
-  <si>
-    <t>CRQ000000258233</t>
-  </si>
-  <si>
-    <t>CRQ000000258237</t>
-  </si>
-  <si>
-    <t>CRQ000000258241</t>
-  </si>
-  <si>
-    <t>         SNDRI02,SNDRI05,SNDRI10,SNCTK16,SNCTK27,SNSDR18</t>
-  </si>
-  <si>
-    <t>CRQ000000258245</t>
-  </si>
-  <si>
-    <t>CRQ000000258251</t>
-  </si>
-  <si>
-    <t>CRQ000000258256</t>
-  </si>
-  <si>
-    <t>CRQ000000258260</t>
-  </si>
-  <si>
-    <t>Rectification</t>
-  </si>
-  <si>
-    <t>TNSKP18,TNMZP48</t>
-  </si>
-  <si>
-    <t>Mymensingh</t>
-  </si>
-  <si>
-    <t>e.co_Mymensingh</t>
-  </si>
-  <si>
-    <t>CRQ000000258262</t>
-  </si>
-  <si>
-    <t>CRQ000000258266</t>
-  </si>
-  <si>
-    <t>CRQ000000258270</t>
-  </si>
-  <si>
-    <t>CRQ000000258272</t>
-  </si>
-  <si>
-    <t>GPSDR86,GPSDR42</t>
-  </si>
-  <si>
-    <t>CRQ000000258276</t>
-  </si>
-  <si>
-    <t>CRQ000000258283</t>
-  </si>
-  <si>
-    <t>MGGHR11,MGSBL11,MGSTR01,MNLHG02,MNLHG17,GPSDRS5,MNSDR46,DHSVRG5</t>
-  </si>
-  <si>
-    <t>CRQ000000258286</t>
+    <t>CRQ000000263101</t>
+  </si>
+  <si>
+    <t>FE Configuration &amp; GE Shifting</t>
+  </si>
+  <si>
+    <t>DHMDP01</t>
+  </si>
+  <si>
+    <t>CRQ000000263106</t>
   </si>
   <si>
     <t>Site List</t>
@@ -454,15 +407,9 @@
     <t>Chittagong</t>
   </si>
   <si>
-    <t>Comilla</t>
-  </si>
-  <si>
     <t>Khulna</t>
   </si>
   <si>
-    <t>Noakhali</t>
-  </si>
-  <si>
     <t>Rajshahi</t>
   </si>
   <si>
@@ -481,15 +428,9 @@
     <t>e.co_CTG_Metro</t>
   </si>
   <si>
-    <t>e.co_Comilla</t>
-  </si>
-  <si>
     <t>e.co_Khulna</t>
   </si>
   <si>
-    <t>e.co_Noakhali</t>
-  </si>
-  <si>
     <t>e.co_Rajshahi</t>
   </si>
   <si>
@@ -551,9 +492,6 @@
   </si>
   <si>
     <t>Md. Walee Zaman</t>
-  </si>
-  <si>
-    <t>Faisal Mahmud Fuad</t>
   </si>
   <si>
     <t>Shahriar Mahbub</t>
@@ -861,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,9 +873,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,15 +889,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1481,7 +1407,7 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NCR Number" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Change Manager" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1751,7 +1677,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,8 +1693,8 @@
     <col min="10" max="10" width="23.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="51" width="9.140625" style="25" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="25"/>
+    <col min="13" max="68" width="9.140625" style="25" customWidth="1"/>
+    <col min="69" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,10 +1739,10 @@
       <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -1851,244 +1777,464 @@
       <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="28"/>
+      <c r="B3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>23</v>
+      <c r="C4" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>23</v>
+      <c r="C5" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="28"/>
+      <c r="B6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="B7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="B8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="B9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="B10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="28"/>
+      <c r="B11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="28"/>
+      <c r="B12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="28"/>
+      <c r="B13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="28"/>
+      <c r="B14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -2103,8 +2249,8 @@
       <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -2119,8 +2265,8 @@
       <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -2135,8 +2281,8 @@
       <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -2151,8 +2297,8 @@
       <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -2167,8 +2313,8 @@
       <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -2183,8 +2329,8 @@
       <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -2206,11 +2352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A3:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,1298 +2374,501 @@
     <col min="12" max="12" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B4" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="27" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>2</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
-        <v>4</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>47</v>
-      </c>
       <c r="F5" s="27" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>3</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
+        <v>4</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <v>5</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="J8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="B9" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="37" t="s">
+      <c r="E9" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
-        <v>6</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
+        <v>7</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>8</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>9</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>10</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="K13" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
+        <v>11</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
-        <v>11</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>83</v>
-      </c>
       <c r="F14" s="27" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
+        <v>12</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
-        <v>14</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>19</v>
-      </c>
       <c r="J15" s="27" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
-        <v>15</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
-        <v>16</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
-        <v>17</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
-        <v>18</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
-        <v>1</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
-        <v>2</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
-        <v>3</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
-        <v>4</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
-        <v>6</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
-        <v>7</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
-        <v>8</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
-        <v>9</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
-        <v>10</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
-        <v>11</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="L31" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
-        <v>12</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L32" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
-        <v>13</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="L33" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
-        <v>14</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="L34" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
-        <v>15</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="L35" s="35" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L19" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Service Effective"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
 </worksheet>
@@ -3560,16 +2908,16 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3581,48 +2929,48 @@
         <v>7</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="AD1" s="13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B2" s="12" t="str">
         <f>""&amp;A2</f>
         <v>DHGUL10</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="37">
         <v>44016</v>
       </c>
       <c r="D2" s="7">
@@ -3633,60 +2981,60 @@
         <v>07/04/2020 9:00 AM</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="U2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="X2" s="14" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Y2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>143</v>
-      </c>
       <c r="AD2" s="14" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B3" s="12" t="str">
         <f t="shared" ref="B3:B11" si="0">B2&amp;","&amp;A3</f>
         <v>DHGUL10,DHGUL74</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -3695,26 +3043,26 @@
         <v>07/04/2020 11:00 AM</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
@@ -3724,13 +3072,13 @@
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>DHGUL10,DHGUL74,DHGUL76</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="7">
         <v>0.4861111111111111</v>
       </c>
@@ -3739,24 +3087,24 @@
         <v>07/04/2020 11:40 AM</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
@@ -3766,13 +3114,13 @@
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -3781,25 +3129,25 @@
         <v>07/04/2020 5:00 PM</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="7">
         <v>0.75</v>
       </c>
@@ -3808,14 +3156,14 @@
         <v>07/04/2020 6:00 PM</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -3825,11 +3173,11 @@
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19,</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -3853,7 +3201,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="4" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -3863,11 +3211,11 @@
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19,,,,</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -3877,36 +3225,36 @@
         <v>DHGUL10,DHGUL74,DHGUL76,DHMRP28,DHPLB19,,,,,</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O12" s="23" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O13" s="23" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O14" s="23" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="U14" s="19"/>
       <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O15" s="23" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="20"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O16" s="23" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.25">

--- a/data_driver/Change_Request_List.xlsx
+++ b/data_driver/Change_Request_List.xlsx
@@ -32,7 +32,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -135,16 +135,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -354,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -412,35 +419,59 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -475,11 +506,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -487,6 +520,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -511,11 +550,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -523,6 +564,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -546,7 +593,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -560,6 +607,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -583,7 +636,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -597,6 +650,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -620,7 +679,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -634,6 +693,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -657,7 +722,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -671,6 +736,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -694,7 +765,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -708,6 +779,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -731,7 +808,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -745,6 +822,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -768,7 +851,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -782,6 +865,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -805,7 +894,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -819,6 +908,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -843,8 +938,10 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -855,6 +952,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -878,8 +981,10 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -890,6 +995,12 @@
           <color indexed="64"/>
         </bottom>
         <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -979,6 +1090,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <b val="1"/>
         <strike val="0"/>
         <outline val="0"/>
@@ -986,7 +1098,7 @@
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1014,6 +1126,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <b val="1"/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1021,7 +1134,7 @@
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1049,13 +1162,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1085,13 +1199,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1121,13 +1236,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1155,13 +1271,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1191,13 +1308,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1228,13 +1346,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1264,13 +1383,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1300,13 +1420,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1336,13 +1457,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1355,7 +1477,9 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
       <border outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1371,13 +1495,14 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1460,6 +1585,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
         <b val="1"/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1467,7 +1593,7 @@
         <condense val="0"/>
         <color rgb="FF000000"/>
         <extend val="0"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
@@ -1564,8 +1690,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
-  <autoFilter ref="A1:L21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L57" headerRowCount="1" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A1:L57"/>
   <tableColumns count="12">
     <tableColumn id="1" name="No" dataDxfId="28"/>
     <tableColumn id="11" name="Date" dataDxfId="27"/>
@@ -1580,13 +1706,13 @@
     <tableColumn id="10" name="NCR Number" dataDxfId="18"/>
     <tableColumn id="12" name="Change Manager" dataDxfId="17"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:L75" headerRowCount="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A2:L75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L74" headerRowCount="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:L74"/>
   <tableColumns count="12">
     <tableColumn id="1" name="No" dataDxfId="11"/>
     <tableColumn id="2" name="Date" dataDxfId="10"/>
@@ -1872,903 +1998,1515 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="6" customWidth="1" style="25" min="1" max="1"/>
-    <col width="14" customWidth="1" style="25" min="2" max="2"/>
-    <col width="25.28515625" customWidth="1" style="25" min="3" max="3"/>
-    <col width="21.85546875" customWidth="1" style="25" min="4" max="4"/>
-    <col width="28.42578125" customWidth="1" style="25" min="5" max="5"/>
-    <col width="45.7109375" bestFit="1" customWidth="1" style="25" min="6" max="6"/>
-    <col width="19.140625" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="11.7109375" customWidth="1" style="25" min="8" max="9"/>
-    <col width="23.140625" bestFit="1" customWidth="1" style="25" min="10" max="10"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" style="25" min="12" max="12"/>
-    <col width="9.140625" customWidth="1" style="25" min="13" max="70"/>
-    <col width="9.140625" customWidth="1" style="25" min="71" max="16384"/>
+    <col width="7.5703125" customWidth="1" style="41" min="1" max="1"/>
+    <col width="8.85546875" bestFit="1" customWidth="1" style="41" min="2" max="2"/>
+    <col width="33.140625" bestFit="1" customWidth="1" style="41" min="3" max="3"/>
+    <col width="30.28515625" bestFit="1" customWidth="1" style="41" min="4" max="4"/>
+    <col width="54" customWidth="1" style="41" min="5" max="5"/>
+    <col width="30.5703125" customWidth="1" style="41" min="6" max="6"/>
+    <col width="18" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="11.7109375" customWidth="1" style="41" min="8" max="8"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="41" min="9" max="9"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" style="41" min="10" max="10"/>
+    <col width="16.7109375" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
+    <col width="17" bestFit="1" customWidth="1" style="41" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="41" min="13" max="16"/>
+    <col width="9.140625" customWidth="1" style="41" min="17" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" s="25">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="16.5" customHeight="1" s="41">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Project Coordinator</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Project Name</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Change Activity</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Impact Site List</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
         <is>
           <t>Service Type</t>
         </is>
       </c>
-      <c r="H1" s="17" t="inlineStr">
+      <c r="H1" s="26" t="inlineStr">
         <is>
           <t>Down Time</t>
         </is>
       </c>
-      <c r="I1" s="17" t="inlineStr">
+      <c r="I1" s="26" t="inlineStr">
         <is>
           <t>Site Group</t>
         </is>
       </c>
-      <c r="J1" s="17" t="inlineStr">
+      <c r="J1" s="26" t="inlineStr">
         <is>
           <t>Commercial Zone</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="27" t="inlineStr">
         <is>
           <t>NCR Number</t>
         </is>
       </c>
-      <c r="L1" s="17" t="inlineStr">
+      <c r="L1" s="26" t="inlineStr">
         <is>
           <t>Change Manager</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="25">
-      <c r="A2" s="26" t="n">
+    <row r="2" ht="15.75" customHeight="1" s="41">
+      <c r="A2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C2" s="28" t="inlineStr">
-        <is>
-          <t>Md. Rashekul Islam Raju</t>
-        </is>
-      </c>
-      <c r="D2" s="28" t="inlineStr">
-        <is>
-          <t>MW antenna optimization</t>
-        </is>
-      </c>
-      <c r="E2" s="28" t="inlineStr">
-        <is>
-          <t>MW antenna optimization</t>
-        </is>
-      </c>
-      <c r="F2" s="28" t="inlineStr">
-        <is>
-          <t>DHGUL11, DHGUL26, DHGUL74</t>
-        </is>
-      </c>
-      <c r="G2" s="28" t="inlineStr">
+      <c r="B2" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C2" s="31" t="inlineStr">
+        <is>
+          <t>Sobuz Ahmed_01841122538</t>
+        </is>
+      </c>
+      <c r="D2" s="31" t="inlineStr">
+        <is>
+          <t>NCCD AbisoIP</t>
+        </is>
+      </c>
+      <c r="E2" s="31" t="inlineStr">
+        <is>
+          <t>E1 deletion &amp; Collect BTS Cable</t>
+        </is>
+      </c>
+      <c r="F2" s="31" t="inlineStr">
+        <is>
+          <t>SYKNG16,SYKNG07,SYGLP08</t>
+        </is>
+      </c>
+      <c r="G2" s="31" t="inlineStr">
         <is>
           <t>Non-Service Effective</t>
         </is>
       </c>
-      <c r="H2" s="28" t="inlineStr">
-        <is>
-          <t>00:45 Minute</t>
-        </is>
-      </c>
-      <c r="I2" s="28" t="inlineStr">
+      <c r="H2" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I2" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J2" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K2" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280109</t>
+        </is>
+      </c>
+      <c r="L2" s="33" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="41">
+      <c r="A3" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon_01847188948</t>
+        </is>
+      </c>
+      <c r="D3" s="31" t="inlineStr">
+        <is>
+          <t>NCCD AbisoIP P3</t>
+        </is>
+      </c>
+      <c r="E3" s="31" t="inlineStr">
+        <is>
+          <t>E2E Lease Site Ping Test 1/1</t>
+        </is>
+      </c>
+      <c r="F3" s="31" t="inlineStr">
+        <is>
+          <t>FPSDR04,FPSDR05,FPSDR09,RJPNG19</t>
+        </is>
+      </c>
+      <c r="G3" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H3" s="31" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I3" s="31" t="inlineStr">
+        <is>
+          <t>Kustia</t>
+        </is>
+      </c>
+      <c r="J3" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Kustia</t>
+        </is>
+      </c>
+      <c r="K3" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280112</t>
+        </is>
+      </c>
+      <c r="L3" s="33" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="41">
+      <c r="A4" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C4" s="31" t="inlineStr">
+        <is>
+          <t>Prodip Biswas_01841133479</t>
+        </is>
+      </c>
+      <c r="D4" s="31" t="inlineStr">
+        <is>
+          <t>L18CellAdd, Y2020</t>
+        </is>
+      </c>
+      <c r="E4" s="31" t="inlineStr">
+        <is>
+          <t>Jumper Cable Change 1/1</t>
+        </is>
+      </c>
+      <c r="F4" s="31" t="inlineStr">
+        <is>
+          <t>HGMDB19, MBJRI14, BMSDR24, BMSRL10</t>
+        </is>
+      </c>
+      <c r="G4" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H4" s="31" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I4" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J4" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K4" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280119</t>
+        </is>
+      </c>
+      <c r="L4" s="33" t="inlineStr">
+        <is>
+          <t>Sumon Kumar Biswas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="41">
+      <c r="A5" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C5" s="31" t="inlineStr">
+        <is>
+          <t>Prodip Biswas_01841133479</t>
+        </is>
+      </c>
+      <c r="D5" s="31" t="inlineStr">
+        <is>
+          <t>L18CellAdd, Y2020</t>
+        </is>
+      </c>
+      <c r="E5" s="31" t="inlineStr">
+        <is>
+          <t>Take Print Screen from MBB</t>
+        </is>
+      </c>
+      <c r="F5" s="31" t="inlineStr">
+        <is>
+          <t>BMNBG30,BMNNG05,BMNNG09,BMSDR54,BMSRL08,HGAZM09,MBSML28,SYBLG30</t>
+        </is>
+      </c>
+      <c r="G5" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H5" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I5" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J5" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K5" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280125</t>
+        </is>
+      </c>
+      <c r="L5" s="33" t="inlineStr">
+        <is>
+          <t>Sumon Kumar Biswas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="41">
+      <c r="A6" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C6" s="31" t="inlineStr">
+        <is>
+          <t>Prodip Biswas_01841133479</t>
+        </is>
+      </c>
+      <c r="D6" s="31" t="inlineStr">
+        <is>
+          <t>L18CellAdd, Y2020</t>
+        </is>
+      </c>
+      <c r="E6" s="31" t="inlineStr">
+        <is>
+          <t>Take Print Screen from MBB</t>
+        </is>
+      </c>
+      <c r="F6" s="31" t="inlineStr">
+        <is>
+          <t>SYBSW17,SYDKS18,SYDKS21,SYGLP20,SYGLP21,SYGWN13,SYGWN19SYJNT08</t>
+        </is>
+      </c>
+      <c r="G6" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H6" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I6" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J6" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K6" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280128</t>
+        </is>
+      </c>
+      <c r="L6" s="33" t="inlineStr">
+        <is>
+          <t>Sumon Kumar Biswas</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="41">
+      <c r="A7" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C7" s="31" t="inlineStr">
+        <is>
+          <t>Prodip Biswas_01841133479</t>
+        </is>
+      </c>
+      <c r="D7" s="31" t="inlineStr">
+        <is>
+          <t>L18CellAdd, Y2020</t>
+        </is>
+      </c>
+      <c r="E7" s="31" t="inlineStr">
+        <is>
+          <t>Take Print Screen from MBB</t>
+        </is>
+      </c>
+      <c r="F7" s="31" t="inlineStr">
+        <is>
+          <t>SYKNG03,SYKNG04,SYKNG12,BMNBG21,SYCMP09</t>
+        </is>
+      </c>
+      <c r="G7" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H7" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I7" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J7" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K7" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280132</t>
+        </is>
+      </c>
+      <c r="L7" s="33" t="inlineStr">
+        <is>
+          <t>Sumon Kumar Biswas</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="41">
+      <c r="A8" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C8" s="31" t="inlineStr">
+        <is>
+          <t>Md. Shafiqur Rahman_01841122531</t>
+        </is>
+      </c>
+      <c r="D8" s="31" t="inlineStr">
+        <is>
+          <t>Relocation</t>
+        </is>
+      </c>
+      <c r="E8" s="31" t="inlineStr">
+        <is>
+          <t>FE Configure, Site name change</t>
+        </is>
+      </c>
+      <c r="F8" s="31" t="inlineStr">
+        <is>
+          <t>DHTIA08,DHSBG28</t>
+        </is>
+      </c>
+      <c r="G8" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H8" s="31" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I8" s="31" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
-      <c r="J2" s="28" t="inlineStr">
+      <c r="J8" s="31" t="inlineStr">
         <is>
           <t>e.co_Dhaka Metro</t>
         </is>
       </c>
-      <c r="K2" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000265067</t>
-        </is>
-      </c>
-      <c r="L2" s="30" t="inlineStr">
+      <c r="K8" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280134</t>
+        </is>
+      </c>
+      <c r="L8" s="33" t="inlineStr">
         <is>
           <t>Muhammad Shahed</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="25">
-      <c r="A3" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C3" s="28" t="inlineStr">
-        <is>
-          <t>Prodip Biswas</t>
-        </is>
-      </c>
-      <c r="D3" s="28" t="inlineStr">
-        <is>
-          <t>L18CellAdd, Y2020</t>
-        </is>
-      </c>
-      <c r="E3" s="28" t="inlineStr">
-        <is>
-          <t>GSM &amp; RRU Swap</t>
-        </is>
-      </c>
-      <c r="F3" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   MBKLR26, SYBLG20</t>
-        </is>
-      </c>
-      <c r="G3" s="28" t="inlineStr">
+    <row r="9" ht="15.75" customHeight="1" s="41">
+      <c r="A9" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C9" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="inlineStr">
+        <is>
+          <t>Padma_Colo</t>
+        </is>
+      </c>
+      <c r="E9" s="31" t="inlineStr">
+        <is>
+          <t>Slot Remove for alarm clear</t>
+        </is>
+      </c>
+      <c r="F9" s="31" t="inlineStr">
+        <is>
+          <t>SYGWN03,SYJNT08,SYJNT02</t>
+        </is>
+      </c>
+      <c r="G9" s="31" t="inlineStr">
         <is>
           <t>Service Effective</t>
         </is>
       </c>
-      <c r="H3" s="28" t="inlineStr">
+      <c r="H9" s="31" t="inlineStr">
         <is>
           <t>00:30 Minute</t>
         </is>
       </c>
-      <c r="I3" s="28" t="inlineStr">
+      <c r="I9" s="31" t="inlineStr">
         <is>
           <t>Sylhet</t>
         </is>
       </c>
-      <c r="J3" s="28" t="inlineStr">
+      <c r="J9" s="31" t="inlineStr">
         <is>
           <t>e.co_Sylhet</t>
         </is>
       </c>
-      <c r="K3" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000265070</t>
-        </is>
-      </c>
-      <c r="L3" s="30" t="inlineStr">
-        <is>
-          <t>Sumon Kumar Biswas</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="25">
-      <c r="A4" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C4" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D4" s="28" t="inlineStr">
-        <is>
-          <t>NCCD AbisoIP</t>
-        </is>
-      </c>
-      <c r="E4" s="28" t="inlineStr">
+      <c r="K9" s="33" t="inlineStr">
+        <is>
+          <t>CRQ000000280140</t>
+        </is>
+      </c>
+      <c r="L9" s="33" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="41">
+      <c r="A10" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C10" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D10" s="31" t="inlineStr">
+        <is>
+          <t>DHAKA_MODERNIZATION</t>
+        </is>
+      </c>
+      <c r="E10" s="31" t="inlineStr">
         <is>
           <t>Rectification</t>
         </is>
       </c>
-      <c r="F4" s="28" t="inlineStr">
-        <is>
-          <t>SYZKG15,SYZKG01</t>
-        </is>
-      </c>
-      <c r="G4" s="28" t="inlineStr">
+      <c r="F10" s="31" t="inlineStr">
+        <is>
+          <t>NKKND02,MYISG02</t>
+        </is>
+      </c>
+      <c r="G10" s="31" t="inlineStr">
         <is>
           <t>Service Effective</t>
         </is>
       </c>
-      <c r="H4" s="28" t="inlineStr">
+      <c r="H10" s="31" t="inlineStr">
         <is>
           <t>00:30 Minute</t>
         </is>
       </c>
-      <c r="I4" s="28" t="inlineStr">
+      <c r="I10" s="31" t="inlineStr">
+        <is>
+          <t>Mymensingh</t>
+        </is>
+      </c>
+      <c r="J10" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Mymensingh</t>
+        </is>
+      </c>
+      <c r="K10" s="33" t="inlineStr">
+        <is>
+          <t>CRQ000000280148</t>
+        </is>
+      </c>
+      <c r="L10" s="33" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="41">
+      <c r="A11" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C11" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D11" s="31" t="inlineStr">
+        <is>
+          <t>Padma_Colo</t>
+        </is>
+      </c>
+      <c r="E11" s="31" t="inlineStr">
+        <is>
+          <t>Rectification 1/1</t>
+        </is>
+      </c>
+      <c r="F11" s="31" t="inlineStr">
+        <is>
+          <t>SYKNG05,SYSDR26,SYJNT03,SYJNT08</t>
+        </is>
+      </c>
+      <c r="G11" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H11" s="31" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I11" s="31" t="inlineStr">
         <is>
           <t>Sylhet</t>
         </is>
       </c>
-      <c r="J4" s="28" t="inlineStr">
+      <c r="J11" s="31" t="inlineStr">
         <is>
           <t>e.co_Sylhet</t>
         </is>
       </c>
-      <c r="K4" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000265074</t>
-        </is>
-      </c>
-      <c r="L4" s="30" t="inlineStr">
+      <c r="K11" s="33" t="inlineStr">
+        <is>
+          <t>CRQ000000280152</t>
+        </is>
+      </c>
+      <c r="L11" s="33" t="inlineStr">
         <is>
           <t>Muhammad Shahed</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="25">
-      <c r="A5" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C5" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D5" s="28" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="41">
+      <c r="A12" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C12" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D12" s="31" t="inlineStr">
         <is>
           <t>DHAKA_MODERNIZATION</t>
         </is>
       </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>DCN Configure</t>
-        </is>
-      </c>
-      <c r="F5" s="28" t="inlineStr">
-        <is>
-          <t>NGARH26,NGARH09,NGSNG11,NGSNG20</t>
-        </is>
-      </c>
-      <c r="G5" s="28" t="inlineStr">
+      <c r="E12" s="31" t="inlineStr">
+        <is>
+          <t>Dismantle Materials Return</t>
+        </is>
+      </c>
+      <c r="F12" s="31" t="inlineStr">
+        <is>
+          <t>DHDHM33,DHDHM36,MNSNG08</t>
+        </is>
+      </c>
+      <c r="G12" s="31" t="inlineStr">
         <is>
           <t>Non-Service Effective</t>
         </is>
       </c>
-      <c r="H5" s="28" t="inlineStr">
+      <c r="H12" s="31" t="inlineStr">
         <is>
           <t>00:00 Minute</t>
         </is>
       </c>
-      <c r="I5" s="28" t="inlineStr">
+      <c r="I12" s="31" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
-      <c r="J5" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka South</t>
-        </is>
-      </c>
-      <c r="K5" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000265079</t>
-        </is>
-      </c>
-      <c r="L5" s="30" t="inlineStr">
+      <c r="J12" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka North</t>
+        </is>
+      </c>
+      <c r="K12" s="33" t="inlineStr">
+        <is>
+          <t>CRQ000000280159</t>
+        </is>
+      </c>
+      <c r="L12" s="33" t="inlineStr">
         <is>
           <t>Muhammad Shahed</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="25">
-      <c r="A6" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C6" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D6" s="28" t="inlineStr">
-        <is>
-          <t>DHAKA_MODERNIZATION</t>
-        </is>
-      </c>
-      <c r="E6" s="28" t="inlineStr">
-        <is>
-          <t>Rectification for XPIC allignment</t>
-        </is>
-      </c>
-      <c r="F6" s="28" t="inlineStr">
-        <is>
-          <t>TNGPL01,TNGTL27</t>
-        </is>
-      </c>
-      <c r="G6" s="28" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="41">
+      <c r="A13" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="inlineStr">
+        <is>
+          <t>02-Nov-20</t>
+        </is>
+      </c>
+      <c r="C13" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D13" s="31" t="inlineStr">
+        <is>
+          <t>Finito</t>
+        </is>
+      </c>
+      <c r="E13" s="31" t="inlineStr">
+        <is>
+          <t>Rectification</t>
+        </is>
+      </c>
+      <c r="F13" s="31" t="inlineStr">
+        <is>
+          <t>DHDHN41,DHTEJ23,DHTIA09,DHRMN05</t>
+        </is>
+      </c>
+      <c r="G13" s="31" t="inlineStr">
         <is>
           <t>Service Effective</t>
         </is>
       </c>
-      <c r="H6" s="28" t="inlineStr">
+      <c r="H13" s="31" t="inlineStr">
         <is>
           <t>00:30 Minute</t>
         </is>
       </c>
-      <c r="I6" s="28" t="inlineStr">
-        <is>
-          <t>Mymensingh</t>
-        </is>
-      </c>
-      <c r="J6" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Mymensingh</t>
-        </is>
-      </c>
-      <c r="K6" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000265086</t>
-        </is>
-      </c>
-      <c r="L6" s="30" t="inlineStr">
+      <c r="I13" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J13" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka Metro</t>
+        </is>
+      </c>
+      <c r="K13" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280164</t>
+        </is>
+      </c>
+      <c r="L13" s="33" t="inlineStr">
         <is>
           <t>Muhammad Shahed</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="25">
-      <c r="A7" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C7" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D7" s="28" t="inlineStr">
-        <is>
-          <t>DHAKA_MODERNIZATION</t>
-        </is>
-      </c>
-      <c r="E7" s="28" t="inlineStr">
-        <is>
-          <t>Ne link installation</t>
-        </is>
-      </c>
-      <c r="F7" s="28" t="inlineStr">
-        <is>
-          <t>GPKLG05,GPSDR06,DHKHGT1,MGSNG08</t>
-        </is>
-      </c>
-      <c r="G7" s="28" t="inlineStr">
-        <is>
-          <t>Non-Service Effective</t>
-        </is>
-      </c>
-      <c r="H7" s="28" t="inlineStr">
-        <is>
-          <t>00:00 Minute</t>
-        </is>
-      </c>
-      <c r="I7" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J7" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka North</t>
-        </is>
-      </c>
-      <c r="K7" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000265091</t>
-        </is>
-      </c>
-      <c r="L7" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="25">
-      <c r="A8" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C8" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D8" s="28" t="inlineStr">
-        <is>
-          <t>Padma_Colo</t>
-        </is>
-      </c>
-      <c r="E8" s="28" t="inlineStr">
-        <is>
-          <t>MW Dismantle activity
-Link ID:SY13H31786
-Link Name:SYBNB22-SYBNB26
-DCN Impact:SYBNB26-EMTN-01,SYBNB22-EMTN-01,SYBNB22-EMTN-01,SYBNB29-EMTN-01
-DCN Path:SYBNB26-SYBNB22-SYBNB05-SYBNB29
-Impact list:SYBNB22,SYBNB26</t>
-        </is>
-      </c>
-      <c r="F8" s="28" t="inlineStr">
-        <is>
-          <t>SYBNB22,SYBNB26</t>
-        </is>
-      </c>
-      <c r="G8" s="28" t="inlineStr">
-        <is>
-          <t>Non-Service Effective</t>
-        </is>
-      </c>
-      <c r="H8" s="28" t="inlineStr">
-        <is>
-          <t>00:00 Minute</t>
-        </is>
-      </c>
-      <c r="I8" s="28" t="inlineStr">
-        <is>
-          <t>Sylhet</t>
-        </is>
-      </c>
-      <c r="J8" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Sylhet</t>
-        </is>
-      </c>
-      <c r="K8" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000265095</t>
-        </is>
-      </c>
-      <c r="L8" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="25">
-      <c r="A9" s="26" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C9" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D9" s="28" t="inlineStr">
-        <is>
-          <t>Padma_Colo</t>
-        </is>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>MW Dismantle activity
-Link ID:SY07H30739
-Link Name:SNDRI01-SNDRI10
-DCN Impact: SNDRI01-HRTN01,SNDRI01-HRTN02
-DCN Path:SNDRI01-SNDRI10</t>
-        </is>
-      </c>
-      <c r="F9" s="28" t="inlineStr">
-        <is>
-          <t>SNDRI01,SNDRI10</t>
-        </is>
-      </c>
-      <c r="G9" s="28" t="inlineStr">
-        <is>
-          <t>Non-Service Effective</t>
-        </is>
-      </c>
-      <c r="H9" s="28" t="inlineStr">
-        <is>
-          <t>00:00 Minute</t>
-        </is>
-      </c>
-      <c r="I9" s="28" t="inlineStr">
-        <is>
-          <t>Sylhet</t>
-        </is>
-      </c>
-      <c r="J9" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Sylhet</t>
-        </is>
-      </c>
-      <c r="K9" s="30" t="inlineStr">
-        <is>
-          <t>CRQ000000265099</t>
-        </is>
-      </c>
-      <c r="L9" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="25">
-      <c r="A10" s="26" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C10" s="28" t="inlineStr">
-        <is>
-          <t>KM Jiaul Islam Jibon</t>
-        </is>
-      </c>
-      <c r="D10" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka-Modernization</t>
-        </is>
-      </c>
-      <c r="E10" s="28" t="inlineStr">
-        <is>
-          <t>FE Configuration</t>
-        </is>
-      </c>
-      <c r="F10" s="28" t="inlineStr">
-        <is>
-          <t>MGDLP08</t>
-        </is>
-      </c>
-      <c r="G10" s="28" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H10" s="28" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I10" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J10" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka North</t>
-        </is>
-      </c>
-      <c r="K10" s="30" t="inlineStr">
-        <is>
-          <t>CRQ000000265102</t>
-        </is>
-      </c>
-      <c r="L10" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="25">
-      <c r="A11" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C11" s="28" t="inlineStr">
-        <is>
-          <t>Md. Shahadat Hossain</t>
-        </is>
-      </c>
-      <c r="D11" s="28" t="inlineStr">
-        <is>
-          <t>CC 4G Colocation Project</t>
-        </is>
-      </c>
-      <c r="E11" s="28" t="inlineStr">
-        <is>
-          <t>GSM Antenna &amp; RRU Swap</t>
-        </is>
-      </c>
-      <c r="F11" s="28" t="inlineStr">
-        <is>
-          <t>LXRGN14,LXRGN11,LXRPR19</t>
-        </is>
-      </c>
-      <c r="G11" s="28" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H11" s="28" t="inlineStr">
-        <is>
-          <t>04:00 Hour</t>
-        </is>
-      </c>
-      <c r="I11" s="28" t="inlineStr">
-        <is>
-          <t>Noakhali</t>
-        </is>
-      </c>
-      <c r="J11" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Noakhali</t>
-        </is>
-      </c>
-      <c r="K11" s="30" t="inlineStr">
-        <is>
-          <t>CRQ000000265107</t>
-        </is>
-      </c>
-      <c r="L11" s="30" t="inlineStr">
-        <is>
-          <t>Faisal Mahmud Fuad</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="25">
-      <c r="A12" s="26" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="inlineStr">
-        <is>
-          <t>21-Sep-20</t>
-        </is>
-      </c>
-      <c r="C12" s="28" t="inlineStr">
-        <is>
-          <t>Md. Shahadat Hossain</t>
-        </is>
-      </c>
-      <c r="D12" s="28" t="inlineStr">
-        <is>
-          <t>CC 4G Colocation Project</t>
-        </is>
-      </c>
-      <c r="E12" s="28" t="inlineStr">
-        <is>
-          <t>GSM Antenna &amp; RRU Swap</t>
-        </is>
-      </c>
-      <c r="F12" s="28" t="inlineStr">
-        <is>
-          <t>BMNBG17,BMNBG19</t>
-        </is>
-      </c>
-      <c r="G12" s="28" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H12" s="28" t="inlineStr">
-        <is>
-          <t>04:00 Hour</t>
-        </is>
-      </c>
-      <c r="I12" s="28" t="inlineStr">
-        <is>
-          <t>Comilla</t>
-        </is>
-      </c>
-      <c r="J12" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Comilla</t>
-        </is>
-      </c>
-      <c r="K12" s="30" t="inlineStr">
-        <is>
-          <t>CRQ000000265113</t>
-        </is>
-      </c>
-      <c r="L12" s="30" t="inlineStr">
-        <is>
-          <t>Faisal Mahmud Fuad</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="25">
-      <c r="A13" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="n"/>
-      <c r="C13" s="28" t="n"/>
-      <c r="D13" s="28" t="n"/>
-      <c r="E13" s="28" t="n"/>
-      <c r="F13" s="28" t="n"/>
-      <c r="G13" s="28" t="n"/>
-      <c r="H13" s="28" t="n"/>
-      <c r="I13" s="28" t="n"/>
-      <c r="J13" s="28" t="n"/>
-      <c r="K13" s="29" t="n"/>
-      <c r="L13" s="30" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="25">
-      <c r="A14" s="26" t="n">
+    <row r="14" ht="15.75" customHeight="1" s="41">
+      <c r="A14" s="29" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="n"/>
-      <c r="C14" s="28" t="n"/>
-      <c r="D14" s="28" t="n"/>
-      <c r="E14" s="28" t="n"/>
-      <c r="F14" s="28" t="n"/>
-      <c r="G14" s="28" t="n"/>
-      <c r="H14" s="28" t="n"/>
-      <c r="I14" s="28" t="n"/>
-      <c r="J14" s="28" t="n"/>
-      <c r="K14" s="29" t="n"/>
-      <c r="L14" s="30" t="n"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="25">
-      <c r="A15" s="26" t="n">
+      <c r="B14" s="30" t="n"/>
+      <c r="C14" s="31" t="n"/>
+      <c r="D14" s="31" t="n"/>
+      <c r="E14" s="31" t="n"/>
+      <c r="F14" s="31" t="n"/>
+      <c r="G14" s="31" t="n"/>
+      <c r="H14" s="31" t="n"/>
+      <c r="I14" s="31" t="n"/>
+      <c r="J14" s="31" t="n"/>
+      <c r="K14" s="32" t="n"/>
+      <c r="L14" s="33" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="41">
+      <c r="A15" s="29" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="n"/>
-      <c r="C15" s="28" t="n"/>
-      <c r="D15" s="28" t="n"/>
-      <c r="E15" s="28" t="n"/>
-      <c r="F15" s="28" t="n"/>
-      <c r="G15" s="28" t="n"/>
-      <c r="H15" s="28" t="n"/>
-      <c r="I15" s="28" t="n"/>
-      <c r="J15" s="28" t="n"/>
-      <c r="K15" s="29" t="n"/>
-      <c r="L15" s="30" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="25">
-      <c r="A16" s="26" t="n">
+      <c r="B15" s="30" t="n"/>
+      <c r="C15" s="31" t="n"/>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="31" t="n"/>
+      <c r="F15" s="31" t="n"/>
+      <c r="G15" s="31" t="n"/>
+      <c r="H15" s="31" t="n"/>
+      <c r="I15" s="31" t="n"/>
+      <c r="J15" s="31" t="n"/>
+      <c r="K15" s="32" t="n"/>
+      <c r="L15" s="33" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="41">
+      <c r="A16" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="n"/>
-      <c r="C16" s="28" t="n"/>
-      <c r="D16" s="28" t="n"/>
-      <c r="E16" s="28" t="n"/>
-      <c r="F16" s="28" t="n"/>
-      <c r="G16" s="28" t="n"/>
-      <c r="H16" s="28" t="n"/>
-      <c r="I16" s="28" t="n"/>
-      <c r="J16" s="28" t="n"/>
-      <c r="K16" s="29" t="n"/>
-      <c r="L16" s="30" t="n"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="25">
-      <c r="A17" s="26" t="n">
+      <c r="B16" s="30" t="n"/>
+      <c r="C16" s="31" t="n"/>
+      <c r="D16" s="31" t="n"/>
+      <c r="E16" s="31" t="n"/>
+      <c r="F16" s="31" t="n"/>
+      <c r="G16" s="31" t="n"/>
+      <c r="H16" s="31" t="n"/>
+      <c r="I16" s="31" t="n"/>
+      <c r="J16" s="31" t="n"/>
+      <c r="K16" s="32" t="n"/>
+      <c r="L16" s="33" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="41">
+      <c r="A17" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="n"/>
-      <c r="C17" s="28" t="n"/>
-      <c r="D17" s="28" t="n"/>
-      <c r="E17" s="28" t="n"/>
-      <c r="F17" s="28" t="n"/>
-      <c r="G17" s="28" t="n"/>
-      <c r="H17" s="28" t="n"/>
-      <c r="I17" s="28" t="n"/>
-      <c r="J17" s="28" t="n"/>
-      <c r="K17" s="29" t="n"/>
-      <c r="L17" s="30" t="n"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" s="25">
-      <c r="A18" s="26" t="n">
+      <c r="B17" s="30" t="n"/>
+      <c r="C17" s="31" t="n"/>
+      <c r="D17" s="31" t="n"/>
+      <c r="E17" s="31" t="n"/>
+      <c r="F17" s="31" t="n"/>
+      <c r="G17" s="31" t="n"/>
+      <c r="H17" s="31" t="n"/>
+      <c r="I17" s="31" t="n"/>
+      <c r="J17" s="31" t="n"/>
+      <c r="K17" s="32" t="n"/>
+      <c r="L17" s="33" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="41">
+      <c r="A18" s="29" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="n"/>
-      <c r="C18" s="28" t="n"/>
-      <c r="D18" s="28" t="n"/>
-      <c r="E18" s="28" t="n"/>
-      <c r="F18" s="28" t="n"/>
-      <c r="G18" s="28" t="n"/>
-      <c r="H18" s="28" t="n"/>
-      <c r="I18" s="28" t="n"/>
-      <c r="J18" s="28" t="n"/>
-      <c r="K18" s="29" t="n"/>
-      <c r="L18" s="30" t="n"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="25">
-      <c r="A19" s="26" t="n">
+      <c r="B18" s="30" t="n"/>
+      <c r="C18" s="31" t="n"/>
+      <c r="D18" s="31" t="n"/>
+      <c r="E18" s="31" t="n"/>
+      <c r="F18" s="31" t="n"/>
+      <c r="G18" s="31" t="n"/>
+      <c r="H18" s="31" t="n"/>
+      <c r="I18" s="31" t="n"/>
+      <c r="J18" s="31" t="n"/>
+      <c r="K18" s="32" t="n"/>
+      <c r="L18" s="33" t="n"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="41">
+      <c r="A19" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="28" t="n"/>
-      <c r="D19" s="28" t="n"/>
-      <c r="E19" s="28" t="n"/>
-      <c r="F19" s="28" t="n"/>
-      <c r="G19" s="28" t="n"/>
-      <c r="H19" s="28" t="n"/>
-      <c r="I19" s="28" t="n"/>
-      <c r="J19" s="28" t="n"/>
-      <c r="K19" s="29" t="n"/>
-      <c r="L19" s="30" t="n"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" s="25">
-      <c r="A20" s="26" t="n">
+      <c r="B19" s="30" t="n"/>
+      <c r="C19" s="31" t="n"/>
+      <c r="D19" s="31" t="n"/>
+      <c r="E19" s="31" t="n"/>
+      <c r="F19" s="31" t="n"/>
+      <c r="G19" s="31" t="n"/>
+      <c r="H19" s="31" t="n"/>
+      <c r="I19" s="31" t="n"/>
+      <c r="J19" s="31" t="n"/>
+      <c r="K19" s="32" t="n"/>
+      <c r="L19" s="33" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="41">
+      <c r="A20" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="n"/>
-      <c r="C20" s="28" t="n"/>
-      <c r="D20" s="28" t="n"/>
-      <c r="E20" s="28" t="n"/>
-      <c r="F20" s="28" t="n"/>
-      <c r="G20" s="28" t="n"/>
-      <c r="H20" s="28" t="n"/>
-      <c r="I20" s="28" t="n"/>
-      <c r="J20" s="28" t="n"/>
-      <c r="K20" s="29" t="n"/>
-      <c r="L20" s="30" t="n"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="25">
-      <c r="A21" s="26" t="n">
+      <c r="B20" s="30" t="n"/>
+      <c r="C20" s="31" t="n"/>
+      <c r="D20" s="31" t="n"/>
+      <c r="E20" s="31" t="n"/>
+      <c r="F20" s="31" t="n"/>
+      <c r="G20" s="31" t="n"/>
+      <c r="H20" s="31" t="n"/>
+      <c r="I20" s="31" t="n"/>
+      <c r="J20" s="31" t="n"/>
+      <c r="K20" s="32" t="n"/>
+      <c r="L20" s="33" t="n"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="41">
+      <c r="A21" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="n"/>
-      <c r="C21" s="28" t="n"/>
-      <c r="D21" s="28" t="n"/>
-      <c r="E21" s="28" t="n"/>
-      <c r="F21" s="28" t="n"/>
-      <c r="G21" s="28" t="n"/>
-      <c r="H21" s="28" t="n"/>
-      <c r="I21" s="28" t="n"/>
-      <c r="J21" s="28" t="n"/>
+      <c r="B21" s="30" t="n"/>
+      <c r="C21" s="31" t="n"/>
+      <c r="D21" s="31" t="n"/>
+      <c r="E21" s="31" t="n"/>
+      <c r="F21" s="31" t="n"/>
+      <c r="G21" s="31" t="n"/>
+      <c r="H21" s="31" t="n"/>
+      <c r="I21" s="31" t="n"/>
+      <c r="J21" s="31" t="n"/>
       <c r="K21" s="34" t="n"/>
-      <c r="L21" s="30" t="n"/>
+      <c r="L21" s="33" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="29" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="31" t="n"/>
+      <c r="D22" s="31" t="n"/>
+      <c r="E22" s="31" t="n"/>
+      <c r="F22" s="31" t="n"/>
+      <c r="G22" s="36" t="n"/>
+      <c r="H22" s="29" t="n"/>
+      <c r="I22" s="31" t="n"/>
+      <c r="J22" s="31" t="n"/>
+      <c r="K22" s="32" t="n"/>
+      <c r="L22" s="32" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="n"/>
+      <c r="C23" s="31" t="n"/>
+      <c r="D23" s="31" t="n"/>
+      <c r="E23" s="31" t="n"/>
+      <c r="F23" s="31" t="n"/>
+      <c r="G23" s="36" t="n"/>
+      <c r="H23" s="29" t="n"/>
+      <c r="I23" s="31" t="n"/>
+      <c r="J23" s="31" t="n"/>
+      <c r="K23" s="32" t="n"/>
+      <c r="L23" s="32" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="29" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="35" t="n"/>
+      <c r="C24" s="31" t="n"/>
+      <c r="D24" s="31" t="n"/>
+      <c r="E24" s="31" t="n"/>
+      <c r="F24" s="31" t="n"/>
+      <c r="G24" s="36" t="n"/>
+      <c r="H24" s="29" t="n"/>
+      <c r="I24" s="31" t="n"/>
+      <c r="J24" s="31" t="n"/>
+      <c r="K24" s="32" t="n"/>
+      <c r="L24" s="32" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="29" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="37" t="n"/>
+      <c r="C25" s="38" t="n"/>
+      <c r="D25" s="38" t="n"/>
+      <c r="E25" s="38" t="n"/>
+      <c r="F25" s="38" t="n"/>
+      <c r="G25" s="39" t="n"/>
+      <c r="H25" s="40" t="n"/>
+      <c r="I25" s="38" t="n"/>
+      <c r="J25" s="38" t="n"/>
+      <c r="K25" s="34" t="n"/>
+      <c r="L25" s="34" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="37" t="n"/>
+      <c r="C26" s="38" t="n"/>
+      <c r="D26" s="38" t="n"/>
+      <c r="E26" s="38" t="n"/>
+      <c r="F26" s="38" t="n"/>
+      <c r="G26" s="39" t="n"/>
+      <c r="H26" s="40" t="n"/>
+      <c r="I26" s="38" t="n"/>
+      <c r="J26" s="38" t="n"/>
+      <c r="K26" s="34" t="n"/>
+      <c r="L26" s="34" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
+      <c r="D27" s="38" t="n"/>
+      <c r="E27" s="38" t="n"/>
+      <c r="F27" s="38" t="n"/>
+      <c r="G27" s="39" t="n"/>
+      <c r="H27" s="40" t="n"/>
+      <c r="I27" s="38" t="n"/>
+      <c r="J27" s="38" t="n"/>
+      <c r="K27" s="34" t="n"/>
+      <c r="L27" s="34" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
+      <c r="D28" s="38" t="n"/>
+      <c r="E28" s="38" t="n"/>
+      <c r="F28" s="38" t="n"/>
+      <c r="G28" s="39" t="n"/>
+      <c r="H28" s="40" t="n"/>
+      <c r="I28" s="38" t="n"/>
+      <c r="J28" s="38" t="n"/>
+      <c r="K28" s="34" t="n"/>
+      <c r="L28" s="34" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
+      <c r="D29" s="38" t="n"/>
+      <c r="E29" s="38" t="n"/>
+      <c r="F29" s="38" t="n"/>
+      <c r="G29" s="39" t="n"/>
+      <c r="H29" s="40" t="n"/>
+      <c r="I29" s="38" t="n"/>
+      <c r="J29" s="38" t="n"/>
+      <c r="K29" s="34" t="n"/>
+      <c r="L29" s="34" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
+      <c r="D30" s="38" t="n"/>
+      <c r="E30" s="38" t="n"/>
+      <c r="F30" s="38" t="n"/>
+      <c r="G30" s="39" t="n"/>
+      <c r="H30" s="40" t="n"/>
+      <c r="I30" s="38" t="n"/>
+      <c r="J30" s="38" t="n"/>
+      <c r="K30" s="34" t="n"/>
+      <c r="L30" s="34" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
+      <c r="D31" s="38" t="n"/>
+      <c r="E31" s="38" t="n"/>
+      <c r="F31" s="38" t="n"/>
+      <c r="G31" s="39" t="n"/>
+      <c r="H31" s="40" t="n"/>
+      <c r="I31" s="38" t="n"/>
+      <c r="J31" s="38" t="n"/>
+      <c r="K31" s="34" t="n"/>
+      <c r="L31" s="34" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="29" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
+      <c r="D32" s="38" t="n"/>
+      <c r="E32" s="38" t="n"/>
+      <c r="F32" s="38" t="n"/>
+      <c r="G32" s="39" t="n"/>
+      <c r="H32" s="40" t="n"/>
+      <c r="I32" s="38" t="n"/>
+      <c r="J32" s="38" t="n"/>
+      <c r="K32" s="34" t="n"/>
+      <c r="L32" s="34" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="29" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
+      <c r="D33" s="38" t="n"/>
+      <c r="E33" s="38" t="n"/>
+      <c r="F33" s="38" t="n"/>
+      <c r="G33" s="39" t="n"/>
+      <c r="H33" s="40" t="n"/>
+      <c r="I33" s="38" t="n"/>
+      <c r="J33" s="38" t="n"/>
+      <c r="K33" s="34" t="n"/>
+      <c r="L33" s="34" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="29" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
+      <c r="D34" s="38" t="n"/>
+      <c r="E34" s="38" t="n"/>
+      <c r="F34" s="38" t="n"/>
+      <c r="G34" s="39" t="n"/>
+      <c r="H34" s="40" t="n"/>
+      <c r="I34" s="38" t="n"/>
+      <c r="J34" s="38" t="n"/>
+      <c r="K34" s="34" t="n"/>
+      <c r="L34" s="34" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="29" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
+      <c r="D35" s="38" t="n"/>
+      <c r="E35" s="38" t="n"/>
+      <c r="F35" s="38" t="n"/>
+      <c r="G35" s="39" t="n"/>
+      <c r="H35" s="40" t="n"/>
+      <c r="I35" s="38" t="n"/>
+      <c r="J35" s="38" t="n"/>
+      <c r="K35" s="34" t="n"/>
+      <c r="L35" s="34" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="29" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
+      <c r="D36" s="38" t="n"/>
+      <c r="E36" s="38" t="n"/>
+      <c r="F36" s="38" t="n"/>
+      <c r="G36" s="39" t="n"/>
+      <c r="H36" s="40" t="n"/>
+      <c r="I36" s="38" t="n"/>
+      <c r="J36" s="38" t="n"/>
+      <c r="K36" s="34" t="n"/>
+      <c r="L36" s="34" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="29" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="37" t="n"/>
+      <c r="C37" s="38" t="n"/>
+      <c r="D37" s="38" t="n"/>
+      <c r="E37" s="38" t="n"/>
+      <c r="F37" s="38" t="n"/>
+      <c r="G37" s="39" t="n"/>
+      <c r="H37" s="40" t="n"/>
+      <c r="I37" s="38" t="n"/>
+      <c r="J37" s="38" t="n"/>
+      <c r="K37" s="34" t="n"/>
+      <c r="L37" s="34" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="29" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="37" t="n"/>
+      <c r="C38" s="38" t="n"/>
+      <c r="D38" s="38" t="n"/>
+      <c r="E38" s="38" t="n"/>
+      <c r="F38" s="38" t="n"/>
+      <c r="G38" s="39" t="n"/>
+      <c r="H38" s="40" t="n"/>
+      <c r="I38" s="38" t="n"/>
+      <c r="J38" s="38" t="n"/>
+      <c r="K38" s="34" t="n"/>
+      <c r="L38" s="34" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="29" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="37" t="n"/>
+      <c r="C39" s="38" t="n"/>
+      <c r="D39" s="38" t="n"/>
+      <c r="E39" s="38" t="n"/>
+      <c r="F39" s="38" t="n"/>
+      <c r="G39" s="39" t="n"/>
+      <c r="H39" s="40" t="n"/>
+      <c r="I39" s="38" t="n"/>
+      <c r="J39" s="38" t="n"/>
+      <c r="K39" s="34" t="n"/>
+      <c r="L39" s="34" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="29" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="37" t="n"/>
+      <c r="C40" s="38" t="n"/>
+      <c r="D40" s="38" t="n"/>
+      <c r="E40" s="38" t="n"/>
+      <c r="F40" s="38" t="n"/>
+      <c r="G40" s="39" t="n"/>
+      <c r="H40" s="40" t="n"/>
+      <c r="I40" s="38" t="n"/>
+      <c r="J40" s="38" t="n"/>
+      <c r="K40" s="34" t="n"/>
+      <c r="L40" s="34" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="37" t="n"/>
+      <c r="C41" s="38" t="n"/>
+      <c r="D41" s="38" t="n"/>
+      <c r="E41" s="38" t="n"/>
+      <c r="F41" s="38" t="n"/>
+      <c r="G41" s="39" t="n"/>
+      <c r="H41" s="40" t="n"/>
+      <c r="I41" s="38" t="n"/>
+      <c r="J41" s="38" t="n"/>
+      <c r="K41" s="34" t="n"/>
+      <c r="L41" s="34" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="29" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="37" t="n"/>
+      <c r="C42" s="38" t="n"/>
+      <c r="D42" s="38" t="n"/>
+      <c r="E42" s="38" t="n"/>
+      <c r="F42" s="38" t="n"/>
+      <c r="G42" s="39" t="n"/>
+      <c r="H42" s="40" t="n"/>
+      <c r="I42" s="38" t="n"/>
+      <c r="J42" s="38" t="n"/>
+      <c r="K42" s="34" t="n"/>
+      <c r="L42" s="34" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="29" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="37" t="n"/>
+      <c r="C43" s="38" t="n"/>
+      <c r="D43" s="38" t="n"/>
+      <c r="E43" s="38" t="n"/>
+      <c r="F43" s="38" t="n"/>
+      <c r="G43" s="39" t="n"/>
+      <c r="H43" s="40" t="n"/>
+      <c r="I43" s="38" t="n"/>
+      <c r="J43" s="38" t="n"/>
+      <c r="K43" s="34" t="n"/>
+      <c r="L43" s="34" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="29" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="37" t="n"/>
+      <c r="C44" s="38" t="n"/>
+      <c r="D44" s="38" t="n"/>
+      <c r="E44" s="38" t="n"/>
+      <c r="F44" s="38" t="n"/>
+      <c r="G44" s="39" t="n"/>
+      <c r="H44" s="40" t="n"/>
+      <c r="I44" s="38" t="n"/>
+      <c r="J44" s="38" t="n"/>
+      <c r="K44" s="34" t="n"/>
+      <c r="L44" s="34" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="29" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="37" t="n"/>
+      <c r="C45" s="38" t="n"/>
+      <c r="D45" s="38" t="n"/>
+      <c r="E45" s="38" t="n"/>
+      <c r="F45" s="38" t="n"/>
+      <c r="G45" s="39" t="n"/>
+      <c r="H45" s="40" t="n"/>
+      <c r="I45" s="38" t="n"/>
+      <c r="J45" s="38" t="n"/>
+      <c r="K45" s="34" t="n"/>
+      <c r="L45" s="34" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="29" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="37" t="n"/>
+      <c r="C46" s="38" t="n"/>
+      <c r="D46" s="38" t="n"/>
+      <c r="E46" s="38" t="n"/>
+      <c r="F46" s="38" t="n"/>
+      <c r="G46" s="39" t="n"/>
+      <c r="H46" s="40" t="n"/>
+      <c r="I46" s="38" t="n"/>
+      <c r="J46" s="38" t="n"/>
+      <c r="K46" s="34" t="n"/>
+      <c r="L46" s="34" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="29" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="37" t="n"/>
+      <c r="C47" s="38" t="n"/>
+      <c r="D47" s="38" t="n"/>
+      <c r="E47" s="38" t="n"/>
+      <c r="F47" s="38" t="n"/>
+      <c r="G47" s="39" t="n"/>
+      <c r="H47" s="40" t="n"/>
+      <c r="I47" s="38" t="n"/>
+      <c r="J47" s="38" t="n"/>
+      <c r="K47" s="34" t="n"/>
+      <c r="L47" s="34" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="37" t="n"/>
+      <c r="C48" s="38" t="n"/>
+      <c r="D48" s="38" t="n"/>
+      <c r="E48" s="38" t="n"/>
+      <c r="F48" s="38" t="n"/>
+      <c r="G48" s="39" t="n"/>
+      <c r="H48" s="40" t="n"/>
+      <c r="I48" s="38" t="n"/>
+      <c r="J48" s="38" t="n"/>
+      <c r="K48" s="34" t="n"/>
+      <c r="L48" s="34" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="29" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="37" t="n"/>
+      <c r="C49" s="38" t="n"/>
+      <c r="D49" s="38" t="n"/>
+      <c r="E49" s="38" t="n"/>
+      <c r="F49" s="38" t="n"/>
+      <c r="G49" s="39" t="n"/>
+      <c r="H49" s="40" t="n"/>
+      <c r="I49" s="38" t="n"/>
+      <c r="J49" s="38" t="n"/>
+      <c r="K49" s="34" t="n"/>
+      <c r="L49" s="34" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="29" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="37" t="n"/>
+      <c r="C50" s="38" t="n"/>
+      <c r="D50" s="38" t="n"/>
+      <c r="E50" s="38" t="n"/>
+      <c r="F50" s="38" t="n"/>
+      <c r="G50" s="39" t="n"/>
+      <c r="H50" s="40" t="n"/>
+      <c r="I50" s="38" t="n"/>
+      <c r="J50" s="38" t="n"/>
+      <c r="K50" s="34" t="n"/>
+      <c r="L50" s="34" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="29" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="37" t="n"/>
+      <c r="C51" s="38" t="n"/>
+      <c r="D51" s="38" t="n"/>
+      <c r="E51" s="38" t="n"/>
+      <c r="F51" s="38" t="n"/>
+      <c r="G51" s="39" t="n"/>
+      <c r="H51" s="40" t="n"/>
+      <c r="I51" s="38" t="n"/>
+      <c r="J51" s="38" t="n"/>
+      <c r="K51" s="34" t="n"/>
+      <c r="L51" s="34" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="29" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="37" t="n"/>
+      <c r="C52" s="38" t="n"/>
+      <c r="D52" s="38" t="n"/>
+      <c r="E52" s="38" t="n"/>
+      <c r="F52" s="38" t="n"/>
+      <c r="G52" s="39" t="n"/>
+      <c r="H52" s="40" t="n"/>
+      <c r="I52" s="38" t="n"/>
+      <c r="J52" s="38" t="n"/>
+      <c r="K52" s="34" t="n"/>
+      <c r="L52" s="34" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="37" t="n"/>
+      <c r="C53" s="38" t="n"/>
+      <c r="D53" s="38" t="n"/>
+      <c r="E53" s="38" t="n"/>
+      <c r="F53" s="38" t="n"/>
+      <c r="G53" s="39" t="n"/>
+      <c r="H53" s="40" t="n"/>
+      <c r="I53" s="38" t="n"/>
+      <c r="J53" s="38" t="n"/>
+      <c r="K53" s="34" t="n"/>
+      <c r="L53" s="34" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="29" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="37" t="n"/>
+      <c r="C54" s="38" t="n"/>
+      <c r="D54" s="38" t="n"/>
+      <c r="E54" s="38" t="n"/>
+      <c r="F54" s="38" t="n"/>
+      <c r="G54" s="39" t="n"/>
+      <c r="H54" s="40" t="n"/>
+      <c r="I54" s="38" t="n"/>
+      <c r="J54" s="38" t="n"/>
+      <c r="K54" s="34" t="n"/>
+      <c r="L54" s="34" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="29" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="37" t="n"/>
+      <c r="C55" s="38" t="n"/>
+      <c r="D55" s="38" t="n"/>
+      <c r="E55" s="38" t="n"/>
+      <c r="F55" s="38" t="n"/>
+      <c r="G55" s="39" t="n"/>
+      <c r="H55" s="40" t="n"/>
+      <c r="I55" s="38" t="n"/>
+      <c r="J55" s="38" t="n"/>
+      <c r="K55" s="34" t="n"/>
+      <c r="L55" s="34" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="29" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="37" t="n"/>
+      <c r="C56" s="38" t="n"/>
+      <c r="D56" s="38" t="n"/>
+      <c r="E56" s="38" t="n"/>
+      <c r="F56" s="38" t="n"/>
+      <c r="G56" s="39" t="n"/>
+      <c r="H56" s="40" t="n"/>
+      <c r="I56" s="38" t="n"/>
+      <c r="J56" s="38" t="n"/>
+      <c r="K56" s="34" t="n"/>
+      <c r="L56" s="34" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="29" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="37" t="n"/>
+      <c r="C57" s="38" t="n"/>
+      <c r="D57" s="38" t="n"/>
+      <c r="E57" s="38" t="n"/>
+      <c r="F57" s="38" t="n"/>
+      <c r="G57" s="39" t="n"/>
+      <c r="H57" s="40" t="n"/>
+      <c r="I57" s="38" t="n"/>
+      <c r="J57" s="38" t="n"/>
+      <c r="K57" s="34" t="n"/>
+      <c r="L57" s="34" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2785,1722 +3523,2721 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:L75"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="6" customWidth="1" style="25" min="1" max="1"/>
-    <col width="7.7109375" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
-    <col width="17.5703125" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
-    <col width="14.28515625" customWidth="1" style="25" min="5" max="5"/>
-    <col width="29.85546875" customWidth="1" style="25" min="6" max="6"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="25" min="7" max="7"/>
-    <col width="11.28515625" customWidth="1" style="25" min="8" max="8"/>
-    <col width="10.5703125" customWidth="1" style="25" min="9" max="9"/>
-    <col width="15.42578125" customWidth="1" style="25" min="10" max="10"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="25" min="11" max="11"/>
-    <col width="15" customWidth="1" style="25" min="12" max="12"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" style="41" min="1" max="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" style="41" min="2" max="2"/>
+    <col width="33" bestFit="1" customWidth="1" style="41" min="3" max="3"/>
+    <col width="30.28515625" bestFit="1" customWidth="1" style="41" min="4" max="4"/>
+    <col width="39.85546875" customWidth="1" style="41" min="5" max="5"/>
+    <col width="44.5703125" bestFit="1" customWidth="1" style="41" min="6" max="6"/>
+    <col width="17.5703125" bestFit="1" customWidth="1" style="41" min="7" max="7"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" style="41" min="8" max="8"/>
+    <col width="13" bestFit="1" customWidth="1" style="41" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" style="41" min="10" max="10"/>
+    <col width="21.7109375" bestFit="1" customWidth="1" style="41" min="11" max="11"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="41" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="41" min="13" max="17"/>
+    <col width="9.140625" customWidth="1" style="41" min="18" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.75" customHeight="1" s="25">
-      <c r="A2" s="15" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="41">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C2" s="16" t="inlineStr">
+      <c r="C1" s="16" t="inlineStr">
         <is>
           <t>Project Coordinator</t>
         </is>
       </c>
-      <c r="D2" s="16" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>Project Name</t>
         </is>
       </c>
-      <c r="E2" s="16" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
         <is>
           <t>Change Activity</t>
         </is>
       </c>
-      <c r="F2" s="16" t="inlineStr">
+      <c r="F1" s="16" t="inlineStr">
         <is>
           <t>Impact Site List</t>
         </is>
       </c>
-      <c r="G2" s="16" t="inlineStr">
+      <c r="G1" s="16" t="inlineStr">
         <is>
           <t>Service Type</t>
         </is>
       </c>
-      <c r="H2" s="17" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>Down Time</t>
         </is>
       </c>
-      <c r="I2" s="17" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>Site Group</t>
         </is>
       </c>
-      <c r="J2" s="17" t="inlineStr">
+      <c r="J1" s="17" t="inlineStr">
         <is>
           <t>Commercial Zone</t>
         </is>
       </c>
-      <c r="K2" s="18" t="inlineStr">
+      <c r="K1" s="18" t="inlineStr">
         <is>
           <t>NCR Number</t>
         </is>
       </c>
-      <c r="L2" s="18" t="inlineStr">
+      <c r="L1" s="18" t="inlineStr">
         <is>
           <t>Change Manager</t>
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C2" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D2" s="31" t="inlineStr">
+        <is>
+          <t>MW antenna optimization</t>
+        </is>
+      </c>
+      <c r="E2" s="31" t="inlineStr">
+        <is>
+          <t>MW  Inactive antenna Dismantle</t>
+        </is>
+      </c>
+      <c r="F2" s="31" t="inlineStr">
+        <is>
+          <t>SYBSW07,HGSDR02, SNSLA01</t>
+        </is>
+      </c>
+      <c r="G2" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H2" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I2" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J2" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K2" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279531</t>
+        </is>
+      </c>
+      <c r="L2" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C3" s="28" t="inlineStr">
-        <is>
-          <t>Prodip Biswas</t>
-        </is>
-      </c>
-      <c r="D3" s="28" t="inlineStr">
+      <c r="A3" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D3" s="31" t="inlineStr">
+        <is>
+          <t>Y2020 Capacity Expansion Cell Split</t>
+        </is>
+      </c>
+      <c r="E3" s="31" t="inlineStr">
+        <is>
+          <t>GSM antenna  Swap by10Port ANT</t>
+        </is>
+      </c>
+      <c r="F3" s="31" t="inlineStr">
+        <is>
+          <t>NGSDRM0,NGSDRE9</t>
+        </is>
+      </c>
+      <c r="G3" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H3" s="31" t="inlineStr">
+        <is>
+          <t>00:45 Minute</t>
+        </is>
+      </c>
+      <c r="I3" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J3" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka South</t>
+        </is>
+      </c>
+      <c r="K3" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279535</t>
+        </is>
+      </c>
+      <c r="L3" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C4" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D4" s="31" t="inlineStr">
+        <is>
+          <t>GSM antenna optimization</t>
+        </is>
+      </c>
+      <c r="E4" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GSM antenna  Swap </t>
+        </is>
+      </c>
+      <c r="F4" s="31" t="inlineStr">
+        <is>
+          <t>MBSML01, SYZKG14</t>
+        </is>
+      </c>
+      <c r="G4" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H4" s="31" t="inlineStr">
+        <is>
+          <t>00:45 Minute</t>
+        </is>
+      </c>
+      <c r="I4" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J4" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K4" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279538</t>
+        </is>
+      </c>
+      <c r="L4" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C5" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D5" s="31" t="inlineStr">
+        <is>
+          <t>GSM antenna optimization</t>
+        </is>
+      </c>
+      <c r="E5" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GSM antenna  Swap </t>
+        </is>
+      </c>
+      <c r="F5" s="31" t="inlineStr">
+        <is>
+          <t>DHMDP09, DHNMK08</t>
+        </is>
+      </c>
+      <c r="G5" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H5" s="31" t="inlineStr">
+        <is>
+          <t>00:45 Minute</t>
+        </is>
+      </c>
+      <c r="I5" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J5" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka Metro</t>
+        </is>
+      </c>
+      <c r="K5" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279541</t>
+        </is>
+      </c>
+      <c r="L5" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C6" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D6" s="31" t="inlineStr">
+        <is>
+          <t>MW antenna optimization</t>
+        </is>
+      </c>
+      <c r="E6" s="31" t="inlineStr">
+        <is>
+          <t>MW  Inactive antenna Dismantle</t>
+        </is>
+      </c>
+      <c r="F6" s="31" t="inlineStr">
+        <is>
+          <t>DHKHL26,DHKHL74</t>
+        </is>
+      </c>
+      <c r="G6" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H6" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I6" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J6" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka Metro</t>
+        </is>
+      </c>
+      <c r="K6" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279545</t>
+        </is>
+      </c>
+      <c r="L6" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C7" s="31" t="inlineStr">
+        <is>
+          <t>Prodip Biswas_01841133479</t>
+        </is>
+      </c>
+      <c r="D7" s="31" t="inlineStr">
         <is>
           <t>L18CellAdd, Y2020</t>
         </is>
       </c>
-      <c r="E3" s="28" t="inlineStr">
-        <is>
-          <t>GSM &amp; RRU Swap</t>
-        </is>
-      </c>
-      <c r="F3" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   HGLKH02,HGBNC02,HGNBG03</t>
-        </is>
-      </c>
-      <c r="G3" s="28" t="inlineStr">
+      <c r="E7" s="31" t="inlineStr">
+        <is>
+          <t>Jumper Cable Change 1/1</t>
+        </is>
+      </c>
+      <c r="F7" s="31" t="inlineStr">
+        <is>
+          <t>SYZKG16, SYZKG17, MBJRI14, BMSDR24, BMASG05</t>
+        </is>
+      </c>
+      <c r="G7" s="31" t="inlineStr">
         <is>
           <t>Service Effective</t>
         </is>
       </c>
-      <c r="H3" s="28" t="inlineStr">
+      <c r="H7" s="31" t="inlineStr">
         <is>
           <t>00:30 Minute</t>
         </is>
       </c>
-      <c r="I3" s="28" t="inlineStr">
+      <c r="I7" s="31" t="inlineStr">
         <is>
           <t>Sylhet</t>
         </is>
       </c>
-      <c r="J3" s="28" t="inlineStr">
+      <c r="J7" s="31" t="inlineStr">
         <is>
           <t>e.co_Sylhet</t>
         </is>
       </c>
-      <c r="K3" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264672</t>
-        </is>
-      </c>
-      <c r="L3" s="30" t="inlineStr">
+      <c r="K7" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279547</t>
+        </is>
+      </c>
+      <c r="L7" s="43" t="inlineStr">
         <is>
           <t>Sumon Kumar Biswas</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C4" s="28" t="inlineStr">
-        <is>
-          <t>Md. Shahadat Hossain</t>
-        </is>
-      </c>
-      <c r="D4" s="28" t="inlineStr">
-        <is>
-          <t>CC 4G Colocation Project</t>
-        </is>
-      </c>
-      <c r="E4" s="28" t="inlineStr">
-        <is>
-          <t>GSM Antenna &amp; RRU Swap 1/1</t>
-        </is>
-      </c>
-      <c r="F4" s="28" t="inlineStr">
-        <is>
-          <t>LXRGN14,LXRGN11,LXRGN33,LXRPR19</t>
-        </is>
-      </c>
-      <c r="G4" s="28" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C8" s="31" t="inlineStr">
+        <is>
+          <t>Sobuz Ahmed_01841122538</t>
+        </is>
+      </c>
+      <c r="D8" s="31" t="inlineStr">
+        <is>
+          <t>NCCD AbisoIP</t>
+        </is>
+      </c>
+      <c r="E8" s="31" t="inlineStr">
+        <is>
+          <t>E1 deletion &amp; Collect BTS Cable</t>
+        </is>
+      </c>
+      <c r="F8" s="31" t="inlineStr">
+        <is>
+          <t>SYBSW07,SYBSW18,SYBLG21,SYBLG29</t>
+        </is>
+      </c>
+      <c r="G8" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H8" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I8" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J8" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K8" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279550</t>
+        </is>
+      </c>
+      <c r="L8" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="42" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C9" s="31" t="inlineStr">
+        <is>
+          <t>Sobuz Ahmed_01841122538</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="inlineStr">
+        <is>
+          <t>NCCD AbisoIP</t>
+        </is>
+      </c>
+      <c r="E9" s="31" t="inlineStr">
+        <is>
+          <t>E1 deletion &amp; Collect BTS Cable</t>
+        </is>
+      </c>
+      <c r="F9" s="31" t="inlineStr">
+        <is>
+          <t>SYZKG02,SYZKG04,SYZKG19,SYZKG20</t>
+        </is>
+      </c>
+      <c r="G9" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H9" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I9" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J9" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K9" s="43" t="inlineStr">
+        <is>
+          <t>CRQ000000279553</t>
+        </is>
+      </c>
+      <c r="L9" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C10" s="31" t="inlineStr">
+        <is>
+          <t>Md. Shafiqur Rahman_01841122531</t>
+        </is>
+      </c>
+      <c r="D10" s="31" t="inlineStr">
+        <is>
+          <t>Relocation</t>
+        </is>
+      </c>
+      <c r="E10" s="31" t="inlineStr">
+        <is>
+          <t>RAU Change</t>
+        </is>
+      </c>
+      <c r="F10" s="31" t="inlineStr">
+        <is>
+          <t>DHSBG28, DHSBG46</t>
+        </is>
+      </c>
+      <c r="G10" s="31" t="inlineStr">
         <is>
           <t>Service Effective</t>
         </is>
       </c>
-      <c r="H4" s="28" t="inlineStr">
-        <is>
-          <t>04:00 Hour</t>
-        </is>
-      </c>
-      <c r="I4" s="28" t="inlineStr">
-        <is>
-          <t>Noakhali</t>
-        </is>
-      </c>
-      <c r="J4" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Noakhali</t>
-        </is>
-      </c>
-      <c r="K4" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264675</t>
-        </is>
-      </c>
-      <c r="L4" s="30" t="inlineStr">
-        <is>
-          <t>Faisal Mahmud Fuad</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C5" s="28" t="inlineStr">
-        <is>
-          <t>Md. Shahadat Hossain</t>
-        </is>
-      </c>
-      <c r="D5" s="28" t="inlineStr">
-        <is>
-          <t>CC 4G Colocation Project</t>
-        </is>
-      </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>GSM Antenna &amp; RRU Swap 1/1</t>
-        </is>
-      </c>
-      <c r="F5" s="28" t="inlineStr">
-        <is>
-          <t>BMNBG17,BMNBG19,BMNBG23</t>
-        </is>
-      </c>
-      <c r="G5" s="28" t="inlineStr">
+      <c r="H10" s="31" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I10" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J10" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka Metro</t>
+        </is>
+      </c>
+      <c r="K10" s="43" t="inlineStr">
+        <is>
+          <t>CRQ000000279555</t>
+        </is>
+      </c>
+      <c r="L10" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C11" s="31" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon_01847188948</t>
+        </is>
+      </c>
+      <c r="D11" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E11" s="31" t="inlineStr">
+        <is>
+          <t>FE Configuration &amp; Electrical Patching</t>
+        </is>
+      </c>
+      <c r="F11" s="31" t="inlineStr">
+        <is>
+          <t>BHLMN15,PTDMN01</t>
+        </is>
+      </c>
+      <c r="G11" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H11" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I11" s="31" t="inlineStr">
+        <is>
+          <t>Barisal</t>
+        </is>
+      </c>
+      <c r="J11" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Barisal</t>
+        </is>
+      </c>
+      <c r="K11" s="43" t="inlineStr">
+        <is>
+          <t>CRQ000000279557</t>
+        </is>
+      </c>
+      <c r="L11" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="42" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C12" s="31" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon_01847188948</t>
+        </is>
+      </c>
+      <c r="D12" s="31" t="inlineStr">
+        <is>
+          <t>NCCD AbisoIP P3</t>
+        </is>
+      </c>
+      <c r="E12" s="31" t="inlineStr">
+        <is>
+          <t>FE Configuration &amp; Electrical Patching</t>
+        </is>
+      </c>
+      <c r="F12" s="31" t="inlineStr">
+        <is>
+          <t>HGMDB23,SYBLG02,SYBNB33,SYJNT03</t>
+        </is>
+      </c>
+      <c r="G12" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H12" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I12" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J12" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K12" s="43" t="inlineStr">
+        <is>
+          <t>CRQ000000279559</t>
+        </is>
+      </c>
+      <c r="L12" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="42" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C13" s="31" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon_01847188948</t>
+        </is>
+      </c>
+      <c r="D13" s="31" t="inlineStr">
+        <is>
+          <t>NCCD AbisoIP P3</t>
+        </is>
+      </c>
+      <c r="E13" s="31" t="inlineStr">
+        <is>
+          <t>FE Configuration &amp; Electrical Patching</t>
+        </is>
+      </c>
+      <c r="F13" s="31" t="inlineStr">
+        <is>
+          <t>MYFLP03,MYISG01/MYISG17</t>
+        </is>
+      </c>
+      <c r="G13" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H13" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I13" s="31" t="inlineStr">
+        <is>
+          <t>Mymensingh</t>
+        </is>
+      </c>
+      <c r="J13" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Mymensingh</t>
+        </is>
+      </c>
+      <c r="K13" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279562</t>
+        </is>
+      </c>
+      <c r="L13" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="42" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C14" s="31" t="inlineStr">
+        <is>
+          <t>KM Jiaul Islam Jibon_01847188948</t>
+        </is>
+      </c>
+      <c r="D14" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E14" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Remote FE Configuration </t>
+        </is>
+      </c>
+      <c r="F14" s="31" t="inlineStr">
+        <is>
+          <t>MDSHB32,SPDMD11,NSSDR70,HGLKH08,BMSRL27,JSMNR23,JSMNR21,SYJNT20,BMSDR98</t>
+        </is>
+      </c>
+      <c r="G14" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H14" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I14" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J14" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka Metro</t>
+        </is>
+      </c>
+      <c r="K14" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279565</t>
+        </is>
+      </c>
+      <c r="L14" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="42" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C15" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D15" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E15" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F15" s="31" t="inlineStr">
+        <is>
+          <t>DHDEM39, DHSBB13</t>
+        </is>
+      </c>
+      <c r="G15" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H15" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I15" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J15" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka South</t>
+        </is>
+      </c>
+      <c r="K15" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279568</t>
+        </is>
+      </c>
+      <c r="L15" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="42" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C16" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D16" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E16" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F16" s="31" t="inlineStr">
+        <is>
+          <t>BHSDR58,BHSDR47</t>
+        </is>
+      </c>
+      <c r="G16" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H16" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I16" s="31" t="inlineStr">
+        <is>
+          <t>Barisal</t>
+        </is>
+      </c>
+      <c r="J16" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Barisal</t>
+        </is>
+      </c>
+      <c r="K16" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279572</t>
+        </is>
+      </c>
+      <c r="L16" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="42" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C17" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D17" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E17" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F17" s="31" t="inlineStr">
+        <is>
+          <t>MYFLP47, MYFLP01</t>
+        </is>
+      </c>
+      <c r="G17" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H17" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I17" s="31" t="inlineStr">
+        <is>
+          <t>Mymensingh</t>
+        </is>
+      </c>
+      <c r="J17" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Mymensingh</t>
+        </is>
+      </c>
+      <c r="K17" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279574</t>
+        </is>
+      </c>
+      <c r="L17" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="42" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C18" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D18" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E18" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F18" s="31" t="inlineStr">
+        <is>
+          <t>SYSDRG6, SYSDR32</t>
+        </is>
+      </c>
+      <c r="G18" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H18" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I18" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J18" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K18" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279576</t>
+        </is>
+      </c>
+      <c r="L18" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="42" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C19" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D19" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E19" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F19" s="31" t="inlineStr">
+        <is>
+          <t>SYGLP33, SYGLP01</t>
+        </is>
+      </c>
+      <c r="G19" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H19" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I19" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J19" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K19" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279578</t>
+        </is>
+      </c>
+      <c r="L19" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C20" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D20" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E20" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F20" s="31" t="inlineStr">
+        <is>
+          <t>MBSML43,MBSML03</t>
+        </is>
+      </c>
+      <c r="G20" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H20" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I20" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J20" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K20" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279580</t>
+        </is>
+      </c>
+      <c r="L20" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="42" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C21" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D21" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E21" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F21" s="31" t="inlineStr">
+        <is>
+          <t>MDKLK31,MDKLK18, MDKLK01</t>
+        </is>
+      </c>
+      <c r="G21" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H21" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I21" s="31" t="inlineStr">
+        <is>
+          <t>Barisal</t>
+        </is>
+      </c>
+      <c r="J21" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Barisal</t>
+        </is>
+      </c>
+      <c r="K21" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279582</t>
+        </is>
+      </c>
+      <c r="L21" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="42" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C22" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D22" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E22" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F22" s="31" t="inlineStr">
+        <is>
+          <t>SYBNB60, SYBNB15</t>
+        </is>
+      </c>
+      <c r="G22" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H22" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I22" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J22" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K22" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279586</t>
+        </is>
+      </c>
+      <c r="L22" s="36" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="42" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C23" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D23" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E23" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F23" s="31" t="inlineStr">
+        <is>
+          <t>SYBNB61</t>
+        </is>
+      </c>
+      <c r="G23" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H23" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I23" s="31" t="inlineStr">
+        <is>
+          <t>Barisal</t>
+        </is>
+      </c>
+      <c r="J23" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Barisal</t>
+        </is>
+      </c>
+      <c r="K23" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279590</t>
+        </is>
+      </c>
+      <c r="L23" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="42" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C24" s="31" t="inlineStr">
+        <is>
+          <t>Forhad Hossain_01841122532</t>
+        </is>
+      </c>
+      <c r="D24" s="31" t="inlineStr">
+        <is>
+          <t>BP 2020 Rollout</t>
+        </is>
+      </c>
+      <c r="E24" s="31" t="inlineStr">
+        <is>
+          <t>FE &amp; DCN Configure</t>
+        </is>
+      </c>
+      <c r="F24" s="31" t="inlineStr">
+        <is>
+          <t>GPSDR3C, GPSDR26,GPSDR36</t>
+        </is>
+      </c>
+      <c r="G24" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H24" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I24" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J24" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka North</t>
+        </is>
+      </c>
+      <c r="K24" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279594</t>
+        </is>
+      </c>
+      <c r="L24" s="43" t="inlineStr">
+        <is>
+          <t>K.M Khairul Bashar</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="42" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C25" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D25" s="31" t="inlineStr">
+        <is>
+          <t>Padma_Colo</t>
+        </is>
+      </c>
+      <c r="E25" s="31" t="inlineStr">
+        <is>
+          <t>Slot Remove for alarm clear</t>
+        </is>
+      </c>
+      <c r="F25" s="31" t="inlineStr">
+        <is>
+          <t>SYGWN03,SYJNT03,SYJNT08,SYJNT02</t>
+        </is>
+      </c>
+      <c r="G25" s="31" t="inlineStr">
         <is>
           <t>Service Effective</t>
         </is>
       </c>
-      <c r="H5" s="28" t="inlineStr">
-        <is>
-          <t>04:00 Hour</t>
-        </is>
-      </c>
-      <c r="I5" s="28" t="inlineStr">
-        <is>
-          <t>Comilla</t>
-        </is>
-      </c>
-      <c r="J5" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Comilla</t>
-        </is>
-      </c>
-      <c r="K5" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264679</t>
-        </is>
-      </c>
-      <c r="L5" s="30" t="inlineStr">
-        <is>
-          <t>Faisal Mahmud Fuad</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C6" s="28" t="inlineStr">
-        <is>
-          <t>Md. Rashekul Islam Raju</t>
-        </is>
-      </c>
-      <c r="D6" s="28" t="inlineStr">
-        <is>
-          <t>MW antenna optimization</t>
-        </is>
-      </c>
-      <c r="E6" s="28" t="inlineStr">
-        <is>
-          <t>MW antenna optimization</t>
-        </is>
-      </c>
-      <c r="F6" s="28" t="inlineStr">
-        <is>
-          <t>DHBDD11, DHGUL66, DHKKT06</t>
-        </is>
-      </c>
-      <c r="G6" s="28" t="inlineStr">
+      <c r="H25" s="31" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I25" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J25" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K25" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279612</t>
+        </is>
+      </c>
+      <c r="L25" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="42" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C26" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D26" s="31" t="inlineStr">
+        <is>
+          <t>Padma_Colo</t>
+        </is>
+      </c>
+      <c r="E26" s="31" t="inlineStr">
+        <is>
+          <t>MW Dismantle
+Link ID:SY18H30760
+Link Name:SYJNT03-SYJNT08
+DCN Impact :SYJNT03-HRTN-02,SYJNT03-HRTN-03,SYJNT08-HRTN-01
+DCN Route:SYGWN03-SYJNT03-SYJNT08
+WO0000000162410</t>
+        </is>
+      </c>
+      <c r="F26" s="31" t="inlineStr">
+        <is>
+          <t>SYJNT03-SYJNT08</t>
+        </is>
+      </c>
+      <c r="G26" s="31" t="inlineStr">
         <is>
           <t>Non-Service Effective</t>
         </is>
       </c>
-      <c r="H6" s="28" t="inlineStr">
-        <is>
-          <t>00:45 Minute</t>
-        </is>
-      </c>
-      <c r="I6" s="28" t="inlineStr">
+      <c r="H26" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I26" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J26" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K26" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279617</t>
+        </is>
+      </c>
+      <c r="L26" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="42" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C27" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D27" s="31" t="inlineStr">
+        <is>
+          <t>DHAKA_MODERNIZATION</t>
+        </is>
+      </c>
+      <c r="E27" s="31" t="inlineStr">
+        <is>
+          <t>Rectification</t>
+        </is>
+      </c>
+      <c r="F27" s="31" t="inlineStr">
+        <is>
+          <t>NKKND02,MYISG02</t>
+        </is>
+      </c>
+      <c r="G27" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H27" s="31" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I27" s="31" t="inlineStr">
+        <is>
+          <t>Mymensingh</t>
+        </is>
+      </c>
+      <c r="J27" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Mymensingh</t>
+        </is>
+      </c>
+      <c r="K27" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279621</t>
+        </is>
+      </c>
+      <c r="L27" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="42" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C28" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D28" s="31" t="inlineStr">
+        <is>
+          <t>Padma_Colo</t>
+        </is>
+      </c>
+      <c r="E28" s="31" t="inlineStr">
+        <is>
+          <t>Rectification 1/1</t>
+        </is>
+      </c>
+      <c r="F28" s="31" t="inlineStr">
+        <is>
+          <t>SYKNG05,SYSDR26,SYJNT03,SYJNT08</t>
+        </is>
+      </c>
+      <c r="G28" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H28" s="31" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I28" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J28" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K28" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279626</t>
+        </is>
+      </c>
+      <c r="L28" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C29" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D29" s="31" t="inlineStr">
+        <is>
+          <t>DHAKA_MODERNIZATION</t>
+        </is>
+      </c>
+      <c r="E29" s="31" t="inlineStr">
+        <is>
+          <t>Dismantle Materials Return</t>
+        </is>
+      </c>
+      <c r="F29" s="31" t="inlineStr">
+        <is>
+          <t>DHDHM33,DHDHM36,MNSNG08</t>
+        </is>
+      </c>
+      <c r="G29" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H29" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I29" s="31" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
-      <c r="J6" s="28" t="inlineStr">
+      <c r="J29" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka North</t>
+        </is>
+      </c>
+      <c r="K29" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279631</t>
+        </is>
+      </c>
+      <c r="L29" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="42" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C30" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D30" s="31" t="inlineStr">
+        <is>
+          <t>CEP</t>
+        </is>
+      </c>
+      <c r="E30" s="31" t="inlineStr">
+        <is>
+          <t>Rectification</t>
+        </is>
+      </c>
+      <c r="F30" s="31" t="inlineStr">
+        <is>
+          <t>DHGUL58,DHTIA09,DHRMN05</t>
+        </is>
+      </c>
+      <c r="G30" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H30" s="31" t="inlineStr">
+        <is>
+          <t>00:30 Minute</t>
+        </is>
+      </c>
+      <c r="I30" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J30" s="31" t="inlineStr">
         <is>
           <t>e.co_Dhaka Metro</t>
         </is>
       </c>
-      <c r="K6" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264681</t>
-        </is>
-      </c>
-      <c r="L6" s="30" t="inlineStr">
+      <c r="K30" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279634</t>
+        </is>
+      </c>
+      <c r="L30" s="43" t="inlineStr">
         <is>
           <t>Muhammad Shahed</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C7" s="28" t="inlineStr">
-        <is>
-          <t>KM Jiaul Islam Jibon</t>
-        </is>
-      </c>
-      <c r="D7" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka-Modernization</t>
-        </is>
-      </c>
-      <c r="E7" s="28" t="inlineStr">
-        <is>
-          <t>FE Ping Test</t>
-        </is>
-      </c>
-      <c r="F7" s="28" t="inlineStr">
-        <is>
-          <t>GPSDR76,GPSDRN0,MGSDR31,MNLHG11,MNSDR19,MNSDR28,MNSRN16,MNSRN17,GPKLK27,GPSDR61</t>
-        </is>
-      </c>
-      <c r="G7" s="28" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="42" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C31" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D31" s="31" t="inlineStr">
+        <is>
+          <t>Padma_Colo</t>
+        </is>
+      </c>
+      <c r="E31" s="31" t="inlineStr">
+        <is>
+          <t>MW Dismantle
+Link ID:SY07H30759
+Link Name:SYJNT03-SYGWN03
+DCN Impact :SYJNT03-HRTN-02,SYJNT03-HRTN-03,SYJNT08-HRTN-01,SYGWN03-HRTN-02
+DCN Route:SYGWN03-SYJNT03-SYJNT08
+WO0000000162410</t>
+        </is>
+      </c>
+      <c r="F31" s="31" t="inlineStr">
+        <is>
+          <t>SYJNT03,SYGWN03</t>
+        </is>
+      </c>
+      <c r="G31" s="31" t="inlineStr">
         <is>
           <t>Non-Service Effective</t>
         </is>
       </c>
-      <c r="H7" s="28" t="inlineStr">
+      <c r="H31" s="31" t="inlineStr">
         <is>
           <t>00:00 Minute</t>
         </is>
       </c>
-      <c r="I7" s="28" t="inlineStr">
+      <c r="I31" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J31" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K31" s="36" t="inlineStr">
+        <is>
+          <t>CRQ000000279639</t>
+        </is>
+      </c>
+      <c r="L31" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="42" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C32" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D32" s="31" t="inlineStr">
+        <is>
+          <t>NCCD AbisoIP</t>
+        </is>
+      </c>
+      <c r="E32" s="31" t="inlineStr">
+        <is>
+          <t>Slot Remove for alarm clear</t>
+        </is>
+      </c>
+      <c r="F32" s="31" t="inlineStr">
+        <is>
+          <t>SYBNB42</t>
+        </is>
+      </c>
+      <c r="G32" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H32" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I32" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J32" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K32" s="43" t="inlineStr">
+        <is>
+          <t>CRQ000000279641</t>
+        </is>
+      </c>
+      <c r="L32" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="42" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C33" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D33" s="31" t="inlineStr">
+        <is>
+          <t>NCCD AbisoIP</t>
+        </is>
+      </c>
+      <c r="E33" s="31" t="inlineStr">
+        <is>
+          <t>DCN Configure</t>
+        </is>
+      </c>
+      <c r="F33" s="31" t="inlineStr">
+        <is>
+          <t>MYNND16,MYNND04,JPISL14,SRSDR07</t>
+        </is>
+      </c>
+      <c r="G33" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H33" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I33" s="31" t="inlineStr">
+        <is>
+          <t>Mymensingh</t>
+        </is>
+      </c>
+      <c r="J33" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Mymensingh</t>
+        </is>
+      </c>
+      <c r="K33" s="43" t="inlineStr">
+        <is>
+          <t>CRQ000000279644</t>
+        </is>
+      </c>
+      <c r="L33" s="43" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="42" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="35" t="inlineStr">
+        <is>
+          <t>01-Nov-20</t>
+        </is>
+      </c>
+      <c r="C34" s="31" t="inlineStr">
+        <is>
+          <t>Md. Masudur Rahman_01841122536</t>
+        </is>
+      </c>
+      <c r="D34" s="31" t="inlineStr">
+        <is>
+          <t>DHAKA_MODERNIZATION</t>
+        </is>
+      </c>
+      <c r="E34" s="31" t="inlineStr">
+        <is>
+          <t>Dismantle Materials Return</t>
+        </is>
+      </c>
+      <c r="F34" s="31" t="inlineStr">
+        <is>
+          <t>DHKGNT1,MNLHG18,MNSRN18,MNSRK13,MNSRK16,NGSNG11,NGSNG20</t>
+        </is>
+      </c>
+      <c r="G34" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H34" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I34" s="31" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
-      <c r="J7" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka North</t>
-        </is>
-      </c>
-      <c r="K7" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264684</t>
-        </is>
-      </c>
-      <c r="L7" s="30" t="inlineStr">
+      <c r="J34" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka South</t>
+        </is>
+      </c>
+      <c r="K34" s="43" t="inlineStr">
+        <is>
+          <t>CRQ000000279647</t>
+        </is>
+      </c>
+      <c r="L34" s="43" t="inlineStr">
         <is>
           <t>Muhammad Shahed</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C8" s="28" t="inlineStr">
-        <is>
-          <t>KM Jiaul Islam Jibon</t>
-        </is>
-      </c>
-      <c r="D8" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka-Modernization</t>
-        </is>
-      </c>
-      <c r="E8" s="28" t="inlineStr">
-        <is>
-          <t>FE Ping Test</t>
-        </is>
-      </c>
-      <c r="F8" s="28" t="inlineStr">
-        <is>
-          <t>DHBDD05,DHDHN45,DHMJH47,DHPTN16,DHRMN36,DHBDD78,DHGULF5,DHMDP01,DHMDP05</t>
-        </is>
-      </c>
-      <c r="G8" s="28" t="inlineStr">
-        <is>
-          <t>Non-Service Effective</t>
-        </is>
-      </c>
-      <c r="H8" s="28" t="inlineStr">
-        <is>
-          <t>00:00 Minute</t>
-        </is>
-      </c>
-      <c r="I8" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J8" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka Metro</t>
-        </is>
-      </c>
-      <c r="K8" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264687</t>
-        </is>
-      </c>
-      <c r="L8" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C9" s="28" t="inlineStr">
-        <is>
-          <t>KM Jiaul Islam Jibon</t>
-        </is>
-      </c>
-      <c r="D9" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka-Modernization</t>
-        </is>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>FE Ping Test</t>
-        </is>
-      </c>
-      <c r="F9" s="28" t="inlineStr">
-        <is>
-          <t>TNGPL06</t>
-        </is>
-      </c>
-      <c r="G9" s="28" t="inlineStr">
-        <is>
-          <t>Non-Service Effective</t>
-        </is>
-      </c>
-      <c r="H9" s="28" t="inlineStr">
-        <is>
-          <t>00:00 Minute</t>
-        </is>
-      </c>
-      <c r="I9" s="28" t="inlineStr">
-        <is>
-          <t>Mymensingh</t>
-        </is>
-      </c>
-      <c r="J9" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Mymensingh</t>
-        </is>
-      </c>
-      <c r="K9" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264689</t>
-        </is>
-      </c>
-      <c r="L9" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="26" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C10" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D10" s="28" t="inlineStr">
-        <is>
-          <t>DHAKA_MODERNIZATION</t>
-        </is>
-      </c>
-      <c r="E10" s="28" t="inlineStr">
-        <is>
-          <t>Rectification</t>
-        </is>
-      </c>
-      <c r="F10" s="28" t="inlineStr">
-        <is>
-          <t>TNGPL01,TNGTL27</t>
-        </is>
-      </c>
-      <c r="G10" s="28" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H10" s="28" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I10" s="28" t="inlineStr">
-        <is>
-          <t>Mymensingh</t>
-        </is>
-      </c>
-      <c r="J10" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Mymensingh</t>
-        </is>
-      </c>
-      <c r="K10" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264698</t>
-        </is>
-      </c>
-      <c r="L10" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="26" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C11" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D11" s="28" t="inlineStr">
-        <is>
-          <t>DHAKA_MODERNIZATION</t>
-        </is>
-      </c>
-      <c r="E11" s="28" t="inlineStr">
-        <is>
-          <t>DCN Configure</t>
-        </is>
-      </c>
-      <c r="F11" s="28" t="inlineStr">
-        <is>
-          <t>NGARH26,NGARH09</t>
-        </is>
-      </c>
-      <c r="G11" s="28" t="inlineStr">
-        <is>
-          <t>Non-Service Effective</t>
-        </is>
-      </c>
-      <c r="H11" s="28" t="inlineStr">
-        <is>
-          <t>00:00 Minute</t>
-        </is>
-      </c>
-      <c r="I11" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J11" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka South</t>
-        </is>
-      </c>
-      <c r="K11" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264702</t>
-        </is>
-      </c>
-      <c r="L11" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C12" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D12" s="28" t="inlineStr">
-        <is>
-          <t>DHAKA_MODERNIZATION</t>
-        </is>
-      </c>
-      <c r="E12" s="28" t="inlineStr">
-        <is>
-          <t>Ne link installation</t>
-        </is>
-      </c>
-      <c r="F12" s="28" t="inlineStr">
-        <is>
-          <t>GPKLG05,GPSDR06,DHKHGT1,MGSNG08</t>
-        </is>
-      </c>
-      <c r="G12" s="28" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H12" s="28" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I12" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J12" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka North</t>
-        </is>
-      </c>
-      <c r="K12" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264708</t>
-        </is>
-      </c>
-      <c r="L12" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="26" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C13" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D13" s="28" t="inlineStr">
-        <is>
-          <t>DHAKA_MODERNIZATION</t>
-        </is>
-      </c>
-      <c r="E13" s="28" t="inlineStr">
-        <is>
-          <t>Traffic shifting 1/1
-Link ID:DH07E18275
-Link Name:MNLHG18-MNSRN18
-DCN Impact:MNLHG18-EMTN-02,MNLHG18-EMTN-01,MNLHG02-EMTN-01,MNLHG08-EMTN-01,MNLHG18-EMTN-03,MNSRN18-EMTN-02
-DCN Path:MNSRN18-MNLHG18-MNLHG02,MNLHG08
-Impact List:MNLHG18,MNSRN18</t>
-        </is>
-      </c>
-      <c r="F13" s="28" t="inlineStr">
-        <is>
-          <t>MNLHG18,MNSRN18</t>
-        </is>
-      </c>
-      <c r="G13" s="28" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H13" s="28" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I13" s="28" t="inlineStr">
-        <is>
-          <t>Dhaka</t>
-        </is>
-      </c>
-      <c r="J13" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Dhaka South</t>
-        </is>
-      </c>
-      <c r="K13" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264711</t>
-        </is>
-      </c>
-      <c r="L13" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="27" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C14" s="28" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D14" s="28" t="inlineStr">
-        <is>
-          <t>Padma_Colo</t>
-        </is>
-      </c>
-      <c r="E14" s="28" t="inlineStr">
-        <is>
-          <t>Link ID:SY07H30744
-Link Name:SNDKS01-SNDRI01
-DCN Impact:SNDKS01-HRTN-01,SNDKS01-HRTN-02,SNDKS01-HRTN-03,SNDRI01-HRTN01
-DCN Path:SNJML02-SNDKS01-SNDRI05
-Impact list:SNDKS01,SNDRI01,SNDRI10</t>
-        </is>
-      </c>
-      <c r="F14" s="28" t="inlineStr">
-        <is>
-          <t>SNDKS01,SNDRI01</t>
-        </is>
-      </c>
-      <c r="G14" s="28" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H14" s="28" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I14" s="28" t="inlineStr">
-        <is>
-          <t>Sylhet</t>
-        </is>
-      </c>
-      <c r="J14" s="28" t="inlineStr">
-        <is>
-          <t>e.co_Sylhet</t>
-        </is>
-      </c>
-      <c r="K14" s="29" t="inlineStr">
-        <is>
-          <t>CRQ000000264715</t>
-        </is>
-      </c>
-      <c r="L14" s="30" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="31" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="32" t="inlineStr">
-        <is>
-          <t>20-Sep-20</t>
-        </is>
-      </c>
-      <c r="C15" s="33" t="inlineStr">
-        <is>
-          <t>Md. Masudur Rahman</t>
-        </is>
-      </c>
-      <c r="D15" s="33" t="inlineStr">
-        <is>
-          <t>Padma_Colo</t>
-        </is>
-      </c>
-      <c r="E15" s="33" t="inlineStr">
-        <is>
-          <t>MW Dismantle activity
-Link ID:SY07H30739
-Link Name:SNDRI01-SNDRI10
-DCN Impact: SNDRI01-HRTN01,SNDRI01-HRTN02
-DCN Path:SNDRI01-SNDRI10</t>
-        </is>
-      </c>
-      <c r="F15" s="33" t="inlineStr">
-        <is>
-          <t>SNDRI01,SNDRI10</t>
-        </is>
-      </c>
-      <c r="G15" s="33" t="inlineStr">
-        <is>
-          <t>Service Effective</t>
-        </is>
-      </c>
-      <c r="H15" s="33" t="inlineStr">
-        <is>
-          <t>00:30 Minute</t>
-        </is>
-      </c>
-      <c r="I15" s="33" t="inlineStr">
-        <is>
-          <t>Sylhet</t>
-        </is>
-      </c>
-      <c r="J15" s="33" t="inlineStr">
-        <is>
-          <t>e.co_Sylhet</t>
-        </is>
-      </c>
-      <c r="K15" s="34" t="inlineStr">
-        <is>
-          <t>CRQ000000264718</t>
-        </is>
-      </c>
-      <c r="L15" s="35" t="inlineStr">
-        <is>
-          <t>Muhammad Shahed</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="26" t="n"/>
-      <c r="B16" s="27" t="n"/>
-      <c r="C16" s="28" t="n"/>
-      <c r="D16" s="28" t="n"/>
-      <c r="E16" s="28" t="n"/>
-      <c r="F16" s="28" t="n"/>
-      <c r="G16" s="28" t="n"/>
-      <c r="H16" s="28" t="n"/>
-      <c r="I16" s="28" t="n"/>
-      <c r="J16" s="28" t="n"/>
-      <c r="K16" s="29" t="n"/>
-      <c r="L16" s="30" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="26" t="n"/>
-      <c r="B17" s="27" t="n"/>
-      <c r="C17" s="28" t="n"/>
-      <c r="D17" s="28" t="n"/>
-      <c r="E17" s="28" t="n"/>
-      <c r="F17" s="28" t="n"/>
-      <c r="G17" s="28" t="n"/>
-      <c r="H17" s="28" t="n"/>
-      <c r="I17" s="28" t="n"/>
-      <c r="J17" s="28" t="n"/>
-      <c r="K17" s="29" t="n"/>
-      <c r="L17" s="30" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="26" t="n"/>
-      <c r="B18" s="27" t="n"/>
-      <c r="C18" s="28" t="n"/>
-      <c r="D18" s="28" t="n"/>
-      <c r="E18" s="28" t="n"/>
-      <c r="F18" s="28" t="n"/>
-      <c r="G18" s="28" t="n"/>
-      <c r="H18" s="28" t="n"/>
-      <c r="I18" s="28" t="n"/>
-      <c r="J18" s="28" t="n"/>
-      <c r="K18" s="29" t="n"/>
-      <c r="L18" s="30" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="26" t="n"/>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="28" t="n"/>
-      <c r="D19" s="28" t="n"/>
-      <c r="E19" s="28" t="n"/>
-      <c r="F19" s="28" t="n"/>
-      <c r="G19" s="28" t="n"/>
-      <c r="H19" s="28" t="n"/>
-      <c r="I19" s="28" t="n"/>
-      <c r="J19" s="28" t="n"/>
-      <c r="K19" s="29" t="n"/>
-      <c r="L19" s="30" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="26" t="n"/>
-      <c r="B20" s="27" t="n"/>
-      <c r="C20" s="28" t="n"/>
-      <c r="D20" s="28" t="n"/>
-      <c r="E20" s="28" t="n"/>
-      <c r="F20" s="28" t="n"/>
-      <c r="G20" s="28" t="n"/>
-      <c r="H20" s="28" t="n"/>
-      <c r="I20" s="28" t="n"/>
-      <c r="J20" s="28" t="n"/>
-      <c r="K20" s="29" t="n"/>
-      <c r="L20" s="30" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="26" t="n"/>
-      <c r="B21" s="27" t="n"/>
-      <c r="C21" s="28" t="n"/>
-      <c r="D21" s="28" t="n"/>
-      <c r="E21" s="28" t="n"/>
-      <c r="F21" s="28" t="n"/>
-      <c r="G21" s="28" t="n"/>
-      <c r="H21" s="28" t="n"/>
-      <c r="I21" s="28" t="n"/>
-      <c r="J21" s="28" t="n"/>
-      <c r="K21" s="29" t="n"/>
-      <c r="L21" s="30" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="26" t="n"/>
-      <c r="B22" s="27" t="n"/>
-      <c r="C22" s="28" t="n"/>
-      <c r="D22" s="28" t="n"/>
-      <c r="E22" s="28" t="n"/>
-      <c r="F22" s="28" t="n"/>
-      <c r="G22" s="28" t="n"/>
-      <c r="H22" s="28" t="n"/>
-      <c r="I22" s="28" t="n"/>
-      <c r="J22" s="28" t="n"/>
-      <c r="K22" s="29" t="n"/>
-      <c r="L22" s="30" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26" t="n"/>
-      <c r="B23" s="27" t="n"/>
-      <c r="C23" s="28" t="n"/>
-      <c r="D23" s="28" t="n"/>
-      <c r="E23" s="28" t="n"/>
-      <c r="F23" s="28" t="n"/>
-      <c r="G23" s="28" t="n"/>
-      <c r="H23" s="28" t="n"/>
-      <c r="I23" s="28" t="n"/>
-      <c r="J23" s="28" t="n"/>
-      <c r="K23" s="29" t="n"/>
-      <c r="L23" s="30" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="26" t="n"/>
-      <c r="B24" s="27" t="n"/>
-      <c r="C24" s="28" t="n"/>
-      <c r="D24" s="28" t="n"/>
-      <c r="E24" s="28" t="n"/>
-      <c r="F24" s="28" t="n"/>
-      <c r="G24" s="28" t="n"/>
-      <c r="H24" s="28" t="n"/>
-      <c r="I24" s="28" t="n"/>
-      <c r="J24" s="28" t="n"/>
-      <c r="K24" s="29" t="n"/>
-      <c r="L24" s="30" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="26" t="n"/>
-      <c r="B25" s="27" t="n"/>
-      <c r="C25" s="28" t="n"/>
-      <c r="D25" s="28" t="n"/>
-      <c r="E25" s="28" t="n"/>
-      <c r="F25" s="28" t="n"/>
-      <c r="G25" s="28" t="n"/>
-      <c r="H25" s="28" t="n"/>
-      <c r="I25" s="28" t="n"/>
-      <c r="J25" s="28" t="n"/>
-      <c r="K25" s="29" t="n"/>
-      <c r="L25" s="30" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="26" t="n"/>
-      <c r="B26" s="27" t="n"/>
-      <c r="C26" s="28" t="n"/>
-      <c r="D26" s="28" t="n"/>
-      <c r="E26" s="28" t="n"/>
-      <c r="F26" s="28" t="n"/>
-      <c r="G26" s="28" t="n"/>
-      <c r="H26" s="28" t="n"/>
-      <c r="I26" s="28" t="n"/>
-      <c r="J26" s="28" t="n"/>
-      <c r="K26" s="29" t="n"/>
-      <c r="L26" s="30" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="26" t="n"/>
-      <c r="B27" s="27" t="n"/>
-      <c r="C27" s="28" t="n"/>
-      <c r="D27" s="28" t="n"/>
-      <c r="E27" s="28" t="n"/>
-      <c r="F27" s="28" t="n"/>
-      <c r="G27" s="28" t="n"/>
-      <c r="H27" s="28" t="n"/>
-      <c r="I27" s="28" t="n"/>
-      <c r="J27" s="28" t="n"/>
-      <c r="K27" s="29" t="n"/>
-      <c r="L27" s="30" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="26" t="n"/>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="28" t="n"/>
-      <c r="D28" s="28" t="n"/>
-      <c r="E28" s="28" t="n"/>
-      <c r="F28" s="28" t="n"/>
-      <c r="G28" s="28" t="n"/>
-      <c r="H28" s="28" t="n"/>
-      <c r="I28" s="28" t="n"/>
-      <c r="J28" s="28" t="n"/>
-      <c r="K28" s="29" t="n"/>
-      <c r="L28" s="30" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="26" t="n"/>
-      <c r="B29" s="27" t="n"/>
-      <c r="C29" s="28" t="n"/>
-      <c r="D29" s="28" t="n"/>
-      <c r="E29" s="28" t="n"/>
-      <c r="F29" s="28" t="n"/>
-      <c r="G29" s="28" t="n"/>
-      <c r="H29" s="28" t="n"/>
-      <c r="I29" s="28" t="n"/>
-      <c r="J29" s="28" t="n"/>
-      <c r="K29" s="29" t="n"/>
-      <c r="L29" s="30" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="26" t="n"/>
-      <c r="B30" s="27" t="n"/>
-      <c r="C30" s="28" t="n"/>
-      <c r="D30" s="28" t="n"/>
-      <c r="E30" s="28" t="n"/>
-      <c r="F30" s="28" t="n"/>
-      <c r="G30" s="28" t="n"/>
-      <c r="H30" s="28" t="n"/>
-      <c r="I30" s="28" t="n"/>
-      <c r="J30" s="28" t="n"/>
-      <c r="K30" s="29" t="n"/>
-      <c r="L30" s="30" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="26" t="n"/>
-      <c r="B31" s="27" t="n"/>
-      <c r="C31" s="28" t="n"/>
-      <c r="D31" s="28" t="n"/>
-      <c r="E31" s="28" t="n"/>
-      <c r="F31" s="28" t="n"/>
-      <c r="G31" s="28" t="n"/>
-      <c r="H31" s="28" t="n"/>
-      <c r="I31" s="28" t="n"/>
-      <c r="J31" s="28" t="n"/>
-      <c r="K31" s="29" t="n"/>
-      <c r="L31" s="30" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="26" t="n"/>
-      <c r="B32" s="27" t="n"/>
-      <c r="C32" s="28" t="n"/>
-      <c r="D32" s="28" t="n"/>
-      <c r="E32" s="28" t="n"/>
-      <c r="F32" s="28" t="n"/>
-      <c r="G32" s="28" t="n"/>
-      <c r="H32" s="28" t="n"/>
-      <c r="I32" s="28" t="n"/>
-      <c r="J32" s="28" t="n"/>
-      <c r="K32" s="29" t="n"/>
-      <c r="L32" s="30" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="26" t="n"/>
-      <c r="B33" s="27" t="n"/>
-      <c r="C33" s="28" t="n"/>
-      <c r="D33" s="28" t="n"/>
-      <c r="E33" s="28" t="n"/>
-      <c r="F33" s="28" t="n"/>
-      <c r="G33" s="28" t="n"/>
-      <c r="H33" s="28" t="n"/>
-      <c r="I33" s="28" t="n"/>
-      <c r="J33" s="28" t="n"/>
-      <c r="K33" s="29" t="n"/>
-      <c r="L33" s="30" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="26" t="n"/>
-      <c r="B34" s="27" t="n"/>
-      <c r="C34" s="28" t="n"/>
-      <c r="D34" s="28" t="n"/>
-      <c r="E34" s="28" t="n"/>
-      <c r="F34" s="28" t="n"/>
-      <c r="G34" s="28" t="n"/>
-      <c r="H34" s="28" t="n"/>
-      <c r="I34" s="28" t="n"/>
-      <c r="J34" s="28" t="n"/>
-      <c r="K34" s="29" t="n"/>
-      <c r="L34" s="30" t="n"/>
-    </row>
     <row r="35">
-      <c r="A35" s="26" t="n"/>
-      <c r="B35" s="27" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
-      <c r="E35" s="28" t="n"/>
-      <c r="F35" s="28" t="n"/>
-      <c r="G35" s="28" t="n"/>
-      <c r="H35" s="28" t="n"/>
-      <c r="I35" s="28" t="n"/>
-      <c r="J35" s="28" t="n"/>
-      <c r="K35" s="29" t="n"/>
-      <c r="L35" s="30" t="n"/>
+      <c r="A35" s="42" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="35" t="n"/>
+      <c r="C35" s="31" t="n"/>
+      <c r="D35" s="31" t="n"/>
+      <c r="E35" s="31" t="n"/>
+      <c r="F35" s="31" t="n"/>
+      <c r="G35" s="31" t="n"/>
+      <c r="H35" s="31" t="n"/>
+      <c r="I35" s="31" t="n"/>
+      <c r="J35" s="31" t="n"/>
+      <c r="K35" s="36" t="n"/>
+      <c r="L35" s="43" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="26" t="n"/>
-      <c r="B36" s="27" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
-      <c r="E36" s="28" t="n"/>
-      <c r="F36" s="28" t="n"/>
-      <c r="G36" s="28" t="n"/>
-      <c r="H36" s="28" t="n"/>
-      <c r="I36" s="28" t="n"/>
-      <c r="J36" s="28" t="n"/>
-      <c r="K36" s="29" t="n"/>
-      <c r="L36" s="30" t="n"/>
+      <c r="A36" s="42" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="35" t="n"/>
+      <c r="C36" s="31" t="n"/>
+      <c r="D36" s="31" t="n"/>
+      <c r="E36" s="31" t="n"/>
+      <c r="F36" s="31" t="n"/>
+      <c r="G36" s="31" t="n"/>
+      <c r="H36" s="31" t="n"/>
+      <c r="I36" s="31" t="n"/>
+      <c r="J36" s="31" t="n"/>
+      <c r="K36" s="36" t="n"/>
+      <c r="L36" s="43" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="26" t="n"/>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
-      <c r="E37" s="28" t="n"/>
-      <c r="F37" s="28" t="n"/>
-      <c r="G37" s="28" t="n"/>
-      <c r="H37" s="28" t="n"/>
-      <c r="I37" s="28" t="n"/>
-      <c r="J37" s="28" t="n"/>
-      <c r="K37" s="29" t="n"/>
-      <c r="L37" s="30" t="n"/>
+      <c r="A37" s="42" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="35" t="n"/>
+      <c r="C37" s="31" t="n"/>
+      <c r="D37" s="31" t="n"/>
+      <c r="E37" s="31" t="n"/>
+      <c r="F37" s="31" t="n"/>
+      <c r="G37" s="31" t="n"/>
+      <c r="H37" s="31" t="n"/>
+      <c r="I37" s="31" t="n"/>
+      <c r="J37" s="31" t="n"/>
+      <c r="K37" s="36" t="n"/>
+      <c r="L37" s="43" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="26" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
-      <c r="E38" s="28" t="n"/>
-      <c r="F38" s="28" t="n"/>
-      <c r="G38" s="28" t="n"/>
-      <c r="H38" s="28" t="n"/>
-      <c r="I38" s="28" t="n"/>
-      <c r="J38" s="28" t="n"/>
-      <c r="K38" s="29" t="n"/>
-      <c r="L38" s="30" t="n"/>
+      <c r="A38" s="42" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="35" t="n"/>
+      <c r="C38" s="31" t="n"/>
+      <c r="D38" s="31" t="n"/>
+      <c r="E38" s="31" t="n"/>
+      <c r="F38" s="31" t="n"/>
+      <c r="G38" s="31" t="n"/>
+      <c r="H38" s="31" t="n"/>
+      <c r="I38" s="31" t="n"/>
+      <c r="J38" s="31" t="n"/>
+      <c r="K38" s="36" t="n"/>
+      <c r="L38" s="43" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="26" t="n"/>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
-      <c r="E39" s="28" t="n"/>
-      <c r="F39" s="28" t="n"/>
-      <c r="G39" s="28" t="n"/>
-      <c r="H39" s="28" t="n"/>
-      <c r="I39" s="28" t="n"/>
-      <c r="J39" s="28" t="n"/>
-      <c r="K39" s="29" t="n"/>
-      <c r="L39" s="30" t="n"/>
+      <c r="A39" s="42" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="35" t="n"/>
+      <c r="C39" s="31" t="n"/>
+      <c r="D39" s="31" t="n"/>
+      <c r="E39" s="31" t="n"/>
+      <c r="F39" s="31" t="n"/>
+      <c r="G39" s="31" t="n"/>
+      <c r="H39" s="31" t="n"/>
+      <c r="I39" s="31" t="n"/>
+      <c r="J39" s="31" t="n"/>
+      <c r="K39" s="36" t="n"/>
+      <c r="L39" s="43" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="26" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
-      <c r="E40" s="28" t="n"/>
-      <c r="F40" s="28" t="n"/>
-      <c r="G40" s="28" t="n"/>
-      <c r="H40" s="28" t="n"/>
-      <c r="I40" s="28" t="n"/>
-      <c r="J40" s="28" t="n"/>
-      <c r="K40" s="29" t="n"/>
-      <c r="L40" s="30" t="n"/>
+      <c r="A40" s="42" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="35" t="n"/>
+      <c r="C40" s="31" t="n"/>
+      <c r="D40" s="31" t="n"/>
+      <c r="E40" s="31" t="n"/>
+      <c r="F40" s="31" t="n"/>
+      <c r="G40" s="31" t="n"/>
+      <c r="H40" s="31" t="n"/>
+      <c r="I40" s="31" t="n"/>
+      <c r="J40" s="31" t="n"/>
+      <c r="K40" s="36" t="n"/>
+      <c r="L40" s="43" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="26" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
-      <c r="E41" s="28" t="n"/>
-      <c r="F41" s="28" t="n"/>
-      <c r="G41" s="28" t="n"/>
-      <c r="H41" s="28" t="n"/>
-      <c r="I41" s="28" t="n"/>
-      <c r="J41" s="28" t="n"/>
-      <c r="K41" s="29" t="n"/>
-      <c r="L41" s="30" t="n"/>
+      <c r="A41" s="42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="35" t="n"/>
+      <c r="C41" s="31" t="n"/>
+      <c r="D41" s="31" t="n"/>
+      <c r="E41" s="31" t="n"/>
+      <c r="F41" s="31" t="n"/>
+      <c r="G41" s="31" t="n"/>
+      <c r="H41" s="31" t="n"/>
+      <c r="I41" s="31" t="n"/>
+      <c r="J41" s="31" t="n"/>
+      <c r="K41" s="36" t="n"/>
+      <c r="L41" s="43" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="26" t="n"/>
-      <c r="B42" s="27" t="n"/>
-      <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
-      <c r="E42" s="28" t="n"/>
-      <c r="F42" s="28" t="n"/>
-      <c r="G42" s="28" t="n"/>
-      <c r="H42" s="28" t="n"/>
-      <c r="I42" s="28" t="n"/>
-      <c r="J42" s="28" t="n"/>
-      <c r="K42" s="29" t="n"/>
-      <c r="L42" s="30" t="n"/>
+      <c r="A42" s="42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="35" t="n"/>
+      <c r="C42" s="31" t="n"/>
+      <c r="D42" s="31" t="n"/>
+      <c r="E42" s="31" t="n"/>
+      <c r="F42" s="31" t="n"/>
+      <c r="G42" s="31" t="n"/>
+      <c r="H42" s="31" t="n"/>
+      <c r="I42" s="31" t="n"/>
+      <c r="J42" s="31" t="n"/>
+      <c r="K42" s="36" t="n"/>
+      <c r="L42" s="43" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="26" t="n"/>
-      <c r="B43" s="27" t="n"/>
-      <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
-      <c r="E43" s="28" t="n"/>
-      <c r="F43" s="28" t="n"/>
-      <c r="G43" s="28" t="n"/>
-      <c r="H43" s="28" t="n"/>
-      <c r="I43" s="28" t="n"/>
-      <c r="J43" s="28" t="n"/>
-      <c r="K43" s="29" t="n"/>
-      <c r="L43" s="30" t="n"/>
+      <c r="A43" s="42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="35" t="n"/>
+      <c r="C43" s="31" t="n"/>
+      <c r="D43" s="31" t="n"/>
+      <c r="E43" s="31" t="n"/>
+      <c r="F43" s="31" t="n"/>
+      <c r="G43" s="31" t="n"/>
+      <c r="H43" s="31" t="n"/>
+      <c r="I43" s="31" t="n"/>
+      <c r="J43" s="31" t="n"/>
+      <c r="K43" s="36" t="n"/>
+      <c r="L43" s="43" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="26" t="n"/>
-      <c r="B44" s="27" t="n"/>
-      <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
-      <c r="E44" s="28" t="n"/>
-      <c r="F44" s="28" t="n"/>
-      <c r="G44" s="28" t="n"/>
-      <c r="H44" s="28" t="n"/>
-      <c r="I44" s="28" t="n"/>
-      <c r="J44" s="28" t="n"/>
-      <c r="K44" s="29" t="n"/>
-      <c r="L44" s="30" t="n"/>
+      <c r="A44" s="42" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="35" t="n"/>
+      <c r="C44" s="31" t="n"/>
+      <c r="D44" s="31" t="n"/>
+      <c r="E44" s="31" t="n"/>
+      <c r="F44" s="31" t="n"/>
+      <c r="G44" s="31" t="n"/>
+      <c r="H44" s="31" t="n"/>
+      <c r="I44" s="31" t="n"/>
+      <c r="J44" s="31" t="n"/>
+      <c r="K44" s="36" t="n"/>
+      <c r="L44" s="43" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="26" t="n"/>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
-      <c r="E45" s="28" t="n"/>
-      <c r="F45" s="28" t="n"/>
-      <c r="G45" s="28" t="n"/>
-      <c r="H45" s="28" t="n"/>
-      <c r="I45" s="28" t="n"/>
-      <c r="J45" s="28" t="n"/>
-      <c r="K45" s="29" t="n"/>
-      <c r="L45" s="30" t="n"/>
+      <c r="A45" s="42" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="35" t="n"/>
+      <c r="C45" s="31" t="n"/>
+      <c r="D45" s="31" t="n"/>
+      <c r="E45" s="31" t="n"/>
+      <c r="F45" s="31" t="n"/>
+      <c r="G45" s="31" t="n"/>
+      <c r="H45" s="31" t="n"/>
+      <c r="I45" s="31" t="n"/>
+      <c r="J45" s="31" t="n"/>
+      <c r="K45" s="36" t="n"/>
+      <c r="L45" s="43" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="26" t="n"/>
-      <c r="B46" s="27" t="n"/>
-      <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="n"/>
-      <c r="E46" s="28" t="n"/>
-      <c r="F46" s="28" t="n"/>
-      <c r="G46" s="28" t="n"/>
-      <c r="H46" s="28" t="n"/>
-      <c r="I46" s="28" t="n"/>
-      <c r="J46" s="28" t="n"/>
-      <c r="K46" s="29" t="n"/>
-      <c r="L46" s="30" t="n"/>
+      <c r="A46" s="42" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="35" t="n"/>
+      <c r="C46" s="31" t="n"/>
+      <c r="D46" s="31" t="n"/>
+      <c r="E46" s="31" t="n"/>
+      <c r="F46" s="31" t="n"/>
+      <c r="G46" s="31" t="n"/>
+      <c r="H46" s="31" t="n"/>
+      <c r="I46" s="31" t="n"/>
+      <c r="J46" s="31" t="n"/>
+      <c r="K46" s="36" t="n"/>
+      <c r="L46" s="43" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="26" t="n"/>
-      <c r="B47" s="27" t="n"/>
-      <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="n"/>
-      <c r="E47" s="28" t="n"/>
-      <c r="F47" s="28" t="n"/>
-      <c r="G47" s="28" t="n"/>
-      <c r="H47" s="28" t="n"/>
-      <c r="I47" s="28" t="n"/>
-      <c r="J47" s="28" t="n"/>
-      <c r="K47" s="29" t="n"/>
-      <c r="L47" s="30" t="n"/>
+      <c r="A47" s="42" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="35" t="n"/>
+      <c r="C47" s="31" t="n"/>
+      <c r="D47" s="31" t="n"/>
+      <c r="E47" s="31" t="n"/>
+      <c r="F47" s="31" t="n"/>
+      <c r="G47" s="31" t="n"/>
+      <c r="H47" s="31" t="n"/>
+      <c r="I47" s="31" t="n"/>
+      <c r="J47" s="31" t="n"/>
+      <c r="K47" s="36" t="n"/>
+      <c r="L47" s="43" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="26" t="n"/>
-      <c r="B48" s="27" t="n"/>
-      <c r="C48" s="28" t="n"/>
-      <c r="D48" s="28" t="n"/>
-      <c r="E48" s="28" t="n"/>
-      <c r="F48" s="28" t="n"/>
-      <c r="G48" s="28" t="n"/>
-      <c r="H48" s="28" t="n"/>
-      <c r="I48" s="28" t="n"/>
-      <c r="J48" s="28" t="n"/>
-      <c r="K48" s="29" t="n"/>
-      <c r="L48" s="30" t="n"/>
+      <c r="A48" s="42" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="35" t="n"/>
+      <c r="C48" s="31" t="n"/>
+      <c r="D48" s="31" t="n"/>
+      <c r="E48" s="31" t="n"/>
+      <c r="F48" s="31" t="n"/>
+      <c r="G48" s="31" t="n"/>
+      <c r="H48" s="31" t="n"/>
+      <c r="I48" s="31" t="n"/>
+      <c r="J48" s="31" t="n"/>
+      <c r="K48" s="36" t="n"/>
+      <c r="L48" s="43" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="26" t="n"/>
-      <c r="B49" s="27" t="n"/>
-      <c r="C49" s="28" t="n"/>
-      <c r="D49" s="28" t="n"/>
-      <c r="E49" s="28" t="n"/>
-      <c r="F49" s="28" t="n"/>
-      <c r="G49" s="28" t="n"/>
-      <c r="H49" s="28" t="n"/>
-      <c r="I49" s="28" t="n"/>
-      <c r="J49" s="28" t="n"/>
-      <c r="K49" s="29" t="n"/>
-      <c r="L49" s="30" t="n"/>
+      <c r="A49" s="42" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="35" t="n"/>
+      <c r="C49" s="31" t="n"/>
+      <c r="D49" s="31" t="n"/>
+      <c r="E49" s="31" t="n"/>
+      <c r="F49" s="31" t="n"/>
+      <c r="G49" s="31" t="n"/>
+      <c r="H49" s="31" t="n"/>
+      <c r="I49" s="31" t="n"/>
+      <c r="J49" s="31" t="n"/>
+      <c r="K49" s="36" t="n"/>
+      <c r="L49" s="43" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="26" t="n"/>
-      <c r="B50" s="27" t="n"/>
-      <c r="C50" s="28" t="n"/>
-      <c r="D50" s="28" t="n"/>
-      <c r="E50" s="28" t="n"/>
-      <c r="F50" s="28" t="n"/>
-      <c r="G50" s="28" t="n"/>
-      <c r="H50" s="28" t="n"/>
-      <c r="I50" s="28" t="n"/>
-      <c r="J50" s="28" t="n"/>
-      <c r="K50" s="29" t="n"/>
-      <c r="L50" s="30" t="n"/>
+      <c r="A50" s="42" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="35" t="n"/>
+      <c r="C50" s="31" t="n"/>
+      <c r="D50" s="31" t="n"/>
+      <c r="E50" s="31" t="n"/>
+      <c r="F50" s="31" t="n"/>
+      <c r="G50" s="31" t="n"/>
+      <c r="H50" s="31" t="n"/>
+      <c r="I50" s="31" t="n"/>
+      <c r="J50" s="31" t="n"/>
+      <c r="K50" s="36" t="n"/>
+      <c r="L50" s="43" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="26" t="n"/>
-      <c r="B51" s="27" t="n"/>
-      <c r="C51" s="28" t="n"/>
-      <c r="D51" s="28" t="n"/>
-      <c r="E51" s="28" t="n"/>
-      <c r="F51" s="28" t="n"/>
-      <c r="G51" s="28" t="n"/>
-      <c r="H51" s="28" t="n"/>
-      <c r="I51" s="28" t="n"/>
-      <c r="J51" s="28" t="n"/>
-      <c r="K51" s="29" t="n"/>
-      <c r="L51" s="30" t="n"/>
+      <c r="A51" s="42" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="35" t="n"/>
+      <c r="C51" s="31" t="n"/>
+      <c r="D51" s="31" t="n"/>
+      <c r="E51" s="31" t="n"/>
+      <c r="F51" s="31" t="n"/>
+      <c r="G51" s="31" t="n"/>
+      <c r="H51" s="31" t="n"/>
+      <c r="I51" s="31" t="n"/>
+      <c r="J51" s="31" t="n"/>
+      <c r="K51" s="36" t="n"/>
+      <c r="L51" s="43" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="26" t="n"/>
-      <c r="B52" s="27" t="n"/>
-      <c r="C52" s="28" t="n"/>
-      <c r="D52" s="28" t="n"/>
-      <c r="E52" s="28" t="n"/>
-      <c r="F52" s="28" t="n"/>
-      <c r="G52" s="28" t="n"/>
-      <c r="H52" s="28" t="n"/>
-      <c r="I52" s="28" t="n"/>
-      <c r="J52" s="28" t="n"/>
-      <c r="K52" s="29" t="n"/>
-      <c r="L52" s="30" t="n"/>
+      <c r="A52" s="42" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="35" t="n"/>
+      <c r="C52" s="31" t="n"/>
+      <c r="D52" s="31" t="n"/>
+      <c r="E52" s="31" t="n"/>
+      <c r="F52" s="31" t="n"/>
+      <c r="G52" s="31" t="n"/>
+      <c r="H52" s="31" t="n"/>
+      <c r="I52" s="31" t="n"/>
+      <c r="J52" s="31" t="n"/>
+      <c r="K52" s="36" t="n"/>
+      <c r="L52" s="43" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="26" t="n"/>
-      <c r="B53" s="27" t="n"/>
-      <c r="C53" s="28" t="n"/>
-      <c r="D53" s="28" t="n"/>
-      <c r="E53" s="28" t="n"/>
-      <c r="F53" s="28" t="n"/>
-      <c r="G53" s="28" t="n"/>
-      <c r="H53" s="28" t="n"/>
-      <c r="I53" s="28" t="n"/>
-      <c r="J53" s="28" t="n"/>
-      <c r="K53" s="29" t="n"/>
-      <c r="L53" s="30" t="n"/>
+      <c r="A53" s="42" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="35" t="n"/>
+      <c r="C53" s="31" t="n"/>
+      <c r="D53" s="31" t="n"/>
+      <c r="E53" s="31" t="n"/>
+      <c r="F53" s="31" t="n"/>
+      <c r="G53" s="31" t="n"/>
+      <c r="H53" s="31" t="n"/>
+      <c r="I53" s="31" t="n"/>
+      <c r="J53" s="31" t="n"/>
+      <c r="K53" s="36" t="n"/>
+      <c r="L53" s="43" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="26" t="n"/>
-      <c r="B54" s="27" t="n"/>
-      <c r="C54" s="28" t="n"/>
-      <c r="D54" s="28" t="n"/>
-      <c r="E54" s="28" t="n"/>
-      <c r="F54" s="28" t="n"/>
-      <c r="G54" s="28" t="n"/>
-      <c r="H54" s="28" t="n"/>
-      <c r="I54" s="28" t="n"/>
-      <c r="J54" s="28" t="n"/>
-      <c r="K54" s="29" t="n"/>
-      <c r="L54" s="30" t="n"/>
+      <c r="A54" s="42" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="35" t="n"/>
+      <c r="C54" s="31" t="n"/>
+      <c r="D54" s="31" t="n"/>
+      <c r="E54" s="31" t="n"/>
+      <c r="F54" s="31" t="n"/>
+      <c r="G54" s="31" t="n"/>
+      <c r="H54" s="31" t="n"/>
+      <c r="I54" s="31" t="n"/>
+      <c r="J54" s="31" t="n"/>
+      <c r="K54" s="36" t="n"/>
+      <c r="L54" s="43" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="26" t="n"/>
-      <c r="B55" s="27" t="n"/>
-      <c r="C55" s="28" t="n"/>
-      <c r="D55" s="28" t="n"/>
-      <c r="E55" s="28" t="n"/>
-      <c r="F55" s="28" t="n"/>
-      <c r="G55" s="28" t="n"/>
-      <c r="H55" s="28" t="n"/>
-      <c r="I55" s="28" t="n"/>
-      <c r="J55" s="28" t="n"/>
-      <c r="K55" s="29" t="n"/>
-      <c r="L55" s="30" t="n"/>
+      <c r="A55" s="42" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="35" t="n"/>
+      <c r="C55" s="31" t="n"/>
+      <c r="D55" s="31" t="n"/>
+      <c r="E55" s="31" t="n"/>
+      <c r="F55" s="31" t="n"/>
+      <c r="G55" s="31" t="n"/>
+      <c r="H55" s="31" t="n"/>
+      <c r="I55" s="31" t="n"/>
+      <c r="J55" s="31" t="n"/>
+      <c r="K55" s="36" t="n"/>
+      <c r="L55" s="43" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="26" t="n"/>
-      <c r="B56" s="27" t="n"/>
-      <c r="C56" s="28" t="n"/>
-      <c r="D56" s="28" t="n"/>
-      <c r="E56" s="28" t="n"/>
-      <c r="F56" s="28" t="n"/>
-      <c r="G56" s="28" t="n"/>
-      <c r="H56" s="28" t="n"/>
-      <c r="I56" s="28" t="n"/>
-      <c r="J56" s="28" t="n"/>
-      <c r="K56" s="29" t="n"/>
-      <c r="L56" s="30" t="n"/>
+      <c r="A56" s="42" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="35" t="n"/>
+      <c r="C56" s="31" t="n"/>
+      <c r="D56" s="31" t="n"/>
+      <c r="E56" s="31" t="n"/>
+      <c r="F56" s="31" t="n"/>
+      <c r="G56" s="31" t="n"/>
+      <c r="H56" s="31" t="n"/>
+      <c r="I56" s="31" t="n"/>
+      <c r="J56" s="31" t="n"/>
+      <c r="K56" s="36" t="n"/>
+      <c r="L56" s="43" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="26" t="n"/>
-      <c r="B57" s="27" t="n"/>
-      <c r="C57" s="28" t="n"/>
-      <c r="D57" s="28" t="n"/>
-      <c r="E57" s="28" t="n"/>
-      <c r="F57" s="28" t="n"/>
-      <c r="G57" s="28" t="n"/>
-      <c r="H57" s="28" t="n"/>
-      <c r="I57" s="28" t="n"/>
-      <c r="J57" s="28" t="n"/>
-      <c r="K57" s="29" t="n"/>
-      <c r="L57" s="30" t="n"/>
+      <c r="A57" s="42" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="35" t="n"/>
+      <c r="C57" s="31" t="n"/>
+      <c r="D57" s="31" t="n"/>
+      <c r="E57" s="31" t="n"/>
+      <c r="F57" s="31" t="n"/>
+      <c r="G57" s="31" t="n"/>
+      <c r="H57" s="31" t="n"/>
+      <c r="I57" s="31" t="n"/>
+      <c r="J57" s="31" t="n"/>
+      <c r="K57" s="36" t="n"/>
+      <c r="L57" s="43" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="26" t="n"/>
-      <c r="B58" s="27" t="n"/>
-      <c r="C58" s="28" t="n"/>
-      <c r="D58" s="28" t="n"/>
-      <c r="E58" s="28" t="n"/>
-      <c r="F58" s="28" t="n"/>
-      <c r="G58" s="28" t="n"/>
-      <c r="H58" s="28" t="n"/>
-      <c r="I58" s="28" t="n"/>
-      <c r="J58" s="28" t="n"/>
-      <c r="K58" s="29" t="n"/>
-      <c r="L58" s="30" t="n"/>
+      <c r="A58" s="42" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="35" t="n"/>
+      <c r="C58" s="31" t="n"/>
+      <c r="D58" s="31" t="n"/>
+      <c r="E58" s="31" t="n"/>
+      <c r="F58" s="31" t="n"/>
+      <c r="G58" s="31" t="n"/>
+      <c r="H58" s="31" t="n"/>
+      <c r="I58" s="31" t="n"/>
+      <c r="J58" s="31" t="n"/>
+      <c r="K58" s="36" t="n"/>
+      <c r="L58" s="43" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="26" t="n"/>
-      <c r="B59" s="27" t="n"/>
-      <c r="C59" s="28" t="n"/>
-      <c r="D59" s="28" t="n"/>
-      <c r="E59" s="28" t="n"/>
-      <c r="F59" s="28" t="n"/>
-      <c r="G59" s="28" t="n"/>
-      <c r="H59" s="28" t="n"/>
-      <c r="I59" s="28" t="n"/>
-      <c r="J59" s="28" t="n"/>
-      <c r="K59" s="29" t="n"/>
-      <c r="L59" s="30" t="n"/>
+      <c r="A59" s="42" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="35" t="n"/>
+      <c r="C59" s="31" t="n"/>
+      <c r="D59" s="31" t="n"/>
+      <c r="E59" s="31" t="n"/>
+      <c r="F59" s="31" t="n"/>
+      <c r="G59" s="31" t="n"/>
+      <c r="H59" s="31" t="n"/>
+      <c r="I59" s="31" t="n"/>
+      <c r="J59" s="31" t="n"/>
+      <c r="K59" s="36" t="n"/>
+      <c r="L59" s="43" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="26" t="n"/>
-      <c r="B60" s="27" t="n"/>
-      <c r="C60" s="28" t="n"/>
-      <c r="D60" s="28" t="n"/>
-      <c r="E60" s="28" t="n"/>
-      <c r="F60" s="28" t="n"/>
-      <c r="G60" s="28" t="n"/>
-      <c r="H60" s="28" t="n"/>
-      <c r="I60" s="28" t="n"/>
-      <c r="J60" s="28" t="n"/>
-      <c r="K60" s="29" t="n"/>
-      <c r="L60" s="30" t="n"/>
+      <c r="A60" s="42" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="35" t="n"/>
+      <c r="C60" s="31" t="n"/>
+      <c r="D60" s="31" t="n"/>
+      <c r="E60" s="31" t="n"/>
+      <c r="F60" s="31" t="n"/>
+      <c r="G60" s="31" t="n"/>
+      <c r="H60" s="31" t="n"/>
+      <c r="I60" s="31" t="n"/>
+      <c r="J60" s="31" t="n"/>
+      <c r="K60" s="36" t="n"/>
+      <c r="L60" s="43" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="26" t="n"/>
-      <c r="B61" s="27" t="n"/>
-      <c r="C61" s="28" t="n"/>
-      <c r="D61" s="28" t="n"/>
-      <c r="E61" s="28" t="n"/>
-      <c r="F61" s="28" t="n"/>
-      <c r="G61" s="28" t="n"/>
-      <c r="H61" s="28" t="n"/>
-      <c r="I61" s="28" t="n"/>
-      <c r="J61" s="28" t="n"/>
-      <c r="K61" s="29" t="n"/>
-      <c r="L61" s="30" t="n"/>
+      <c r="A61" s="42" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="35" t="n"/>
+      <c r="C61" s="31" t="n"/>
+      <c r="D61" s="31" t="n"/>
+      <c r="E61" s="31" t="n"/>
+      <c r="F61" s="31" t="n"/>
+      <c r="G61" s="31" t="n"/>
+      <c r="H61" s="31" t="n"/>
+      <c r="I61" s="31" t="n"/>
+      <c r="J61" s="31" t="n"/>
+      <c r="K61" s="36" t="n"/>
+      <c r="L61" s="43" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="26" t="n"/>
-      <c r="B62" s="27" t="n"/>
-      <c r="C62" s="28" t="n"/>
-      <c r="D62" s="28" t="n"/>
-      <c r="E62" s="28" t="n"/>
-      <c r="F62" s="28" t="n"/>
-      <c r="G62" s="28" t="n"/>
-      <c r="H62" s="28" t="n"/>
-      <c r="I62" s="28" t="n"/>
-      <c r="J62" s="28" t="n"/>
-      <c r="K62" s="29" t="n"/>
-      <c r="L62" s="30" t="n"/>
+      <c r="A62" s="42" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="35" t="n"/>
+      <c r="C62" s="31" t="n"/>
+      <c r="D62" s="31" t="n"/>
+      <c r="E62" s="31" t="n"/>
+      <c r="F62" s="31" t="n"/>
+      <c r="G62" s="31" t="n"/>
+      <c r="H62" s="31" t="n"/>
+      <c r="I62" s="31" t="n"/>
+      <c r="J62" s="31" t="n"/>
+      <c r="K62" s="36" t="n"/>
+      <c r="L62" s="43" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="26" t="n"/>
-      <c r="B63" s="27" t="n"/>
-      <c r="C63" s="28" t="n"/>
-      <c r="D63" s="28" t="n"/>
-      <c r="E63" s="28" t="n"/>
-      <c r="F63" s="28" t="n"/>
-      <c r="G63" s="28" t="n"/>
-      <c r="H63" s="28" t="n"/>
-      <c r="I63" s="28" t="n"/>
-      <c r="J63" s="28" t="n"/>
-      <c r="K63" s="29" t="n"/>
-      <c r="L63" s="30" t="n"/>
+      <c r="A63" s="42" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="35" t="n"/>
+      <c r="C63" s="31" t="n"/>
+      <c r="D63" s="31" t="n"/>
+      <c r="E63" s="31" t="n"/>
+      <c r="F63" s="31" t="n"/>
+      <c r="G63" s="31" t="n"/>
+      <c r="H63" s="31" t="n"/>
+      <c r="I63" s="31" t="n"/>
+      <c r="J63" s="31" t="n"/>
+      <c r="K63" s="36" t="n"/>
+      <c r="L63" s="43" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="26" t="n"/>
-      <c r="B64" s="27" t="n"/>
-      <c r="C64" s="28" t="n"/>
-      <c r="D64" s="28" t="n"/>
-      <c r="E64" s="28" t="n"/>
-      <c r="F64" s="28" t="n"/>
-      <c r="G64" s="28" t="n"/>
-      <c r="H64" s="28" t="n"/>
-      <c r="I64" s="28" t="n"/>
-      <c r="J64" s="28" t="n"/>
-      <c r="K64" s="29" t="n"/>
-      <c r="L64" s="30" t="n"/>
+      <c r="A64" s="42" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="35" t="n"/>
+      <c r="C64" s="31" t="n"/>
+      <c r="D64" s="31" t="n"/>
+      <c r="E64" s="31" t="n"/>
+      <c r="F64" s="31" t="n"/>
+      <c r="G64" s="31" t="n"/>
+      <c r="H64" s="31" t="n"/>
+      <c r="I64" s="31" t="n"/>
+      <c r="J64" s="31" t="n"/>
+      <c r="K64" s="36" t="n"/>
+      <c r="L64" s="43" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="26" t="n"/>
-      <c r="B65" s="27" t="n"/>
-      <c r="C65" s="28" t="n"/>
-      <c r="D65" s="28" t="n"/>
-      <c r="E65" s="28" t="n"/>
-      <c r="F65" s="28" t="n"/>
-      <c r="G65" s="28" t="n"/>
-      <c r="H65" s="28" t="n"/>
-      <c r="I65" s="28" t="n"/>
-      <c r="J65" s="28" t="n"/>
-      <c r="K65" s="29" t="n"/>
-      <c r="L65" s="30" t="n"/>
+      <c r="A65" s="42" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="35" t="n"/>
+      <c r="C65" s="31" t="n"/>
+      <c r="D65" s="31" t="n"/>
+      <c r="E65" s="31" t="n"/>
+      <c r="F65" s="31" t="n"/>
+      <c r="G65" s="31" t="n"/>
+      <c r="H65" s="31" t="n"/>
+      <c r="I65" s="31" t="n"/>
+      <c r="J65" s="31" t="n"/>
+      <c r="K65" s="36" t="n"/>
+      <c r="L65" s="43" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="26" t="n"/>
-      <c r="B66" s="27" t="n"/>
-      <c r="C66" s="28" t="n"/>
-      <c r="D66" s="28" t="n"/>
-      <c r="E66" s="28" t="n"/>
-      <c r="F66" s="28" t="n"/>
-      <c r="G66" s="28" t="n"/>
-      <c r="H66" s="28" t="n"/>
-      <c r="I66" s="28" t="n"/>
-      <c r="J66" s="28" t="n"/>
-      <c r="K66" s="29" t="n"/>
-      <c r="L66" s="30" t="n"/>
+      <c r="A66" s="42" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="35" t="n"/>
+      <c r="C66" s="31" t="n"/>
+      <c r="D66" s="31" t="n"/>
+      <c r="E66" s="31" t="n"/>
+      <c r="F66" s="31" t="n"/>
+      <c r="G66" s="31" t="n"/>
+      <c r="H66" s="31" t="n"/>
+      <c r="I66" s="31" t="n"/>
+      <c r="J66" s="31" t="n"/>
+      <c r="K66" s="36" t="n"/>
+      <c r="L66" s="43" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="26" t="n"/>
-      <c r="B67" s="27" t="n"/>
-      <c r="C67" s="28" t="n"/>
-      <c r="D67" s="28" t="n"/>
-      <c r="E67" s="28" t="n"/>
-      <c r="F67" s="28" t="n"/>
-      <c r="G67" s="28" t="n"/>
-      <c r="H67" s="28" t="n"/>
-      <c r="I67" s="28" t="n"/>
-      <c r="J67" s="28" t="n"/>
-      <c r="K67" s="29" t="n"/>
-      <c r="L67" s="30" t="n"/>
+      <c r="A67" s="42" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="35" t="n"/>
+      <c r="C67" s="31" t="n"/>
+      <c r="D67" s="31" t="n"/>
+      <c r="E67" s="31" t="n"/>
+      <c r="F67" s="31" t="n"/>
+      <c r="G67" s="31" t="n"/>
+      <c r="H67" s="31" t="n"/>
+      <c r="I67" s="31" t="n"/>
+      <c r="J67" s="31" t="n"/>
+      <c r="K67" s="36" t="n"/>
+      <c r="L67" s="43" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="26" t="n"/>
-      <c r="B68" s="27" t="n"/>
-      <c r="C68" s="28" t="n"/>
-      <c r="D68" s="28" t="n"/>
-      <c r="E68" s="28" t="n"/>
-      <c r="F68" s="28" t="n"/>
-      <c r="G68" s="28" t="n"/>
-      <c r="H68" s="28" t="n"/>
-      <c r="I68" s="28" t="n"/>
-      <c r="J68" s="28" t="n"/>
-      <c r="K68" s="29" t="n"/>
-      <c r="L68" s="30" t="n"/>
+      <c r="A68" s="42" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="35" t="n"/>
+      <c r="C68" s="31" t="n"/>
+      <c r="D68" s="31" t="n"/>
+      <c r="E68" s="31" t="n"/>
+      <c r="F68" s="31" t="n"/>
+      <c r="G68" s="31" t="n"/>
+      <c r="H68" s="31" t="n"/>
+      <c r="I68" s="31" t="n"/>
+      <c r="J68" s="31" t="n"/>
+      <c r="K68" s="36" t="n"/>
+      <c r="L68" s="43" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="26" t="n"/>
-      <c r="B69" s="27" t="n"/>
-      <c r="C69" s="28" t="n"/>
-      <c r="D69" s="28" t="n"/>
-      <c r="E69" s="28" t="n"/>
-      <c r="F69" s="28" t="n"/>
-      <c r="G69" s="28" t="n"/>
-      <c r="H69" s="28" t="n"/>
-      <c r="I69" s="28" t="n"/>
-      <c r="J69" s="28" t="n"/>
-      <c r="K69" s="29" t="n"/>
-      <c r="L69" s="30" t="n"/>
+      <c r="A69" s="42" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="35" t="n"/>
+      <c r="C69" s="31" t="n"/>
+      <c r="D69" s="31" t="n"/>
+      <c r="E69" s="31" t="n"/>
+      <c r="F69" s="31" t="n"/>
+      <c r="G69" s="31" t="n"/>
+      <c r="H69" s="31" t="n"/>
+      <c r="I69" s="31" t="n"/>
+      <c r="J69" s="31" t="n"/>
+      <c r="K69" s="36" t="n"/>
+      <c r="L69" s="43" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="26" t="n"/>
-      <c r="B70" s="27" t="n"/>
-      <c r="C70" s="28" t="n"/>
-      <c r="D70" s="28" t="n"/>
-      <c r="E70" s="28" t="n"/>
-      <c r="F70" s="28" t="n"/>
-      <c r="G70" s="28" t="n"/>
-      <c r="H70" s="28" t="n"/>
-      <c r="I70" s="28" t="n"/>
-      <c r="J70" s="28" t="n"/>
-      <c r="K70" s="29" t="n"/>
-      <c r="L70" s="30" t="n"/>
+      <c r="A70" s="42" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="35" t="n"/>
+      <c r="C70" s="31" t="n"/>
+      <c r="D70" s="31" t="n"/>
+      <c r="E70" s="31" t="n"/>
+      <c r="F70" s="31" t="n"/>
+      <c r="G70" s="31" t="n"/>
+      <c r="H70" s="31" t="n"/>
+      <c r="I70" s="31" t="n"/>
+      <c r="J70" s="31" t="n"/>
+      <c r="K70" s="36" t="n"/>
+      <c r="L70" s="43" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="26" t="n"/>
-      <c r="B71" s="27" t="n"/>
-      <c r="C71" s="28" t="n"/>
-      <c r="D71" s="28" t="n"/>
-      <c r="E71" s="28" t="n"/>
-      <c r="F71" s="28" t="n"/>
-      <c r="G71" s="28" t="n"/>
-      <c r="H71" s="28" t="n"/>
-      <c r="I71" s="28" t="n"/>
-      <c r="J71" s="28" t="n"/>
-      <c r="K71" s="29" t="n"/>
-      <c r="L71" s="30" t="n"/>
+      <c r="A71" s="42" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="35" t="n"/>
+      <c r="C71" s="31" t="n"/>
+      <c r="D71" s="31" t="n"/>
+      <c r="E71" s="31" t="n"/>
+      <c r="F71" s="31" t="n"/>
+      <c r="G71" s="31" t="n"/>
+      <c r="H71" s="31" t="n"/>
+      <c r="I71" s="31" t="n"/>
+      <c r="J71" s="31" t="n"/>
+      <c r="K71" s="36" t="n"/>
+      <c r="L71" s="43" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="26" t="n"/>
-      <c r="B72" s="27" t="n"/>
-      <c r="C72" s="28" t="n"/>
-      <c r="D72" s="28" t="n"/>
-      <c r="E72" s="28" t="n"/>
-      <c r="F72" s="28" t="n"/>
-      <c r="G72" s="28" t="n"/>
-      <c r="H72" s="28" t="n"/>
-      <c r="I72" s="28" t="n"/>
-      <c r="J72" s="28" t="n"/>
-      <c r="K72" s="29" t="n"/>
-      <c r="L72" s="30" t="n"/>
+      <c r="A72" s="42" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="35" t="n"/>
+      <c r="C72" s="31" t="n"/>
+      <c r="D72" s="31" t="n"/>
+      <c r="E72" s="31" t="n"/>
+      <c r="F72" s="31" t="n"/>
+      <c r="G72" s="31" t="n"/>
+      <c r="H72" s="31" t="n"/>
+      <c r="I72" s="31" t="n"/>
+      <c r="J72" s="31" t="n"/>
+      <c r="K72" s="36" t="n"/>
+      <c r="L72" s="43" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="26" t="n"/>
-      <c r="B73" s="27" t="n"/>
-      <c r="C73" s="28" t="n"/>
-      <c r="D73" s="28" t="n"/>
-      <c r="E73" s="28" t="n"/>
-      <c r="F73" s="28" t="n"/>
-      <c r="G73" s="28" t="n"/>
-      <c r="H73" s="28" t="n"/>
-      <c r="I73" s="28" t="n"/>
-      <c r="J73" s="28" t="n"/>
-      <c r="K73" s="29" t="n"/>
-      <c r="L73" s="30" t="n"/>
+      <c r="A73" s="42" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="35" t="n"/>
+      <c r="C73" s="31" t="n"/>
+      <c r="D73" s="31" t="n"/>
+      <c r="E73" s="31" t="n"/>
+      <c r="F73" s="31" t="n"/>
+      <c r="G73" s="31" t="n"/>
+      <c r="H73" s="31" t="n"/>
+      <c r="I73" s="31" t="n"/>
+      <c r="J73" s="31" t="n"/>
+      <c r="K73" s="36" t="n"/>
+      <c r="L73" s="43" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="26" t="n"/>
-      <c r="B74" s="27" t="n"/>
-      <c r="C74" s="28" t="n"/>
-      <c r="D74" s="28" t="n"/>
-      <c r="E74" s="28" t="n"/>
-      <c r="F74" s="28" t="n"/>
-      <c r="G74" s="28" t="n"/>
-      <c r="H74" s="28" t="n"/>
-      <c r="I74" s="28" t="n"/>
-      <c r="J74" s="28" t="n"/>
-      <c r="K74" s="29" t="n"/>
-      <c r="L74" s="30" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="31" t="n"/>
-      <c r="B75" s="32" t="n"/>
-      <c r="C75" s="33" t="n"/>
-      <c r="D75" s="33" t="n"/>
-      <c r="E75" s="33" t="n"/>
-      <c r="F75" s="33" t="n"/>
-      <c r="G75" s="33" t="n"/>
-      <c r="H75" s="33" t="n"/>
-      <c r="I75" s="33" t="n"/>
-      <c r="J75" s="33" t="n"/>
-      <c r="K75" s="34" t="n"/>
-      <c r="L75" s="35" t="n"/>
+      <c r="A74" s="42" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="35" t="n"/>
+      <c r="C74" s="31" t="n"/>
+      <c r="D74" s="31" t="n"/>
+      <c r="E74" s="31" t="n"/>
+      <c r="F74" s="31" t="n"/>
+      <c r="G74" s="31" t="n"/>
+      <c r="H74" s="31" t="n"/>
+      <c r="I74" s="31" t="n"/>
+      <c r="J74" s="31" t="n"/>
+      <c r="K74" s="36" t="n"/>
+      <c r="L74" s="43" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4525,26 +6262,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="25" min="1" max="1"/>
-    <col width="47.7109375" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
-    <col width="10" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
-    <col width="21.7109375" bestFit="1" customWidth="1" style="25" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" style="25" min="6" max="6"/>
-    <col width="24.42578125" bestFit="1" customWidth="1" style="25" min="15" max="15"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" style="25" min="16" max="16"/>
-    <col width="10.85546875" bestFit="1" customWidth="1" style="25" min="17" max="17"/>
-    <col width="17.28515625" bestFit="1" customWidth="1" style="25" min="21" max="21"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" style="25" min="22" max="22"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" style="25" min="23" max="23"/>
-    <col width="11.140625" bestFit="1" customWidth="1" style="25" min="24" max="24"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" style="25" min="25" max="25"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" style="25" min="26" max="26"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" style="25" min="27" max="27"/>
-    <col width="11.85546875" bestFit="1" customWidth="1" style="25" min="28" max="28"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" style="25" min="29" max="29"/>
-    <col width="13.28515625" bestFit="1" customWidth="1" style="25" min="30" max="30"/>
-    <col width="13.140625" bestFit="1" customWidth="1" style="25" min="31" max="31"/>
+    <col width="9.140625" customWidth="1" style="41" min="1" max="1"/>
+    <col width="47.7109375" bestFit="1" customWidth="1" style="41" min="2" max="2"/>
+    <col width="10" bestFit="1" customWidth="1" style="41" min="3" max="3"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="41" min="4" max="4"/>
+    <col width="21.7109375" bestFit="1" customWidth="1" style="41" min="5" max="5"/>
+    <col width="22" bestFit="1" customWidth="1" style="41" min="6" max="6"/>
+    <col width="24.42578125" bestFit="1" customWidth="1" style="41" min="15" max="15"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="41" min="16" max="16"/>
+    <col width="10.85546875" bestFit="1" customWidth="1" style="41" min="17" max="17"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" style="41" min="21" max="21"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="41" min="22" max="22"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="41" min="23" max="23"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="41" min="24" max="24"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="41" min="25" max="25"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" style="41" min="26" max="26"/>
+    <col width="12.42578125" bestFit="1" customWidth="1" style="41" min="27" max="27"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" style="41" min="28" max="28"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" style="41" min="29" max="29"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" style="41" min="30" max="30"/>
+    <col width="13.140625" bestFit="1" customWidth="1" style="41" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4639,7 +6376,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" s="25" thickBot="1">
+    <row r="2" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A2" s="24" t="inlineStr">
         <is>
           <t>DHGUL10</t>
@@ -4649,7 +6386,7 @@
         <f>""&amp;A2</f>
         <v/>
       </c>
-      <c r="C2" s="36" t="n">
+      <c r="C2" s="44" t="n">
         <v>44016</v>
       </c>
       <c r="D2" s="7" t="n">
@@ -4735,7 +6472,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="25" thickBot="1">
+    <row r="3" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A3" s="24" t="inlineStr">
         <is>
           <t>DHGUL74</t>
@@ -4745,7 +6482,7 @@
         <f>B2&amp;","&amp;A3</f>
         <v/>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="45" t="n"/>
       <c r="D3" s="7" t="n">
         <v>0.4583333333333333</v>
       </c>
@@ -4793,7 +6530,7 @@
       <c r="AD3" s="14" t="n"/>
       <c r="AE3" s="14" t="n"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="25" thickBot="1">
+    <row r="4" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A4" s="24" t="inlineStr">
         <is>
           <t>DHGUL76</t>
@@ -4803,7 +6540,7 @@
         <f>B3&amp;","&amp;A4</f>
         <v/>
       </c>
-      <c r="C4" s="37" t="n"/>
+      <c r="C4" s="45" t="n"/>
       <c r="D4" s="7" t="n">
         <v>0.4861111111111111</v>
       </c>
@@ -4847,7 +6584,7 @@
       <c r="AD4" s="14" t="n"/>
       <c r="AE4" s="14" t="n"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1" s="25" thickBot="1">
+    <row r="5" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A5" s="24" t="inlineStr">
         <is>
           <t>DHMRP28</t>
@@ -4857,7 +6594,7 @@
         <f>B4&amp;","&amp;A5</f>
         <v/>
       </c>
-      <c r="C5" s="37" t="n"/>
+      <c r="C5" s="45" t="n"/>
       <c r="D5" s="7" t="n">
         <v>0.7083333333333334</v>
       </c>
@@ -4882,7 +6619,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1" s="25" thickBot="1">
+    <row r="6" ht="16.5" customHeight="1" s="41" thickBot="1">
       <c r="A6" s="24" t="inlineStr">
         <is>
           <t>DHPLB19</t>
@@ -4892,7 +6629,7 @@
         <f>B5&amp;","&amp;A6</f>
         <v/>
       </c>
-      <c r="C6" s="38" t="n"/>
+      <c r="C6" s="46" t="n"/>
       <c r="D6" s="7" t="n">
         <v>0.75</v>
       </c>
@@ -5007,7 +6744,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="25">
+    <row r="14" ht="15" customHeight="1" s="41">
       <c r="O14" s="23" t="inlineStr">
         <is>
           <t>Faisal Mahmud Fuad</t>
@@ -5016,7 +6753,7 @@
       <c r="U14" s="19" t="n"/>
       <c r="V14" s="20" t="n"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="25">
+    <row r="15" ht="18.75" customHeight="1" s="41">
       <c r="O15" s="23" t="inlineStr">
         <is>
           <t>Shahriar Mahbub</t>

--- a/data_driver/Change_Request_List.xlsx
+++ b/data_driver/Change_Request_List.xlsx
@@ -2018,8 +2018,8 @@
     <col width="15.7109375" bestFit="1" customWidth="1" style="41" min="10" max="10"/>
     <col width="16.7109375" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
     <col width="17" bestFit="1" customWidth="1" style="41" min="12" max="12"/>
-    <col width="9.140625" customWidth="1" style="41" min="13" max="16"/>
-    <col width="9.140625" customWidth="1" style="41" min="17" max="16384"/>
+    <col width="9.140625" customWidth="1" style="41" min="13" max="17"/>
+    <col width="9.140625" customWidth="1" style="41" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" s="41">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B2" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C2" s="31" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="F2" s="31" t="inlineStr">
         <is>
-          <t>SYKNG16,SYKNG07,SYGLP08</t>
+          <t>SYBNB21,SYBNB30,SYBNB34</t>
         </is>
       </c>
       <c r="G2" s="31" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="K2" s="32" t="inlineStr">
         <is>
-          <t>CRQ000000280109</t>
+          <t>CRQ000000280378</t>
         </is>
       </c>
       <c r="L2" s="33" t="inlineStr">
@@ -2150,52 +2150,52 @@
       </c>
       <c r="B3" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C3" s="31" t="inlineStr">
         <is>
-          <t>KM Jiaul Islam Jibon_01847188948</t>
+          <t>Sobuz Ahmed_01841122538</t>
         </is>
       </c>
       <c r="D3" s="31" t="inlineStr">
         <is>
-          <t>NCCD AbisoIP P3</t>
+          <t>NCCD AbisoIP</t>
         </is>
       </c>
       <c r="E3" s="31" t="inlineStr">
         <is>
-          <t>E2E Lease Site Ping Test 1/1</t>
+          <t>E1 deletion &amp; Collect BTS Cable</t>
         </is>
       </c>
       <c r="F3" s="31" t="inlineStr">
         <is>
-          <t>FPSDR04,FPSDR05,FPSDR09,RJPNG19</t>
+          <t>SYSDRD2,SYSDRD3,SYSDRB8,SYSDRA2</t>
         </is>
       </c>
       <c r="G3" s="31" t="inlineStr">
         <is>
-          <t>Service Effective</t>
+          <t>Non-Service Effective</t>
         </is>
       </c>
       <c r="H3" s="31" t="inlineStr">
         <is>
-          <t>00:30 Minute</t>
+          <t>00:00 Minute</t>
         </is>
       </c>
       <c r="I3" s="31" t="inlineStr">
         <is>
-          <t>Kustia</t>
+          <t>Sylhet</t>
         </is>
       </c>
       <c r="J3" s="31" t="inlineStr">
         <is>
-          <t>e.co_Kustia</t>
+          <t>e.co_Sylhet</t>
         </is>
       </c>
       <c r="K3" s="32" t="inlineStr">
         <is>
-          <t>CRQ000000280112</t>
+          <t>CRQ000000280381</t>
         </is>
       </c>
       <c r="L3" s="33" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B4" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C4" s="31" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="F4" s="31" t="inlineStr">
         <is>
-          <t>HGMDB19, MBJRI14, BMSDR24, BMSRL10</t>
+          <t>MBKML11, MBSML14, BMSDR24, BMSRL10</t>
         </is>
       </c>
       <c r="G4" s="31" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="K4" s="32" t="inlineStr">
         <is>
-          <t>CRQ000000280119</t>
+          <t>CRQ000000280386</t>
         </is>
       </c>
       <c r="L4" s="33" t="inlineStr">
@@ -2270,57 +2270,57 @@
       </c>
       <c r="B5" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C5" s="31" t="inlineStr">
         <is>
-          <t>Prodip Biswas_01841133479</t>
+          <t>Md. Masudur Rahman_01841122536</t>
         </is>
       </c>
       <c r="D5" s="31" t="inlineStr">
         <is>
-          <t>L18CellAdd, Y2020</t>
+          <t>DHAKA_MODERNIZATION</t>
         </is>
       </c>
       <c r="E5" s="31" t="inlineStr">
         <is>
-          <t>Take Print Screen from MBB</t>
+          <t>Rectification</t>
         </is>
       </c>
       <c r="F5" s="31" t="inlineStr">
         <is>
-          <t>BMNBG30,BMNNG05,BMNNG09,BMSDR54,BMSRL08,HGAZM09,MBSML28,SYBLG30</t>
+          <t>NKKND02,MYISG02</t>
         </is>
       </c>
       <c r="G5" s="31" t="inlineStr">
         <is>
-          <t>Non-Service Effective</t>
+          <t>Service Effective</t>
         </is>
       </c>
       <c r="H5" s="31" t="inlineStr">
         <is>
-          <t>00:00 Minute</t>
+          <t>00:30 Minute</t>
         </is>
       </c>
       <c r="I5" s="31" t="inlineStr">
         <is>
-          <t>Sylhet</t>
+          <t>Mymensingh</t>
         </is>
       </c>
       <c r="J5" s="31" t="inlineStr">
         <is>
-          <t>e.co_Sylhet</t>
+          <t>e.co_Mymensingh</t>
         </is>
       </c>
       <c r="K5" s="32" t="inlineStr">
         <is>
-          <t>CRQ000000280125</t>
+          <t>CRQ000000280388</t>
         </is>
       </c>
       <c r="L5" s="33" t="inlineStr">
         <is>
-          <t>Sumon Kumar Biswas</t>
+          <t>Muhammad Shahed</t>
         </is>
       </c>
     </row>
@@ -2330,37 +2330,37 @@
       </c>
       <c r="B6" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C6" s="31" t="inlineStr">
         <is>
-          <t>Prodip Biswas_01841133479</t>
+          <t>Md. Masudur Rahman_01841122536</t>
         </is>
       </c>
       <c r="D6" s="31" t="inlineStr">
         <is>
-          <t>L18CellAdd, Y2020</t>
+          <t>Padma_Colo</t>
         </is>
       </c>
       <c r="E6" s="31" t="inlineStr">
         <is>
-          <t>Take Print Screen from MBB</t>
+          <t>Rectification 1/1</t>
         </is>
       </c>
       <c r="F6" s="31" t="inlineStr">
         <is>
-          <t>SYBSW17,SYDKS18,SYDKS21,SYGLP20,SYGLP21,SYGWN13,SYGWN19SYJNT08</t>
+          <t>SYKNG05,SYSDR26,SYJNT03,SYJNT08,SYJNT02</t>
         </is>
       </c>
       <c r="G6" s="31" t="inlineStr">
         <is>
-          <t>Non-Service Effective</t>
+          <t>Service Effective</t>
         </is>
       </c>
       <c r="H6" s="31" t="inlineStr">
         <is>
-          <t>00:00 Minute</t>
+          <t>00:30 Minute</t>
         </is>
       </c>
       <c r="I6" s="31" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="K6" s="32" t="inlineStr">
         <is>
-          <t>CRQ000000280128</t>
+          <t>CRQ000000280392</t>
         </is>
       </c>
       <c r="L6" s="33" t="inlineStr">
         <is>
-          <t>Sumon Kumar Biswas</t>
+          <t>Muhammad Shahed</t>
         </is>
       </c>
     </row>
@@ -2390,27 +2390,27 @@
       </c>
       <c r="B7" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C7" s="31" t="inlineStr">
         <is>
-          <t>Prodip Biswas_01841133479</t>
+          <t>Md. Masudur Rahman_01841122536</t>
         </is>
       </c>
       <c r="D7" s="31" t="inlineStr">
         <is>
-          <t>L18CellAdd, Y2020</t>
+          <t>DHAKA_MODERNIZATION</t>
         </is>
       </c>
       <c r="E7" s="31" t="inlineStr">
         <is>
-          <t>Take Print Screen from MBB</t>
+          <t>Dismantle Materials Return</t>
         </is>
       </c>
       <c r="F7" s="31" t="inlineStr">
         <is>
-          <t>SYKNG03,SYKNG04,SYKNG12,BMNBG21,SYCMP09</t>
+          <t>DHDHM33,DHDHM36,MNSNG08</t>
         </is>
       </c>
       <c r="G7" s="31" t="inlineStr">
@@ -2425,22 +2425,22 @@
       </c>
       <c r="I7" s="31" t="inlineStr">
         <is>
-          <t>Sylhet</t>
+          <t>Dhaka</t>
         </is>
       </c>
       <c r="J7" s="31" t="inlineStr">
         <is>
-          <t>e.co_Sylhet</t>
+          <t>e.co_Dhaka North</t>
         </is>
       </c>
       <c r="K7" s="32" t="inlineStr">
         <is>
-          <t>CRQ000000280132</t>
+          <t>CRQ000000280400</t>
         </is>
       </c>
       <c r="L7" s="33" t="inlineStr">
         <is>
-          <t>Sumon Kumar Biswas</t>
+          <t>Muhammad Shahed</t>
         </is>
       </c>
     </row>
@@ -2450,27 +2450,27 @@
       </c>
       <c r="B8" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>Md. Shafiqur Rahman_01841122531</t>
+          <t>Md. Masudur Rahman_01841122536</t>
         </is>
       </c>
       <c r="D8" s="31" t="inlineStr">
         <is>
-          <t>Relocation</t>
+          <t>Finito</t>
         </is>
       </c>
       <c r="E8" s="31" t="inlineStr">
         <is>
-          <t>FE Configure, Site name change</t>
+          <t>Rectification</t>
         </is>
       </c>
       <c r="F8" s="31" t="inlineStr">
         <is>
-          <t>DHTIA08,DHSBG28</t>
+          <t>DHDHN41,DHTEJ23,DHTIA09,DHRMN05</t>
         </is>
       </c>
       <c r="G8" s="31" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="K8" s="32" t="inlineStr">
         <is>
-          <t>CRQ000000280134</t>
+          <t>CRQ000000280403</t>
         </is>
       </c>
       <c r="L8" s="33" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B9" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C9" s="31" t="inlineStr">
@@ -2520,27 +2520,27 @@
       </c>
       <c r="D9" s="31" t="inlineStr">
         <is>
-          <t>Padma_Colo</t>
+          <t>NCCD AbisoIP</t>
         </is>
       </c>
       <c r="E9" s="31" t="inlineStr">
         <is>
-          <t>Slot Remove for alarm clear</t>
+          <t>Return Dismantle Materials</t>
         </is>
       </c>
       <c r="F9" s="31" t="inlineStr">
         <is>
-          <t>SYGWN03,SYJNT08,SYJNT02</t>
+          <t>SYSDRD4,SYSDR34,SYGWN03,SYGWN05,SYJNT03,SYJNT08,SYGWN01,SYDKS28,SYGLP01</t>
         </is>
       </c>
       <c r="G9" s="31" t="inlineStr">
         <is>
-          <t>Service Effective</t>
+          <t>Non-Service Effective</t>
         </is>
       </c>
       <c r="H9" s="31" t="inlineStr">
         <is>
-          <t>00:30 Minute</t>
+          <t>00:00 Minute</t>
         </is>
       </c>
       <c r="I9" s="31" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K9" s="33" t="inlineStr">
         <is>
-          <t>CRQ000000280140</t>
+          <t>CRQ000000280408</t>
         </is>
       </c>
       <c r="L9" s="33" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="B10" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C10" s="31" t="inlineStr">
@@ -2580,42 +2580,42 @@
       </c>
       <c r="D10" s="31" t="inlineStr">
         <is>
-          <t>DHAKA_MODERNIZATION</t>
+          <t>NCCD AbisoIP</t>
         </is>
       </c>
       <c r="E10" s="31" t="inlineStr">
         <is>
-          <t>Rectification</t>
+          <t>Slot Remove for alarm clear</t>
         </is>
       </c>
       <c r="F10" s="31" t="inlineStr">
         <is>
-          <t>NKKND02,MYISG02</t>
+          <t>SYBNB42</t>
         </is>
       </c>
       <c r="G10" s="31" t="inlineStr">
         <is>
-          <t>Service Effective</t>
+          <t>Non-Service Effective</t>
         </is>
       </c>
       <c r="H10" s="31" t="inlineStr">
         <is>
-          <t>00:30 Minute</t>
+          <t>00:00 Minute</t>
         </is>
       </c>
       <c r="I10" s="31" t="inlineStr">
         <is>
-          <t>Mymensingh</t>
+          <t>Sylhet</t>
         </is>
       </c>
       <c r="J10" s="31" t="inlineStr">
         <is>
-          <t>e.co_Mymensingh</t>
+          <t>e.co_Sylhet</t>
         </is>
       </c>
       <c r="K10" s="33" t="inlineStr">
         <is>
-          <t>CRQ000000280148</t>
+          <t>CRQ000000280410</t>
         </is>
       </c>
       <c r="L10" s="33" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="B11" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C11" s="31" t="inlineStr">
@@ -2640,17 +2640,17 @@
       </c>
       <c r="D11" s="31" t="inlineStr">
         <is>
-          <t>Padma_Colo</t>
+          <t>NCCD AbisoIP</t>
         </is>
       </c>
       <c r="E11" s="31" t="inlineStr">
         <is>
-          <t>Rectification 1/1</t>
+          <t>Traffic Shifting 1/1</t>
         </is>
       </c>
       <c r="F11" s="31" t="inlineStr">
         <is>
-          <t>SYKNG05,SYSDR26,SYJNT03,SYJNT08</t>
+          <t>TNNGP12,TNKLH04,JPISL14,SRSDR07</t>
         </is>
       </c>
       <c r="G11" s="31" t="inlineStr">
@@ -2665,17 +2665,17 @@
       </c>
       <c r="I11" s="31" t="inlineStr">
         <is>
-          <t>Sylhet</t>
+          <t>Mymensingh</t>
         </is>
       </c>
       <c r="J11" s="31" t="inlineStr">
         <is>
-          <t>e.co_Sylhet</t>
+          <t>e.co_Mymensingh</t>
         </is>
       </c>
       <c r="K11" s="33" t="inlineStr">
         <is>
-          <t>CRQ000000280152</t>
+          <t>CRQ000000280415</t>
         </is>
       </c>
       <c r="L11" s="33" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B12" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C12" s="31" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F12" s="31" t="inlineStr">
         <is>
-          <t>DHDHM33,DHDHM36,MNSNG08</t>
+          <t>DHKGNT1,MNLHG18,MNSRN18,MNSRK13,MNSRK16,NGSNG11,NGSNG20</t>
         </is>
       </c>
       <c r="G12" s="31" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="J12" s="31" t="inlineStr">
         <is>
-          <t>e.co_Dhaka North</t>
+          <t>e.co_Dhaka South</t>
         </is>
       </c>
       <c r="K12" s="33" t="inlineStr">
         <is>
-          <t>CRQ000000280159</t>
+          <t>CRQ000000280417</t>
         </is>
       </c>
       <c r="L12" s="33" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B13" s="30" t="inlineStr">
         <is>
-          <t>02-Nov-20</t>
+          <t>03-Nov-20</t>
         </is>
       </c>
       <c r="C13" s="31" t="inlineStr">
@@ -2760,17 +2760,17 @@
       </c>
       <c r="D13" s="31" t="inlineStr">
         <is>
-          <t>Finito</t>
+          <t>Padma_Colo</t>
         </is>
       </c>
       <c r="E13" s="31" t="inlineStr">
         <is>
-          <t>Rectification</t>
+          <t>Traffic shifting 1/1</t>
         </is>
       </c>
       <c r="F13" s="31" t="inlineStr">
         <is>
-          <t>DHDHN41,DHTEJ23,DHTIA09,DHRMN05</t>
+          <t>MBJRI11,MBJRI10</t>
         </is>
       </c>
       <c r="G13" s="31" t="inlineStr">
@@ -2785,17 +2785,17 @@
       </c>
       <c r="I13" s="31" t="inlineStr">
         <is>
-          <t>Dhaka</t>
+          <t>Sylhet</t>
         </is>
       </c>
       <c r="J13" s="31" t="inlineStr">
         <is>
-          <t>e.co_Dhaka Metro</t>
+          <t>e.co_Sylhet</t>
         </is>
       </c>
       <c r="K13" s="32" t="inlineStr">
         <is>
-          <t>CRQ000000280164</t>
+          <t>CRQ000000280423</t>
         </is>
       </c>
       <c r="L13" s="33" t="inlineStr">
@@ -2808,81 +2808,301 @@
       <c r="A14" s="29" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="30" t="n"/>
-      <c r="C14" s="31" t="n"/>
-      <c r="D14" s="31" t="n"/>
-      <c r="E14" s="31" t="n"/>
-      <c r="F14" s="31" t="n"/>
-      <c r="G14" s="31" t="n"/>
-      <c r="H14" s="31" t="n"/>
-      <c r="I14" s="31" t="n"/>
-      <c r="J14" s="31" t="n"/>
-      <c r="K14" s="32" t="n"/>
-      <c r="L14" s="33" t="n"/>
+      <c r="B14" s="30" t="inlineStr">
+        <is>
+          <t>03-Nov-20</t>
+        </is>
+      </c>
+      <c r="C14" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D14" s="31" t="inlineStr">
+        <is>
+          <t>MW antenna optimization</t>
+        </is>
+      </c>
+      <c r="E14" s="31" t="inlineStr">
+        <is>
+          <t>MW  Inactive antenna Dismantle</t>
+        </is>
+      </c>
+      <c r="F14" s="31" t="inlineStr">
+        <is>
+          <t>HGSDR02</t>
+        </is>
+      </c>
+      <c r="G14" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H14" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I14" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J14" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K14" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280428</t>
+        </is>
+      </c>
+      <c r="L14" s="33" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="41">
       <c r="A15" s="29" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="n"/>
-      <c r="C15" s="31" t="n"/>
-      <c r="D15" s="31" t="n"/>
-      <c r="E15" s="31" t="n"/>
-      <c r="F15" s="31" t="n"/>
-      <c r="G15" s="31" t="n"/>
-      <c r="H15" s="31" t="n"/>
-      <c r="I15" s="31" t="n"/>
-      <c r="J15" s="31" t="n"/>
-      <c r="K15" s="32" t="n"/>
-      <c r="L15" s="33" t="n"/>
+      <c r="B15" s="30" t="inlineStr">
+        <is>
+          <t>03-Nov-20</t>
+        </is>
+      </c>
+      <c r="C15" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D15" s="31" t="inlineStr">
+        <is>
+          <t>Y2020 Capacity Expansion Cell Split</t>
+        </is>
+      </c>
+      <c r="E15" s="31" t="inlineStr">
+        <is>
+          <t>GSM antenna  Swap by10Port ANT</t>
+        </is>
+      </c>
+      <c r="F15" s="31" t="inlineStr">
+        <is>
+          <t>NGSNG63, NGSNG68</t>
+        </is>
+      </c>
+      <c r="G15" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H15" s="31" t="inlineStr">
+        <is>
+          <t>00:45 Minute</t>
+        </is>
+      </c>
+      <c r="I15" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J15" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka South</t>
+        </is>
+      </c>
+      <c r="K15" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280432</t>
+        </is>
+      </c>
+      <c r="L15" s="33" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="41">
       <c r="A16" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="n"/>
-      <c r="C16" s="31" t="n"/>
-      <c r="D16" s="31" t="n"/>
-      <c r="E16" s="31" t="n"/>
-      <c r="F16" s="31" t="n"/>
-      <c r="G16" s="31" t="n"/>
-      <c r="H16" s="31" t="n"/>
-      <c r="I16" s="31" t="n"/>
-      <c r="J16" s="31" t="n"/>
-      <c r="K16" s="32" t="n"/>
-      <c r="L16" s="33" t="n"/>
+      <c r="B16" s="30" t="inlineStr">
+        <is>
+          <t>03-Nov-20</t>
+        </is>
+      </c>
+      <c r="C16" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D16" s="31" t="inlineStr">
+        <is>
+          <t>GSM antenna optimization</t>
+        </is>
+      </c>
+      <c r="E16" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GSM antenna  Swap </t>
+        </is>
+      </c>
+      <c r="F16" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                  SYZKG14</t>
+        </is>
+      </c>
+      <c r="G16" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H16" s="31" t="inlineStr">
+        <is>
+          <t>00:45 Minute</t>
+        </is>
+      </c>
+      <c r="I16" s="31" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="J16" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Sylhet</t>
+        </is>
+      </c>
+      <c r="K16" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280439</t>
+        </is>
+      </c>
+      <c r="L16" s="33" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="41">
       <c r="A17" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="n"/>
-      <c r="C17" s="31" t="n"/>
-      <c r="D17" s="31" t="n"/>
-      <c r="E17" s="31" t="n"/>
-      <c r="F17" s="31" t="n"/>
-      <c r="G17" s="31" t="n"/>
-      <c r="H17" s="31" t="n"/>
-      <c r="I17" s="31" t="n"/>
-      <c r="J17" s="31" t="n"/>
-      <c r="K17" s="32" t="n"/>
-      <c r="L17" s="33" t="n"/>
+      <c r="B17" s="30" t="inlineStr">
+        <is>
+          <t>03-Nov-20</t>
+        </is>
+      </c>
+      <c r="C17" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D17" s="31" t="inlineStr">
+        <is>
+          <t>GSM antenna optimization</t>
+        </is>
+      </c>
+      <c r="E17" s="31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GSM antenna  Swap </t>
+        </is>
+      </c>
+      <c r="F17" s="31" t="inlineStr">
+        <is>
+          <t>DHTIA01,DHGULD9</t>
+        </is>
+      </c>
+      <c r="G17" s="31" t="inlineStr">
+        <is>
+          <t>Service Effective</t>
+        </is>
+      </c>
+      <c r="H17" s="31" t="inlineStr">
+        <is>
+          <t>00:45 Minute</t>
+        </is>
+      </c>
+      <c r="I17" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J17" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka Metro</t>
+        </is>
+      </c>
+      <c r="K17" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280444</t>
+        </is>
+      </c>
+      <c r="L17" s="33" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="41">
       <c r="A18" s="29" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="n"/>
-      <c r="C18" s="31" t="n"/>
-      <c r="D18" s="31" t="n"/>
-      <c r="E18" s="31" t="n"/>
-      <c r="F18" s="31" t="n"/>
-      <c r="G18" s="31" t="n"/>
-      <c r="H18" s="31" t="n"/>
-      <c r="I18" s="31" t="n"/>
-      <c r="J18" s="31" t="n"/>
-      <c r="K18" s="32" t="n"/>
-      <c r="L18" s="33" t="n"/>
+      <c r="B18" s="30" t="inlineStr">
+        <is>
+          <t>03-Nov-20</t>
+        </is>
+      </c>
+      <c r="C18" s="31" t="inlineStr">
+        <is>
+          <t>Md. Rashekul Islam Raju_01841133472</t>
+        </is>
+      </c>
+      <c r="D18" s="31" t="inlineStr">
+        <is>
+          <t>MW antenna optimization</t>
+        </is>
+      </c>
+      <c r="E18" s="31" t="inlineStr">
+        <is>
+          <t>MW  Inactive antenna Dismantle</t>
+        </is>
+      </c>
+      <c r="F18" s="31" t="inlineStr">
+        <is>
+          <t>DHKHL26,DHKHL74</t>
+        </is>
+      </c>
+      <c r="G18" s="31" t="inlineStr">
+        <is>
+          <t>Non-Service Effective</t>
+        </is>
+      </c>
+      <c r="H18" s="31" t="inlineStr">
+        <is>
+          <t>00:00 Minute</t>
+        </is>
+      </c>
+      <c r="I18" s="31" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="J18" s="31" t="inlineStr">
+        <is>
+          <t>e.co_Dhaka Metro</t>
+        </is>
+      </c>
+      <c r="K18" s="32" t="inlineStr">
+        <is>
+          <t>CRQ000000280449</t>
+        </is>
+      </c>
+      <c r="L18" s="33" t="inlineStr">
+        <is>
+          <t>Muhammad Shahed</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="41">
       <c r="A19" s="29" t="n">
@@ -3543,8 +3763,8 @@
     <col width="18" bestFit="1" customWidth="1" style="41" min="10" max="10"/>
     <col width="21.7109375" bestFit="1" customWidth="1" style="41" min="11" max="11"/>
     <col width="17.42578125" bestFit="1" customWidth="1" style="41" min="12" max="12"/>
-    <col width="9.140625" customWidth="1" style="41" min="13" max="17"/>
-    <col width="9.140625" customWidth="1" style="41" min="18" max="16384"/>
+    <col width="9.140625" customWidth="1" style="41" min="13" max="18"/>
+    <col width="9.140625" customWidth="1" style="41" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="41">
